--- a/saved_versions/fcheck_temp.xlsx
+++ b/saved_versions/fcheck_temp.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2244,11 +2244,6 @@
           <t>NORTH CAROLINA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>CODE NAME</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>"Ninth Congressional District: the Democrat in the race is an ultra-liberal named Dan McCready, wants to take away your guns. He wants to raise your taxes. He doesn't care about borders. He likes open borders, and he really admires socialism."</t>
@@ -2645,9 +2640,9 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Facts First: Trump did not win every Republican debate according to scientific opinion polls with random sampling -- and he did not win any of the three debates with Clinton according to scientific polls. He won the Clinton debates only in unscientific website polls, in which anyone could go and click a button._x000D__x000D_
-Carly Fiorina did best in a Fox News poll on performance in the first Republican debate in August 2015; Trump was in last._x000D__x000D_
-Scientific polls by major news organizations, such as those by CNN, had Trump losing all three debates to Clinton. The CNN poll on the first debate had 62% picking Clinton, 27% picking Trump._x000D__x000D_
+          <t>Facts First: Trump did not win every Republican debate according to scientific opinion polls with random sampling -- and he did not win any of the three debates with Clinton according to scientific polls. He won the Clinton debates only in unscientific website polls, in which anyone could go and click a button._x000D_
+Carly Fiorina did best in a Fox News poll on performance in the first Republican debate in August 2015; Trump was in last._x000D_
+Scientific polls by major news organizations, such as those by CNN, had Trump losing all three debates to Clinton. The CNN poll on the first debate had 62% picking Clinton, 27% picking Trump._x000D_
 Trump has tended to point to polls on websites such as Breitbart and Drudge Report, which allow anyone to go and click for their favorite. Such polls are not representative of the population, since they allow coordinated efforts to boost particular candidates.</t>
         </is>
       </c>
@@ -3731,7 +3726,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Democrats and open borders</t>
+          <t>Democrats and borders</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4030,7 +4025,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>"We're building a lot of wall right now."</t>
+          <t>We're building a lot of wall right now,</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4697,7 +4692,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Evil Jews</t>
+          <t>Omar Israel Tweet</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5853,11 +5848,11 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Facts First: Americans are paying these billions of dollars in Trump tariffs on imported Chinese products._x000D__x000D_
-The American importers, not the Chinese exporters, make the actual payments; economic studies, including one by the Federal Reserve Bank of New York, have concluded that the overwhelming majority of the costs are being eaten by Americans._x000D__x000D_
-Some companies are moving some of their operations out of China in response the tariffs, but there is not good data on how many. And experts said it is not true to say the firms are entirely "fleeing" the country._x000D__x000D_
-"We have stories about firms leaving China, but that was happening before tariffs were applied because Chinese labor and land costs have been rising. Now we have more stories but no documentation that 'many' firms are leaving, given the huge number of foreign firms operating in China. And we certainly don't have evidence that a large number of firms are returning production to the US," said Derek Scissors, an expert on Asian economies as a resident scholar at the conservative American Enterprise Institute._x000D__x000D_
-"I think it's untrue to say that companies are leaving China, though it's possible that a handful may have done. What has been happening on a significant scale is that many firms have been moving, or plan to move, some of their supply chain operations out of China to avoid tariffs, and or to go to places where they sense greater political and policy stability," said George Magnus, a research associate at Oxford University's China Centre._x000D__x000D_
+          <t>Facts First: Americans are paying these billions of dollars in Trump tariffs on imported Chinese products._x000D_
+The American importers, not the Chinese exporters, make the actual payments; economic studies, including one by the Federal Reserve Bank of New York, have concluded that the overwhelming majority of the costs are being eaten by Americans._x000D_
+Some companies are moving some of their operations out of China in response the tariffs, but there is not good data on how many. And experts said it is not true to say the firms are entirely "fleeing" the country._x000D_
+"We have stories about firms leaving China, but that was happening before tariffs were applied because Chinese labor and land costs have been rising. Now we have more stories but no documentation that 'many' firms are leaving, given the huge number of foreign firms operating in China. And we certainly don't have evidence that a large number of firms are returning production to the US," said Derek Scissors, an expert on Asian economies as a resident scholar at the conservative American Enterprise Institute._x000D_
+"I think it's untrue to say that companies are leaving China, though it's possible that a handful may have done. What has been happening on a significant scale is that many firms have been moving, or plan to move, some of their supply chain operations out of China to avoid tariffs, and or to go to places where they sense greater political and policy stability," said George Magnus, a research associate at Oxford University's China Centre._x000D_
 Magnus added: "They're going mainly to north Asia, Vietnam and Mexico, though, not the US."</t>
         </is>
       </c>
@@ -6195,7 +6190,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+          <t>&lt;a href='m' target='_blank'&gt;m&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N76">
@@ -6635,9 +6630,9 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Facts First: There is no evidence the Times invented imaginary sources or that its article on squalid conditions for child migrants at a Border Patrol station in Clint, Texas, was substantially false. The Times issued a statement saying, "We are confident in the accuracy of our reporting on the US Border Patrol's detention centers."_x000D__x000D_
-Vice President Mike Pence subsequently visited two facilities in the Rio Grande Valley: the Donna Processing Facility, where families are being held, and the McAllen Border Patrol Station, which is holding single adults who have been found crossing into the United States illegally._x000D__x000D_
-Children in the Donna facility were lying on cots, watching movies and eating snacks, and the facility had air conditioning and ample space, according to CNN reporters who traveled with Pence. At McAllen, Texas, hundreds of men were overcrowded in a sweltering room with no space for cots._x000D__x000D_
+          <t>Facts First: There is no evidence the Times invented imaginary sources or that its article on squalid conditions for child migrants at a Border Patrol station in Clint, Texas, was substantially false. The Times issued a statement saying, "We are confident in the accuracy of our reporting on the US Border Patrol's detention centers."_x000D_
+Vice President Mike Pence subsequently visited two facilities in the Rio Grande Valley: the Donna Processing Facility, where families are being held, and the McAllen Border Patrol Station, which is holding single adults who have been found crossing into the United States illegally._x000D_
+Children in the Donna facility were lying on cots, watching movies and eating snacks, and the facility had air conditioning and ample space, according to CNN reporters who traveled with Pence. At McAllen, Texas, hundreds of men were overcrowded in a sweltering room with no space for cots._x000D_
 Nothing Pence saw at these facilities disproved what the Times reported about the Clint facility.</t>
         </is>
       </c>
@@ -7297,6 +7292,5731 @@
       <c r="S91" t="inlineStr">
         <is>
           <t xml:space="preserve">VETERANS   </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Impeachment polling</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>“But think of it: Only 11 percent, in a new poll, favor the starting of this ridiculous impeachment hearings that are going on.  You hear about it.”</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no recent public poll in which support for impeachment is even close to as low as 11%. While the results have varied depending on the way the question has been asked, support for impeachment has regularly been in the 30s or higher._x000D__x000D_
+It is possible that Trump got the “11%” from a July Economist/YouGov poll in which 11% of Republicans in particular supported impeachment. Thirty-six percent of all respondents supported impeachment. _x000D__x000D_
+In a Fox News poll in June, 43% said Trump should be impeached and removed from office, and another 7% said he should be impeached but not removed. A Monmouth University poll in June found 35% support for impeachment and removal. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>POLLS</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N92">
+        <v>2019</v>
+      </c>
+      <c r="O92">
+        <v>7</v>
+      </c>
+      <c r="P92">
+        <v>23</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R92">
+        <v>30</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POLLS   </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>43669</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Impeachment polling</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>“Newest Poll: Only 11% in favor of starting ridiculous impeachment hearings.”</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no recent public poll in which support for impeachment is even close to as low as 11%. While the results have varied depending on the way the question has been asked, support for impeachment has regularly been in the 30s or higher._x000D__x000D_
+It is possible that Trump got the “11%” from a July Economist/YouGov poll in which 11% of Republicans in particular supported impeachment. Thirty-six percent of all respondents supported impeachment. _x000D__x000D_
+In a Fox News poll in June, 43% said Trump should be impeached and removed from office, and another 7% said he should be impeached but not removed. A Monmouth University poll in June found 35% support for impeachment and removal. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>POLLS</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N93">
+        <v>2019</v>
+      </c>
+      <c r="O93">
+        <v>7</v>
+      </c>
+      <c r="P93">
+        <v>23</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R93">
+        <v>30</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POLLS   </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Shaking Hands</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>“I gave the commencement address at the Air Force Academy recently, and at Annapolis the year before. And they said, ‘Sir, would you like to shake the hands of all the cadets?’ I said, ‘How many are there?’ ‘One thousand one hundred.’ I said, ‘Yeah, that sounds okay.’ I say, ‘Do other presidents do it?’ ‘Yes, they do.’ ‘Do all of them?’ ‘Yeah, they do.’ What they didn’t say is they start and then they peter out and they go back.  Because it’s -- it’s tough. It was really hot. That sun was beaming down. And I’m just one hand.  And some of these guys are great athletes.  And some of the women -- they had some women in the class that were -- their hands were very strong, okay?  And they’re all shaking.  And, you know, they’re a little nervous, maybe; they’re meeting the president. They’re shaking strongly and -- ‘Sir.’  But, you know, with shaking 1,100 hands and saluting. We’re saluting, shaking, turning, spinning. They’re coming at all different directions.  I felt like a great fighter pilot.  But I stood up there for the whole thing. I said, ‘There’s no way that other presidents have done that.’ He said, ‘No, no, they do it but they leave after about 50 or 60 people.’ I said, ‘Why didn’t you tell me that?’ But I’m glad I did it.”</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: As Trump says he was initially told, previous presidents have indeed shaken the hands of every graduate of the military service academies where they have spoken. _x000D__x000D_
+Contemporaneous news reports about Barack Obama and George W. Bush, for example, noted that they shook every hand at the graduations they attended. We can’t fact-check what Trump might have been told in a private conversation, but he was, at least, promoting a false claim._x000D__x000D_
+There were 989 graduates from the Air Force Academy this year, not 1,100._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N94">
+        <v>2019</v>
+      </c>
+      <c r="O94">
+        <v>7</v>
+      </c>
+      <c r="P94">
+        <v>23</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R94">
+        <v>30</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Unemployment</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>“So we have the best economy in history, the best employment numbers in history.  The most people working -- almost 160 million -- in the history of our country.  The most people working.  That’s a big number.  So we have the best economy, best unemployment numbers, most people working.”</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The US does not have its “best unemployment numbers” ever. The unemployment rate for June is 3.7%, well above the record 2.5% set in 1953._x000D__x000D_
+_x000D__x000D_
+We’ll let Trump claim that this is the “best economy” ever, since best is subjective. It is true that more people are working today than ever before, but this number tends to rise steadily as the population grows._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N95">
+        <v>2019</v>
+      </c>
+      <c r="O95">
+        <v>7</v>
+      </c>
+      <c r="P95">
+        <v>23</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R95">
+        <v>30</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>who's paying / history of tariffs</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>“So we’re taking in billions of dollars in tariffs from China.  They never gave us 10 cents.”</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Facts First: The U.S. government has been charging tariffs on imported Chinese goods for more than two centuries, and it took in hefty sums from such tariffs long before Trump's own tariffs. (Again, it is US importers, not China, who have paid these tariffs.) The Treasury received $14 billion from tariffs on China in 2014, to look at one pre-Trump year.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>TARIFFS</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N96">
+        <v>2019</v>
+      </c>
+      <c r="O96">
+        <v>7</v>
+      </c>
+      <c r="P96">
+        <v>23</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R96">
+        <v>30</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINA TARIFFS  </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Judicial appointments</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>“But, you know, what people don’t talk about: I’ve just signed the 124th federal district judge -- federal judges -- under me. …Because, normally, when you become president, you go in and you say, ‘Do I have any judges to appoint?’ ‘No.’  You know, they’re all -- because it’s such an important thing.”</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: It is not normal for incoming presidents to be told they have no judges to appoint. Like Trump, his predecessors entered office with dozens of vacancies on federal courts._x000D__x000D_
+According to Russell Wheeler, a visiting fellow at the Brookings Institution who tracks judicial appointments, there were 103 vacancies on district and appeals courts on Jan. 1, 2017, just before Trump took office; 53 vacancies on Jan. 1, 2009, just before Barack Obama took office; 80 vacancies on Jan. 1, 2001, just before George W. Bush took office; 107 vacancies on Jan. 1, 1993, just before Bill Clinton took office._x000D__x000D_
+_x000D__x000D_
+So Trump had the most judges to appoint since Clinton, but, clearly, other presidents also had appointing to do._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N97">
+        <v>2019</v>
+      </c>
+      <c r="O97">
+        <v>7</v>
+      </c>
+      <c r="P97">
+        <v>23</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R97">
+        <v>30</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Previous presidents and NATO</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>“European Union is worse to us on trade than China, okay?  Nobody would think that.  You know, a lot of us come from European Union.  We come from Europe -- our grandparents, our great-grandparents. So you think, ‘Oh, isn’t that nice?’ Except, they kill us -- the European Union.  It was formed in order to beat us economically, and yet we protect them with NATO.”</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Previous presidents have, like Trump, insisted that other NATO members spend more on defense. NATO countries are not letting actual "bills" go unpaid, though some of them are not yet meeting an alliance guideline of spending 2% of their gross domestic product on defense._x000D__x000D_
+Obama regularly urged NATO allies to spend more. "If we've got a collective defense, it means that everybody's got to chip in, and I've had some concerns about a diminished level of defense spending among some of our partners in NATO," Obama said in 2014. "The situation in Ukraine reminds us that our freedom isn't free and we've got to be willing to pay for the assets, the personnel, the training that's required to make sure that we have a credible NATO force and an effective deterrent force."_x000D__x000D_
+At George W. Bush's final NATO summit, in 2008, he called on NATO allies to "increase their defense investments to support both NATO and EU operations."_x000D__x000D_
+Trump might have just been speaking informally here, but NATO countries do not have actual bills owing if they are not meeting the 2% guideline. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N98">
+        <v>2019</v>
+      </c>
+      <c r="O98">
+        <v>7</v>
+      </c>
+      <c r="P98">
+        <v>23</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R98">
+        <v>30</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NATO   </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>EU formation</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>“European Union is worse to us on trade than China, okay?  Nobody would think that.  You know, a lot of us come from European Union.  We come from Europe -- our grandparents, our great-grandparents. So you think, ‘Oh, isn’t that nice?’ Except, they kill us -- the European Union.  It was formed in order to beat us economically, and yet we protect them with NATO.”</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Beating the United States economically was not one of the key reasons for the formation of the European Union._x000D__x000D_
+“The President's claims are preposterous. The European Communities (forerunner of the EU) were formed in the 1950s as part of a joint US-Western European plan to stabilize and secure Western Europe and promote prosperity, by means of trade liberalization and economic growth, throughout the shared transatlantic space,” Desmond Dinan, a public policy professor at George Mason University who is an expert in the history of European integration, said in an email. _x000D__x000D_
+US presidents have consistently supported all of these European integration efforts. _x000D__x000D_
+“The EU was launched in 1993, on the shoulders of the European Communities, to promote peace and prosperity in the post-Cold War era, an era also of rapid globalization. American officials may have had their doubts about the feasibility of monetary union, and about the possibility of a Common (European) Security and Defense Policy, but the US Administration strongly supported further European integration in the 1990s,” Dinan said._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N99">
+        <v>2019</v>
+      </c>
+      <c r="O99">
+        <v>7</v>
+      </c>
+      <c r="P99">
+        <v>23</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R99">
+        <v>30</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>43669</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Caravan conspiracy</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>“Guatemala, which has been forming Caravans and sending large numbers of people, some with criminal records, to the United States, has decided to break the deal they had with us on signing a necessary Safe Third Agreement. We were ready to go. Now we are looking at the “BAN,” Tariffs, Remittance Fees, or all of the above. Guatemala has not been good. Big U.S. taxpayer dollars going to them was cut off by me 9 months ago.”</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Though the Department of Homeland Security has said that some members of recent migrant caravans have had criminal pasts, there is simply no evidence that the government of Guatemala has deliberately “sent” caravans or deliberately put criminals into the caravans to foist them upon the United States._x000D__x000D_
+ _x000D__x000D_
+Trump made it clear the week prior to this remark that he means that the governments of Latin American countries are literally inserting criminals into the caravans._x000D__x000D_
+ _x000D__x000D_
+By all accounts, the caravans have consisted of people who decide for themselves that they want to migrate. There has been no hint that governments have forced anyone into one of the caravan groups or have had a role in creating the caravans._x000D__x000D_
+ _x000D__x000D_
+"Everything we have seen suggests the migrant caravans were loosely organized and largely spontaneous in nature, and were not organized or directed by the governments of El Salvador, Guatemala or Honduras," said Ariel Ruiz, an associate policy analyst at the Migration Policy Institute.  _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>IMMIGRATION</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>CARAVAN</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N100">
+        <v>2019</v>
+      </c>
+      <c r="O100">
+        <v>7</v>
+      </c>
+      <c r="P100">
+        <v>23</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R100">
+        <v>30</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IMMIGRATION CARAVAN  </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Media and Sources</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>“The Amazon Washington Post front page story yesterday was total Fake News. They said ‘Advisors wrote new talking points and handed him reams of opposition research on the four Congresswomen.’ Now really, does that sound like me? What advisors, there were no talking points, except for those stated by me, &amp; ‘reams of paper’ were never given to me. It is a made up story meant to demean &amp; belittle. The Post had no sources. The facts remain the same, that we have 4 Radical Left Congresswomen who have said very bad things about Israel &amp; our Country!”</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There was simply no evidence that the Post invented nonexistent sources for its article on his Trump's aides' and allies' reaction to his racist tweets about four Democratic congresswomen. _x000D__x000D_
+The article said the reporting was "based on interviews with 26 White House aides, advisers, lawmakers and others involved in the response -- most of whom spoke on the condition of anonymity to share behind-the-scenes details." There is no sign that the Post has fabricated sources for any of its articles on Trump._x000D__x000D_
+ _x000D__x000D_
+Trump was armed with opposition research on the congresswomen at events during the week the Post described in the article. At his Cabinet meeting, he gestured at papers on the table and said, “I think it's terrible when people speak so badly about our country, when people speak so horribly. I have a list of things here. I'm not going to bore you with it because you would be bored.” At a White House event on American manufacturing, his talking points were photographed by a Washington Post reporter. (It is possible that Trump himself dictated them.)_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>FAKE NEWS</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N101">
+        <v>2019</v>
+      </c>
+      <c r="O101">
+        <v>7</v>
+      </c>
+      <c r="P101">
+        <v>22</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R101">
+        <v>30</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA FAKE NEWS  </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Media and Sources</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>“They’ll say, ‘Seven sources have said that this took pace in the White House,’ or something. There are no seven sources.  They make them up.  You know what?  They make them up.  There are no -- they have gone -- they used to call up and say, “We’d like to just verify this statement or verify a quote for…”  They don’t even call up anymore.  We don’t hear from the New York Times, which is totally crooked.  We don’t hear from the New York Times.  The Washington Post…We don’t hear from these people. They don’t call up and say, ‘We’d like to check a quote.’ I don’t see anymore where they say, ‘Jim Smith of the White House made the following statement.’ It’s always “a source who decided to remain anonymous from the White House.”</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no evidence that the Times or Post have invented imaginary sources for their articles on the White House. The journalists for those newspapers regularly call the White House for comment._x000D__x000D_
+Josh Dawsey, a White House reporter for the Washington Post, said on Twitter: “It is a peculiar statement because members of his press office and others in his administration sometime complain that we annoy them too often.” Trump’s officials regularly insist on being quoted without their name attached even when they are giving official briefings to large groups of reporters._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>MEDIA</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>FAKE NEWS</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N102">
+        <v>2019</v>
+      </c>
+      <c r="O102">
+        <v>7</v>
+      </c>
+      <c r="P102">
+        <v>23</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R102">
+        <v>30</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIA FAKE NEWS  </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Farm income was declining 15 years</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">“Farmers are starting to do great again, after 15 years of a downward spiral. The 16 Billion Dollar China “replacement” money didn’t exactly hurt!” </t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: US farmers had not been on a downhill slide for 15 years before Trump imposed his tariffs on China in 2018._x000D__x000D_
+Net farm income doubled between 2000 and 2013, from just under $60 billion to just over $120 billion. The Congressional Research Service wrote in 2018: "US farm income experienced a golden period during 2011 through 2014 due to strong commodity prices and robust agricultural exports," setting a record high in 2013. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>FARMERS</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N103">
+        <v>2019</v>
+      </c>
+      <c r="O103">
+        <v>7</v>
+      </c>
+      <c r="P103">
+        <v>23</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R103">
+        <v>30</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FARMERS CHINA  </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>who's paying</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>“The World Trade Organization has been a horrible thing for us. That’s what built China. That, and the fact that our former Presidents did nothing about the fact that China was making hundreds of billions of dollars a year.  And I guess they didn’t see it. I mean, 25 years, they didn’t see it. But we see it.  And right now, they’re paying us billions and billions of dollars, folks.”</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Americans are paying these billions of dollars in Trump tariffs on imported Chinese products._x000D__x000D_
+The American importers, not the Chinese exporters, make the actual payments; economic studies, including one by the Federal Reserve Bank of New York, have concluded that the overwhelming majority of the costs are being eaten by Americans._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>TARIFFS</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N104">
+        <v>2019</v>
+      </c>
+      <c r="O104">
+        <v>7</v>
+      </c>
+      <c r="P104">
+        <v>23</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R104">
+        <v>30</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINA TARIFFS  </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>who's paying</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>“And, you know, I know President Xi.  We’re working on trade deals right now.  We’ll see what happens. In the meantime, they’re paying us billions and billions of dollars of tariffs, which is fine with me. ”</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Americans are paying these billions of dollars in Trump tariffs on imported Chinese products._x000D__x000D_
+The American importers, not the Chinese exporters, make the actual payments; economic studies, including one by the Federal Reserve Bank of New York, have concluded that the overwhelming majority of the costs are being eaten by Americans._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>TARIFFS</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N105">
+        <v>2019</v>
+      </c>
+      <c r="O105">
+        <v>7</v>
+      </c>
+      <c r="P105">
+        <v>22</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R105">
+        <v>30</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINA TARIFFS  </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Farmers and China</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>“I said to my Secretary of Agriculture -- Sonny Perdue, who is great -- I said, ‘Sonny, what’s the biggest year that we’ve ever had with China? How much money did they spend in the United States?’ ‘Sir, I’ll get back to you.’ He gets back to me the next day: ‘Sir, $16 billion.’ I say, ‘All right. We’ll take $16 billion out of our tariffs’ -- which are many times that amount that they’re paying us in tariffs.  They never paid us 10 cents. ‘We’ll take $16 billion out’ -- that’s the highest they’ve ever paid – ‘and we’ll use that toward the farmers and distribute it.  This way, nobody gets hurt.’"</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Sixteen billion is not the most China has ever spent on US agricultural products in a year. China spent $29.6 billion in 2014, according to government figures._x000D__x000D_
+The New York Times reported last week that Trump's tariffs on China have generated about $21 billion so far, which is not "many, many times" $16 billion. And economic studies have concluded that Americans, not people or companies in China, are bearing the majority of the costs._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>TARIFFS</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>FARMERS</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N106">
+        <v>2019</v>
+      </c>
+      <c r="O106">
+        <v>7</v>
+      </c>
+      <c r="P106">
+        <v>23</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R106">
+        <v>30</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINA TARIFFS FARMERS </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>43669</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Veterans Choice</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>“…Best and Newest Military (almost totally rebuilt from the depleted military I took over) in History, Best V.A. in History (Choice), and MUCH, MUCH MORE. Gee, let’s impeach the President.”</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Facts First: Trump did not get the Veterans Choice program passed. It was signed into law by President Barack Obama in 2014. In 2018, Trump signed the VA MISSION Act, which expanded and changed the Choice program.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>MILITARY</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>HEALTH CARE</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N107">
+        <v>2019</v>
+      </c>
+      <c r="O107">
+        <v>7</v>
+      </c>
+      <c r="P107">
+        <v>23</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R107">
+        <v>30</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MILITARY HEALTH CARE  </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Veterans Choice</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>“We have the best VA in history, and I got Choice so that -- that’s one of the big things that’s working -- so that if a person has to wait for three weeks, four weeks, five weeks -- can you imagine you go to a doctor and they say, “Come back in six weeks?”  People were coming back -- they were sick, and they were coming back and they were terminal.  They could’ve been saved.  They were waiting so long. So I got Choice.  You go out.  If you have to wait, you go out and you see a doctor.  We pay the bill.  Okay?  We actually -- the least important thing is we save money.  That’s the least important thing, in that case, but we do save money.  But we also have a very happy VA.  They love it.”</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Facts First: Trump did not get the Veterans Choice program passed. It was signed into law by President Barack Obama in 2014. In 2018, Trump signed the VA MISSION Act, which expanded and changed the Choice program.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>MILITARY</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>HEALTH CARE</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N108">
+        <v>2019</v>
+      </c>
+      <c r="O108">
+        <v>7</v>
+      </c>
+      <c r="P108">
+        <v>23</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R108">
+        <v>30</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MILITARY HEALTH CARE  </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Mueller conflict of interest</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>“And Robert Mueller, I know he’s conflicted -- he had a lot -- there’s a lot of conflicts that he’s got, including the fact that his best friend is Comey.”</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Then-White House chief strategist Steve Bannon and Mueller himself have said that Mueller was not seeking the job when he spoke to Trump about it. According to both of them, Mueller was asked to speak with Trump in an advisory capacity, not as a candidate. _x000D__x000D_
+Mueller served as FBI director for 12 years between 2001 and 2013. Bannon told Mueller's investigators that Mueller's conversation with Trump in May 2017 was not in the capacity of a candidate to return to the job and that Mueller "did not come in looking for the job." According to the Mueller report, rather, Bannon said "the White House had invited Mueller to speak to the President to offer a perspective on the institution of the FBI." _x000D__x000D_
+Mueller said in his testimony on July 24 that while he had discussed the job with Trump, it was "not as a candidate."_x000D__x000D_
+"I was asked to give my input on what it would take to do the job," Mueller testified. The "interview," he said, "was about the job and not about me applying for the job."_x000D__x000D_
+Asked if he had told the vice president that the one job he would come back for was the job of FBI director, Mueller said, "Don't recall that one."_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N109">
+        <v>2019</v>
+      </c>
+      <c r="O109">
+        <v>7</v>
+      </c>
+      <c r="P109">
+        <v>22</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R109">
+        <v>30</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER   </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Mueller &amp; Comey</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>“And Robert Mueller, I know he’s conflicted -- he had a lot -- there’s a lot of conflicts that he’s got, including the fact that his best friend is Comey.”</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no evidence that former FBI directors Mueller and James Comey are, or ever were, “best friends.”_x000D__x000D_
+ _x000D__x000D_
+Mueller said in his testimony Wednesday that the two are "business associates"; when pressed, he conceded they are "friends." But there is no evidence they were very close or that they have been photographed "hugging and kissing," as Trump has previously alleged. In 2017, a lawyer for Comey told the fact-check website Snopes: “Jim and Bob are friends in the sense that co-workers are friends. They don’t really have a personal relationship. Jim has never been to Bob’s house and Bob has never been to Jim’s house…They’ve had lunch together once, dinner together twice, once with their spouses and once after Jim became FBI director so Bob could give him a run-down on what to look out for.”_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>JAMES COMEY</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N110">
+        <v>2019</v>
+      </c>
+      <c r="O110">
+        <v>7</v>
+      </c>
+      <c r="P110">
+        <v>22</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R110">
+        <v>30</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER JAMES COMEY  </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Mueller and obstruction</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>"And Robert Mueller, I know he's conflicted -- he had a lot -- there's a lot of conflicts that he's got...But you know what? He still ruled -- and I respect him for it -- he still ruled 'no collusion, no obstruction.'"</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Mueller's report did not say "no obstruction" in any way. _x000D__x000D_
+Mueller laid out a case that Trump may have committed obstruction, but he explained that he would abide by a Justice Department policy that holds that a sitting president cannot be indicted._x000D__x000D_
+"... If we had confidence after a thorough investigation of the facts that the President clearly did not commit obstruction of justice, we would so state. Based on the facts and the applicable legal standards, we are unable to reach that judgment. Accordingly, while this report does not conclude that the President committed a crime, it also does not exonerate him," the report said," Mueller's report said._x000D__x000D_
+ It was Attorney General William Barr who determined that the evidence laid out by Mueller was "not sufficient to establish that the President committed an obstruction-of-justice offense."_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>OBSTRUCTION</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N111">
+        <v>2019</v>
+      </c>
+      <c r="O111">
+        <v>7</v>
+      </c>
+      <c r="P111">
+        <v>22</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R111">
+        <v>30</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER OBSTRUCTION  </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>43670</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>"illegal" investigation</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>"So Democrats and others can illegally fabricate a crime, try pinning it on a very innocent President, and when he fights back against this illegal and treasonous attack on our Country, they call It Obstruction? Wrong!"</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no evidence that the Mueller investigation was "illegal," nor that any crime was fabricated by investigators._x000D__x000D_
+ _x000D__x000D_
+Mueller's report detailed evidence that Trump may have committed obstruction of justice in multiple instances. Mueller said he could not charge a sitting president with a crime on account of a longstanding Department of Justice policy, but it was not solely "Democrats" who said obstruction may have occurred._x000D__x000D_
+Mueller confirmed at Wednesday's hearing that the report did not exonerate Trump on the issue of obstruction of justice._x000D__x000D_
+ _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>OBSTRUCTION</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N112">
+        <v>2019</v>
+      </c>
+      <c r="O112">
+        <v>7</v>
+      </c>
+      <c r="P112">
+        <v>24</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="R112">
+        <v>30</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION OBSTRUCTION </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>43673</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Mueller and obstruction</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>“Robert Mueller’s testimony, and the Mueller Report itself, was a disaster for this illegal Democrat inspired Witch Hunt.”</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no evidence that the Mueller investigation was "illegal," nor that any crime was fabricated by investigators._x000D__x000D_
+ _x000D__x000D_
+Mueller's report detailed evidence that Trump may have committed obstruction of justice in multiple instances. Mueller said he could not charge a sitting president with a crime on account of a longstanding Department of Justice policy, but it was not solely "Democrats" who said obstruction may have occurred._x000D__x000D_
+Mueller confirmed at Wednesday's hearing that the report did not exonerate Trump on the issue of obstruction of justice._x000D__x000D_
+ _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>OBSTRUCTION</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N113">
+        <v>2019</v>
+      </c>
+      <c r="O113">
+        <v>7</v>
+      </c>
+      <c r="P113">
+        <v>27</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="R113">
+        <v>30</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION OBSTRUCTION </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>43670</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>The investigators</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>"Why didn't Robert Mueller &amp; his band of 18 Angry Democrats spend any time investigating Crooked Hillary Clinton, Lyin' &amp; Leakin' James Comey, Lisa Page and her Psycho lover, Peter S, Andy McCabe, the beautiful Ohr family, Fusion GPS, and many more, including HIMSELF &amp; Andrew W?"</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Mueller himself is a longtime Republican. The majority of the lawyers on Mueller's team had registered as Democrats, but not all of them._x000D__x000D_
+ _x000D__x000D_
+The Washington Post found in 2018 that 13 of the 17 lawyers then on the special counsel's team had registered as Democrats; the Post said the other four had no affiliation or their affiliation could not be found. _x000D__x000D_
+_x000D__x000D_
+In his testimony on July 24, Mueller said he hires people for their capabilities and integrity and had “not had one occasion to ask somebody about their political affiliation” in his 25 years working “in this business.” _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N114">
+        <v>2019</v>
+      </c>
+      <c r="O114">
+        <v>7</v>
+      </c>
+      <c r="P114">
+        <v>24</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="R114">
+        <v>30</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION DEMOCRATS </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>43670</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Mueller conflict of interest</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>“It has been reported that Robert Mueller is saying that he did not apply and interview for the job of FBI Director (and get turned down) the day before he was wrongfully appointed Special Counsel. Hope he doesn’t say that under oath in that we have numerous witnesses to the interview, including the Vice President of the United States!”</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Then-White House chief strategist Steve Bannon and Mueller himself have said that Mueller was not seeking the job when he spoke to Trump about it. According to both of them, Mueller was asked to speak with Trump in an advisory capacity, not as a candidate. _x000D__x000D_
+_x000D__x000D_
+Mueller served as FBI director for 12 years between 2001 and 2013. Bannon told Mueller's investigators that Mueller's conversation with Trump in May 2017 was not in the capacity of a candidate to return to the job and that Mueller "did not come in looking for the job." According to the Mueller report, rather, Bannon said "the White House had invited Mueller to speak to the President to offer a perspective on the institution of the FBI." _x000D__x000D_
+_x000D__x000D_
+Mueller said in his testimony on July 24 that while he had discussed the job with Trump, it was "not as a candidate."_x000D__x000D_
+_x000D__x000D_
+"I was asked to give my input on what it would take to do the job," Mueller testified. The "interview," he said, "was about the job and not about me applying for the job."_x000D__x000D_
+_x000D__x000D_
+Asked if he had told the vice president that the one job he would come back for was the job of FBI director, Mueller said, "Don't recall that one."_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N115">
+        <v>2019</v>
+      </c>
+      <c r="O115">
+        <v>7</v>
+      </c>
+      <c r="P115">
+        <v>24</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="R115">
+        <v>30</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER   </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Aaron Zebley</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>"So Robert Mueller has now asked for his long time Never Trumper lawyer to sit beside him and help with answers. What's this all about? His lawyer represented the 'basement server guy' who got off free in the Crooked Hillary case. This should NOT be allowed. Rigged Witch Hunt!"</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no public evidence that lawyer and former FBI agent Aaron Zebley is either a Democrat or a "Never Trumper," a term generally used to describe Republicans who are steadfastly opposed to Trump. Zebley has not donated to either party, according to the Washington Post, and is not registered with either party. We could not find any public statements from him about Trump._x000D__x000D_
+Zebley served as Mueller's chief of staff during his final years as FBI Director. After Mueller left the FBI and joined the WilmerHale law firm in 2014, Zebley followed him there. Zebley did represent Justin Cooper, who helped Hillary Clinton set up her controversial private email server._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N116">
+        <v>2019</v>
+      </c>
+      <c r="O116">
+        <v>7</v>
+      </c>
+      <c r="P116">
+        <v>23</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R116">
+        <v>30</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER   </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>43670</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Aaron Zebley</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>“It was NEVER agreed that Robert Mueller could use one of his many Democrat Never Trumper lawyers to sit next to him and help him with his answers. This was specifically NOT agreed to, and I would NEVER have agreed to it. The Greatest Witch Hunt in U.S. history, by far!” – July 24 Tweet</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no public evidence that lawyer and former FBI agent Aaron Zebley is either a Democrat or a "Never Trumper," a term generally used to describe Republicans who are steadfastly opposed to Trump. Zebley has not donated to either party, according to the Washington Post, and is not registered with either party. We could not find any public statements from him about Trump._x000D__x000D_
+Zebley served as Mueller's chief of staff during his final years as FBI Director. After Mueller left the FBI and joined the WilmerHale law firm in 2014, Zebley followed him there. Zebley did represent Justin Cooper, who helped Hillary Clinton set up her controversial private email server._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N117">
+        <v>2019</v>
+      </c>
+      <c r="O117">
+        <v>7</v>
+      </c>
+      <c r="P117">
+        <v>24</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="R117">
+        <v>30</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER   </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>43670</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Clinton's Emals</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>“So why didn’t the highly conflicted Robert Mueller investigate how and why Crooked Hillary Clinton deleted and acid washed 33,000 Emails immediately AFTER getting a SUBPOENA from the United States Congress? She must have GREAT lawyers! ”</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: A server company working for Clinton deleted these emails using a free software program called BleachBit. They were not "acid washed." Though Trump is correct that the emails were deleted three weeks after the subpoena was issued, a Clinton aide had requested the deletion before the subpoena was issued; there is no evidence Clinton's team had ordered any deletions after receiving the subpoena._x000D__x000D_
+The emails, which Clinton had deemed personal and not related to her job as Secretary of State, were deleted three weeks after the House Select Committee on Benghazi issued a subpoena demanding the retention of Clinton emails. An employee of the server company, Paul Combetta, told the FBI that he had deleted the emails after belatedly realizing he had forgotten to carry out a request made by Clinton aide Cheryl Mills in 2014, prior to the subpoena, to change Clinton's email policy so that messages more than 60 days old would be automatically purged._x000D__x000D_
+James Comey, then the FBI director, told the House Judiciary Committee in 2016 that there is no evidence Combetta was ordered to execute the deletion after the receipt of the subpoena._x000D__x000D_
+"No email, no phone call, nothing," Comey said._x000D__x000D_
+"He was told to do it in 2014, screwed up and didn't do it, panicked when he realized he hadn't and then raced back in and did it after Congress asked for the records and the New York Times wrote about them."_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>HILLARY CLINTON</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N118">
+        <v>2019</v>
+      </c>
+      <c r="O118">
+        <v>7</v>
+      </c>
+      <c r="P118">
+        <v>24</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="R118">
+        <v>30</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HILLARY CLINTON   </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Voter Fraud in CA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>“And when they’re saying all of this stuff, and then those illegals get out and vote -- because they vote anyway. Don’t kid yourself, those numbers in California and numerous other states, they’re rigged.  You got people voting that shouldn’t be voting.  They vote many times, not just twice, not just three times. They vote -- it’s like a circle. They come back; they put a new hat on.  They come back; they put a new shirt. And in many cases, they don’t even do that. You know what’s going on.  It’s a rigged deal.”</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no evidence that there was widespread voter fraud by illegal immigrants or anyone else in California in 2016._x000D__x000D_
+ _x000D__x000D_
+Studies have shown that voter fraud is very rare in the US, and there has been no indication of widespread fraud in California in 2016. In 2018, the Los Angeles Times reported: "There were 149 cases investigated by state officials in 2016, more than most years over the past decade. Investigators only found six cases out of 23.1 million votes cast worth sending to local district attorneys."_x000D__x000D_
+ _x000D__x000D_
+Trump has previously claimed that California “admitted to a million votes." But he was referring to a legal settlement in which California and Los Angeles County agreed with the conservative group Judicial Watch to remove the names of inactive voters from voter lists; California did not acknowledge any voter fraud as part of the settlement._x000D__x000D_
+ _x000D__x000D_
+"The Judicial Watch settlement provided no evidence of fraud whatsoever," said Rick Hasen, an expert in elections law and a professor of law and political science at the University of California, Irvine._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>VOTER FRAUD</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ELECTIONS</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>IMMIGRATION</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N119">
+        <v>2019</v>
+      </c>
+      <c r="O119">
+        <v>7</v>
+      </c>
+      <c r="P119">
+        <v>23</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R119">
+        <v>30</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VOTER FRAUD ELECTIONS IMMIGRATION </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>AOC garbage</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>“And, you know, when I have one of the others -- I guess this is Cortez…But she called our country and our people ‘garbage.’ She said ‘garbage.’ That’s worse than ‘deplorable.’”</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Ocasio-Cortez did not call Americans "garbage"; she said in March that the country has gone so far in the wrong direction that people shouldn't be satisfied with moderate policies that are merely "10% better from garbage."_x000D__x000D_
+Arguing that ambitious policies are necessary, Ocasio-Cortez said: "I think all of these things sound radical compared to where we are. But where we are is not a good thing. This idea of 10% better from garbage shouldn't be what we settle for. It feels like moderate is not a stance, it's just an attitude toward life of like, 'meh.' "_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>THE SQUAD</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N120">
+        <v>2019</v>
+      </c>
+      <c r="O120">
+        <v>7</v>
+      </c>
+      <c r="P120">
+        <v>23</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R120">
+        <v>30</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">THE SQUAD AOC  </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Omar Israel Tweet</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>“By calling out these four people, the ‘squad.’ By calling them out -- because we don’t like when they talk about ‘evil Jews.’ We don’t like when they say horrible things about Israel.”</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Facts First: None of the four Democratic congresswomen in ‘The Squad’ has uttered the phrase "evil Jews"; Rep. Ilhan Omar tweeted in 2012 that Israel had committed "evil doings."</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N121">
+        <v>2019</v>
+      </c>
+      <c r="O121">
+        <v>7</v>
+      </c>
+      <c r="P121">
+        <v>23</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R121">
+        <v>30</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Social media followers</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>“For centuries, Americans freely exchanged their ideas in the public square.  Now, the public square exists online, and massive, multi-national tech companies have gained enormous power to censor opinions, shape public perception, and really, to decide what information citizens are going to be given.  And I see it all the time.  I see it on social media -- for me.  And I have people coming up all the time, “We want to follow you, sir.  They make it so hard to follow you.”  And I have millions and millions of people.  But it should be much more…Everyone tells me, when you read -- they talk about this tremendous power. And I’m saying, ‘That’s right. They’re making it impossible.’ And then somebody will look at me, ‘But sir, you won.’”</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is no evidence that Twitter or other social media companies have made it difficult for people to follow Trump. Trump did briefly lose followers on Twitter last year, but that was part of a broad purge of suspected fake accounts._x000D__x000D_
+The purge also removed followers from the accounts of many other famous people. Trump lost approximately 300,000 followers, far fewer than Barack Obama (more than 2 million) and the Dalai Lama (about 375,000), according to a New York Times count._x000D__x000D_
+ _x000D__x000D_
+We obviously can't verify what people might have told Trump in private, but following him is not complicated: doing so is simply a matter of signing up for an account, searching his name and clicking a single button._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>SOCIAL MEDIA</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N122">
+        <v>2019</v>
+      </c>
+      <c r="O122">
+        <v>7</v>
+      </c>
+      <c r="P122">
+        <v>23</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R122">
+        <v>30</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCIAL MEDIA   </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Democrats and borders</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>“Look at their policy.  They want open borders, which means crime, which means drugs…”</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Facts First: Some Democrats, including presidential candidates such as Elizabeth Warren and Julián Castro, have advocated a significant loosening of immigration law, including a decriminalization of the act of illegally crossing the border. But none of them have proposed literally opening the border to unrestricted migration.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>THE BORDER</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N123">
+        <v>2019</v>
+      </c>
+      <c r="O123">
+        <v>7</v>
+      </c>
+      <c r="P123">
+        <v>23</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R123">
+        <v>30</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DEMOCRATS THE BORDER  </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>PR disaster relief</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>“So the United States Congress -- you won’t believe this; please close your ears because this would be -- gave Puerto Rico $92 billion last year for hurricane relief.  No, they haven’t gotten the money, all of it, but they’ve got a lot of it, but they’re scheduled to get.  The Congress of the United States handed them $92 billion. And that $92 billion is in the hands of incompetent people and very corrupt people.” He added: “Ninety-two billion dollars, and the money is squandered and wasted and stolen.”</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Congress has not approved $92 billion for Puerto Rico hurricane relief. As of last week, the federal government's relief tracking website said $42.5 billion had been allocated to Puerto Rico between 2017 and 2019 and $13.6 billion spent._x000D__x000D_
+ _x000D__x000D_
+As the Washington Post first explained, the $92 billion is an approximate long-term estimate of hurricane-related obligations to Puerto Rico, including money not yet being considered by Congress._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N124">
+        <v>2019</v>
+      </c>
+      <c r="O124">
+        <v>7</v>
+      </c>
+      <c r="P124">
+        <v>22</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R124">
+        <v>30</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>US contribution to NATO</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>“But think of this. So they weren’t paying their bills. So we’re paying for close to 100% of NATO.  So here’s the story: They rip us off on trade.  They have trade barriers that make it impossible for certain groups, like farmers and others, to go in.  They rip us on trade, and then we protect them and they rip us on that too. And they don’t pay their bills. Other than that, it’s a wonderful deal.”</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: US spending represented about 72% of all NATO members' military spending each year from 2015 to 2017, according to official NATO figures. In 2014, it was 69%. Those are big numbers, but “100%” is an exaggeration._x000D__x000D_
+Separate from the military spending of individual nations, NATO has its own direct budget to run its offices and programs. The US pays for an agreed-upon 22% of that budget._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N125">
+        <v>2019</v>
+      </c>
+      <c r="O125">
+        <v>7</v>
+      </c>
+      <c r="P125">
+        <v>23</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R125">
+        <v>30</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NATO   </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>GDP spent NATO</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>“So we’re getting it straightened out, folks.  We’re getting it straightened out.  Somebody said, ‘President Obama is much more popular in Germany than Donald Trump.’ Well, he should be. He should be.  (Laughter and applause.) Because Germany is the biggest offender. They don’t pay. They’re paying 1%; we’re paying 4.3% of a much bigger GDP. Germany doesn’t want to pay.  They’re supposed to pay 2 percent. They’re paying 1%. And I say, “You got to pay, Angela.  You got to pay, Angela.  Please pay, Angela.”</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The US does not spend 4.3% of GDP on defense. It spent 3.3% in 2017 and an estimated 3.4% in 2018, according to official NATO figures released in March 2019._x000D__x000D_
+Germany spent an estimated 1.2% of GDP on defense in 2018, so Trump was accurate in rounding to 1%._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N126">
+        <v>2019</v>
+      </c>
+      <c r="O126">
+        <v>7</v>
+      </c>
+      <c r="P126">
+        <v>23</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R126">
+        <v>30</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NATO   </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>US in Afhganistan</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>“So we’re working with Pakistan and others to extricate ourselves.  Nor do we want to be policemen, because basically we’re policemen right now.  And we’re not supposed to be policemen.  We’ve been there -- we’ve been there for 19 years, in Afghanistan.  It’s ridiculous.”</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Facts First: The US invaded Afghanistan in October 2001, less than 18 years ago. This was not a one-time slip; Trump habitually says "19 years."</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>MILITARY</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N127">
+        <v>2019</v>
+      </c>
+      <c r="O127">
+        <v>7</v>
+      </c>
+      <c r="P127">
+        <v>22</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R127">
+        <v>30</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MILITARY   </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TV Interview with Sean Hannity</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>FOX NEWS</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>North Korea remains</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>"And in the case of North Korea, I'm actually getting along very well with him, but we'll see what happens. I mean, you know, the sanctions are on. The hostages are back. We're getting the remains back."</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: While North Korea returned some remains last year, it is no longer doing so. The US military announced in May that the remains program had been suspended for the rest of the 2019 fiscal year because North Korea had stopped communicating with the US agency responsible for the effort._x000D__x000D_
+Trump could accurately tout the return of remains in the past tense: North Korea returned 55 cases of possible remains in the summer of 2018. As of late May, six soldiers had been identified from these cases._x000D__x000D_
+But the remains are no longer being returned. The Pentagon's Defense POW/MIA Accounting Agency said in May that no more remains would be coming back this fiscal year. The agency said North Korea had not spoken with the agency at all since the Hanoi summit in February between Trump and Kim Jong Un, which ended abruptly.  _x000D__x000D_
+_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>NORTH KOREA</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N128">
+        <v>2019</v>
+      </c>
+      <c r="O128">
+        <v>7</v>
+      </c>
+      <c r="P128">
+        <v>25</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="R128">
+        <v>30</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NORTH KOREA   </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>North Korea remains</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>“Our relationship with North Korea has been very good.  We’ve really established a good relationship with Kim Jong Un.  I have personally.  There’s no rocket testing.  There’s no missile testing.  We’re getting our remains back.  We got our hostages back.”</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: While North Korea returned some remains last year, it is no longer doing so. The US military announced in May that the remains program had been suspended for the rest of the 2019 fiscal year because North Korea had stopped communicating with the US agency responsible for the effort._x000D__x000D_
+Trump could accurately tout the return of remains in the past tense: North Korea returned 55 cases of possible remains in the summer of 2018. As of late May, six soldiers had been identified from these cases._x000D__x000D_
+But the remains are no longer being returned. The Pentagon's Defense POW/MIA Accounting Agency said in May that no more remains would be coming back this fiscal year. The agency said North Korea had not spoken with the agency at all since the Hanoi summit in February between Trump and Kim Jong Un, which ended abruptly.  _x000D__x000D_
+_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>NORTH KOREA</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N129">
+        <v>2019</v>
+      </c>
+      <c r="O129">
+        <v>7</v>
+      </c>
+      <c r="P129">
+        <v>22</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R129">
+        <v>30</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NORTH KOREA   </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Drug prices declined</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D__x000D_
+“I’m lowering drug prices.  First time in 53 years that drug prices went down last year.  Fifty-three years.” _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: This was a slight exaggeration: prescription drug prices declined last year for the first time in 46 years, according to one of several measures._x000D__x000D_
+The Consumer Price Index for prescription drugs showed a 0.6% decline between December 2017 and December 2018, the first calendar-year decline since 1972._x000D__x000D_
+As the Washington Post pointed out in its own recent fact check, some experts say that the Consumer Price Index is a flawed measure of trends in drug prices, since it doesn't include rebates that drug companies pay to insurers. The IQVIA Institute for Human Data Science, which studies drug prices, found that "net drug prices in the United States increased at an estimated 1.5% in 2018."_x000D__x000D_
+Trump can reasonably cite the Consumer Price Index. He was just off on the number of years._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N130">
+        <v>2019</v>
+      </c>
+      <c r="O130">
+        <v>7</v>
+      </c>
+      <c r="P130">
+        <v>22</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R130">
+        <v>30</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Unemployment</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>“Our country is doing phenomenally well.  Unemployment is the lowest in 51 years, soon to be the lowest in history if it keeps going this way in a short period of time.”</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Particular minority groups are all near their lowest unemployment numbers ever, but the country as a whole is not._x000D__x000D_
+The June unemployment rate was 3.7%. Ignoring the months earlier in the year when it was slightly lower, that is the lowest rate since 1969, not the lowest rate of all time: 2.5% in 1953._x000D__x000D_
+Black, Asian and Hispanic Americans are at roughly their lowest unemployment rates since the government began tracking them using its current methodology (in the early 1970s for black and Hispanic Americans, 2000 for Asians), though the Asian and Hispanic rates were slightly lower earlier in the year._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N131">
+        <v>2019</v>
+      </c>
+      <c r="O131">
+        <v>7</v>
+      </c>
+      <c r="P131">
+        <v>22</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R131">
+        <v>30</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Unemployment</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>“And, you know, just about -- just about -- and I might say this about the military equipment: It’s all made in the USA -- everything.  A hundred percent.  It’s all made in the USA.  And, you know, it’s one of the reasons our job numbers probably are so good -- the lowest unemployment.”</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Particular minority groups are all near their lowest unemployment numbers ever, but the country as a whole is not._x000D__x000D_
+The June unemployment rate was 3.7%. Ignoring the months earlier in the year when it was slightly lower, that is the lowest rate since 1969, not the lowest rate of all time: 2.5% in 1953._x000D__x000D_
+Black, Asian and Hispanic Americans are at roughly their lowest unemployment rates since the government began tracking them using its current methodology (in the early 1970s for black and Hispanic Americans, 2000 for Asians), though the Asian and Hispanic rates were slightly lower earlier in the year._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N132">
+        <v>2019</v>
+      </c>
+      <c r="O132">
+        <v>7</v>
+      </c>
+      <c r="P132">
+        <v>22</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R132">
+        <v>30</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Women's unemployment</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>“Black, Hispanic, Asian unemployment -- the lowest in history.  Women -- the lowest in 72 years.”</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The women's unemployment rate for June was 3.6%, a tick above the 3.4% in April and 3.5% in May. It has been 66 years since the women's rate has been this low, not 75 years._x000D__x000D_
+The rate was last at 3.6% in 1953._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N133">
+        <v>2019</v>
+      </c>
+      <c r="O133">
+        <v>7</v>
+      </c>
+      <c r="P133">
+        <v>22</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R133">
+        <v>30</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Iran inflation</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>“Their country is in turmoil.  They’re having demonstrations all over Iran.  Their inflation rate is at 75 percent.  They have a lot of problems.”</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Iran's inflation rate is high, but it is not 75%, according to published figures and experts on Iran. The International Monetary Fund reported a 37% inflation rate for Iran as of April. The Statistical Center of Iran announced a 38% rate in late June._x000D__x000D_
+It is possible that inflation has increased this month, and Iran's official figures are not always precise, but experts said 75% is certainly an exaggeration._x000D__x000D_
+"There's no question that inflation is running rampant these days after the sanctions, but the 75% figure is way above the numbers I've seen by analysts and organizations that do a reasonably good job of tracking these. The latter have inflation at just above 50%, nowhere near 75%," said Hussein Banai, an international studies professor at Indiana University and an expert on US-Iran relations._x000D__x000D_
+"I have seen figures closer to 40-50%," said Barbara Slavin, director of the Future of Iran Initiative at the Atlantic Council._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>IRAN</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N134">
+        <v>2019</v>
+      </c>
+      <c r="O134">
+        <v>7</v>
+      </c>
+      <c r="P134">
+        <v>22</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R134">
+        <v>30</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IRAN   </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Interview with Sean Hannity</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>FOX NEWS</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Russian "bloggers"</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>"You know, all of these things like the Russian bloggers, they had nothing to do with us. And everybody knew it. In fact, there is a little sentence, and they are saying that it had nothing to do with the Trump administration. But it was like a lot of people, 24 people or something. A lot of bloggers, bloggers in Russia, they'll never see these people."</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: No "Russian blogger" was charged by Mueller. He charged Russian hackers and Russians who created phony online personas and social media pages to deceive Americans. _x000D__x000D_
+Twelve members of the GRU, an arm of Russian military intelligence, were accused of hacking the Democratic Party and Hillary Clinton's campaign. The report mentioned that the GRU used a blog to disseminate hacked documents, but it did not call them bloggers.  _x000D__x000D_
+Mueller also charged Russia's Internet Research Agency and 12 of its employees. Among other things, they were accused of creating social media pages that were intended to look like they were run by Americans. These individuals are at least somewhat closer to being bloggers than the hackers were, but the term still doesn't apply._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>RUSSIA</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N135">
+        <v>2019</v>
+      </c>
+      <c r="O135">
+        <v>7</v>
+      </c>
+      <c r="P135">
+        <v>25</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="R135">
+        <v>30</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUSSIA   </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Interview with Sean Hannity</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>FOX NEWS</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>"Treason"</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>"This was a fake witch hunt and it should never be allowed to happen to another president again. This was treason. This was high crimes. This was everything -- as bad a definition as you want to come up with."</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Nothing about the Russia investigation comes close to meeting the definition of treason. Under the Constitution, treason is narrowly defined: "Treason against the United States, shall consist only in levying War against them, or in adhering to their Enemies, giving them Aid and Comfort."_x000D__x000D_
+Mueller was appointed and supervised by a Republican whom Trump appointed as deputy attorney general, Rod Rosenstein. There is no evidence of any behavior that could even possibly qualify as treason._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N136">
+        <v>2019</v>
+      </c>
+      <c r="O136">
+        <v>7</v>
+      </c>
+      <c r="P136">
+        <v>25</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="R136">
+        <v>30</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION  </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TV Interview with Sean Hannity</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>FOX NEWS</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>"Coup" attempt</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>"The country has had tremendous support from (Rep. Mark) Meadows and (Rep. Jim) Jordan and Devin Nunes and so many of the names that you saw yesterday, performed so well. I mean, they performed so well, and they worked so hard because they saw this was a scam. This was an illegal takeover, as you would say in the business world. I mean, this was -- this was a coup attempt, in my opinion. And this is the United States."</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Facts First: The Russia investigation was not illegal or an attempted coup. Again, Mueller was appointed and supervised by a Republican Trump appointee.</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>RUSSIA</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N137">
+        <v>2019</v>
+      </c>
+      <c r="O137">
+        <v>7</v>
+      </c>
+      <c r="P137">
+        <v>25</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="R137">
+        <v>30</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUSSIA ROBERT MUELLER INVESTIGATION </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>"No collusion"</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>"I watched Nancy Pelosi trying to get through that, with the performance that Robert Mueller put on, where — I don't think he ever read the agreement or the document. And the document said, 'No collusion.'"</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The Mueller report did not explicitly say the words "no collusion." The report explained that Mueller was investigating the issue of conspiracy, not "collusion," which is not a specific criminal offense._x000D__x000D_
+We don't call it false when Trump, paraphrasing Mueller's conclusions, says that Mueller found no collusion: Mueller wrote that his "investigation did not establish that members of the Trump Campaign conspired or coordinated with the Russian government in its election interference activities." But it's false for Trump to say that the phrase "no collusion" was explicitly written in the report, as he did here._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>COLLUSION</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N138">
+        <v>2019</v>
+      </c>
+      <c r="O138">
+        <v>7</v>
+      </c>
+      <c r="P138">
+        <v>26</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R138">
+        <v>30</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION COLLUSION </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>"No collusion"</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>"We had no collusion, no obstruction. We had no nothing. We had a total 'no collusion" finding. The Democrats were devastated by it. They went crazy... All they care about is a phony investigation where the report was written — it said, 'No collusion.'"</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The Mueller report did not explicitly say the words "no collusion." The report explained that Mueller was investigating the issue of conspiracy, not "collusion," which is not a specific criminal offense._x000D__x000D_
+We don't call it false when Trump, paraphrasing Mueller's conclusions, says that Mueller found no collusion: Mueller wrote that his "investigation did not establish that members of the Trump Campaign conspired or coordinated with the Russian government in its election interference activities." But it's false for Trump to say that the phrase "no collusion" was explicitly written in the report, as he did here._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>COLLUSION</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N139">
+        <v>2019</v>
+      </c>
+      <c r="O139">
+        <v>7</v>
+      </c>
+      <c r="P139">
+        <v>22</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R139">
+        <v>30</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION COLLUSION </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>43670</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Indictment once out of office</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Trump accused reporters of being "fake news" for asking him about the possibility that he could be indicted once out of office, which Mueller testified was possible. Trump claimed that Mueller both "didn't say that" and "did a correction" on this point; he told reporters to "read his correction," insisting, "Because if you look at his correction, he took that totally out of play."</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Mueller did say that the president could be indicted once out of office, and he did not correct this statement. His correction was about a different statement he made during his testimony on July 24._x000D__x000D_
+Mueller was direct about whether Trump could be indicted after his presidency. Mueller was asked by Republican Rep. Ken Buck, "Could you charge the President with a crime after he left office?" Mueller said, "Yes._x000D__x000D_
+In the correction, Mueller was clearing up an answer he gave about why he did not indict Trump while in office. Democratic California Rep. Ted. Lieu had asked him, "The reason, again, that you did not indict Donald Trump is because of OLC (Office of Legal Counsel) opinion stating that you cannot indict a sitting president, correct?" Mueller responded, "That is correct."_x000D__x000D_
+Mueller explained later that he did not mean to suggest he would have charged Trump if not for the Department of Justice policy Lieu was referring to. Rather, he meant that, because of the policy, they did not even consider charging Trump._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N140">
+        <v>2019</v>
+      </c>
+      <c r="O140">
+        <v>7</v>
+      </c>
+      <c r="P140">
+        <v>24</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="R140">
+        <v>30</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION  </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>43670</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Mueller and text messages</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>"So what happened with Strzok and Page, meaning the two lovers, it's a disgrace because they had a lot of text messages, and Mueller illegally deleted those text messages. And they didn't get too much into that because he forgot; he didn't really know; he didn't know too much; he didn't know anything. But Strzok and Page were texting...What they did and what Mueller did — he deleted their text messages back and forth, probably thousands of them. That's a serious problem. They shouldn't have been allowed to do it."</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Mueller did not illegally delete text messages between former FBI officials Peter Strzok and Lisa Page -- nor delete them at all. A computer problem had caused some of their texts to go missing, but they were later found._x000D__x000D_
+The Justice Department's internal watchdog reviewed whether the missing texts were intentionally destroyed or hidden. Its investigation not only recovered the texts but also concluded that the problem had stemmed from an FBI-wide software glitch. The texts have now been released to the public._x000D__x000D_
+There is no evidence that Mueller, or anyone acting on his orders, was involved in deleting any messages. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N141">
+        <v>2019</v>
+      </c>
+      <c r="O141">
+        <v>7</v>
+      </c>
+      <c r="P141">
+        <v>24</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="R141">
+        <v>30</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION  </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Mueller and text messages</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>"...why were the text messages of Peter S and his lover, Lisa Page, deleted and destroyed right after they left Mueller, and after we requested them(this is Illegal)?"</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Mueller did not illegally delete text messages between former FBI officials Peter Strzok and Lisa Page -- nor delete them at all. A computer problem had caused some of their texts to go missing, but they were later found._x000D__x000D_
+The Justice Department's internal watchdog reviewed whether the missing texts were intentionally destroyed or hidden. Its investigation not only recovered the texts but also concluded that the problem had stemmed from an FBI-wide software glitch. The texts have now been released to the public._x000D__x000D_
+There is no evidence that Mueller, or anyone acting on his orders, was involved in deleting any messages. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N142">
+        <v>2019</v>
+      </c>
+      <c r="O142">
+        <v>7</v>
+      </c>
+      <c r="P142">
+        <v>22</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R142">
+        <v>30</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION  </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Mueller's interviews</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>"You know, obstruction is sort of interesting. They've interviewed 500 people. They've interviewed lawyers. They're interviewed everybody that they wanted to interview."</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Not "everybody." Trump rejected Mueller's requests for an interview of him._x000D__x000D_
+Trump instead submitted written responses to questions. Donald Trump Jr., the president's son, also declined to be interviewed._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>ROBERT MUELLER</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N143">
+        <v>2019</v>
+      </c>
+      <c r="O143">
+        <v>7</v>
+      </c>
+      <c r="P143">
+        <v>26</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R143">
+        <v>30</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBERT MUELLER INVESTIGATION  </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>43673</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Crime "on the other side"</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>"The real Collusion, the Conspiracy, the Crime, was between the Clinton Campaign, the DNC, Fusion GPS, Christopher Steele.....(and many others including Comey, McCabe, Lisa Page and her lover, Ohr and his wonderful wife, and on and on!)."</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Several of Trump's former aides and allies have been convicted through the Mueller investigation. None of Trump's opponents have been convicted. Attorney General William Barr did assign a federal prosecutor to examine the origins of the Russia investigation, but no proof of any crimes by the investigators has emerged to date._x000D__x000D_
+Former Obama White House counsel Greg Craig, someone who can be said to be on the "other side," has been charged with alleged crimes that were uncovered because of the Mueller probe. But former special counsel Robert Mueller has secured convictions from multiple people from Trump's orbit: former campaign chairman Paul Manafort, former deputy chairman Rick Gates, former campaign foreign policy adviser George Papadopoulos, former national security adviser Michael Flynn and former lawyer and Trump Organization executive Michael Cohen._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N144">
+        <v>2019</v>
+      </c>
+      <c r="O144">
+        <v>7</v>
+      </c>
+      <c r="P144">
+        <v>27</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="R144">
+        <v>30</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Interview with Sean Hannity</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>FOX NEWS</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Crime "on the other side"</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>"This crime was a -- the crime was committed on the other side, and we'll find out about that. We have a great attorney general who is looking at it. I'm not involved in that."</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Several of Trump's former aides and allies have been convicted through the Mueller investigation. None of Trump's opponents have been convicted. Attorney General William Barr did assign a federal prosecutor to examine the origins of the Russia investigation, but no proof of any crimes by the investigators has emerged to date._x000D__x000D_
+Former Obama White House counsel Greg Craig, someone who can be said to be on the "other side," has been charged with alleged crimes that were uncovered because of the Mueller probe. But former special counsel Robert Mueller has secured convictions from multiple people from Trump's orbit: former campaign chairman Paul Manafort, former deputy chairman Rick Gates, former campaign foreign policy adviser George Papadopoulos, former national security adviser Michael Flynn and former lawyer and Trump Organization executive Michael Cohen._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N145">
+        <v>2019</v>
+      </c>
+      <c r="O145">
+        <v>7</v>
+      </c>
+      <c r="P145">
+        <v>25</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="R145">
+        <v>30</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Article II (2)</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>"Then I have an Article II, where I have the right to do whatever I want as President."</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Article II of the Constitution, which outlines the powers of the executive branch, does not grant the president the ability to do "whatever" they want._x000D__x000D_
+"The President's assertion is false, by a long shot," said William Banks, a law professor at Syracuse University. "The President, like every actor in our national government, is bound by the Constitution. Article II of the Constitution allows the President to take certain actions, but the list is quite short, especially compared to the long list of Congress's Article I powers."_x000D__x000D_
+The first line of Article II, Section 1 says, "The executive Power shall be vested in a President of the United States of America." Subsequent items establish the process of the choosing the president, who is eligible for the presidency, the State of the Union update the president must give to Congress, the president's role as commander-in-chief, and presidential powers such as making treaties and granting pardons. Notably, Article II also includes the provision that allows for the president to be impeached._x000D__x000D_
+"The main point is that the President is subordinate to the Constitution and laws," said Banks. "He is not a monarch, nor running an autocracy."_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N146">
+        <v>2019</v>
+      </c>
+      <c r="O146">
+        <v>7</v>
+      </c>
+      <c r="P146">
+        <v>23</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R146">
+        <v>30</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Interview with Sean Hannity</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>FOX NEWS</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Empty seats</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>"I think we're going to do very well. We have tremendous spirit. Every time, you've never seen an empty seat. We go into these massive arenas and they're packed and there's thousands of people outside. You've never seen an empty seat. So I think we're going to do very well."</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There were empty seats at Trump's most recent rally, in Greenville, North Carolina, two weeks ago. There have also been empty seats at various other Trump events. _x000D__x000D_
+Bloomberg News reporter Josh Wingrove tweeted a photo of what he described as a "smattering" of empty seats in the almost-full 8,000-capacity venue in Greenville._x000D__x000D_
+The Dallas News said of Trump's October 18 rally in Houston: "Many hundreds of seats were empty, including all of the boxes on both tiers of the mezzanine." At Trump's Harrisburg, Pennsylvania, rally in April 2017, Philadelphia Inquirer journalist Jonathan Tamari tweeted a photo of rows of empty seats in the upper deck._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>CROWDS</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N147">
+        <v>2019</v>
+      </c>
+      <c r="O147">
+        <v>7</v>
+      </c>
+      <c r="P147">
+        <v>25</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="R147">
+        <v>30</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CROWDS   </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Energy and Russia</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>"And no other president is doing that for the farmers, or no other president is going to save the miners and save energy. You know, we're the number-one producer of energy now in the world? And when I came, it was heading in the wrong direction. It was heading in a very bad direction. Right now, we're bigger than Russia and bigger than Saudi Arabia and bigger than anybody."</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The US has not "just" become the world's top energy producer: it took the top spot in 2012, according to the US government's Energy Information Administration. It became the top producer of crude oil in particular during Trump's tenure.  _x000D__x000D_
+"The United States has been the world's top producer of natural gas since 2009, when US natural gas production surpassed that of Russia, and it has been the world's top producer of petroleum hydrocarbons since 2013, when its production exceeded Saudi Arabia's," the Energy Information Administration says._x000D__x000D_
+There is a factual basis for Trump's claim that energy production was heading in a "very bad direction," at least from the perspective of someone who wants energy production to rise: production declined 4% in 2016, according to the US government's Energy Information Administration. But production had previously increased every year since 2009. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>ENVIRONMENT</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>RUSSIA</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N148">
+        <v>2019</v>
+      </c>
+      <c r="O148">
+        <v>7</v>
+      </c>
+      <c r="P148">
+        <v>23</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R148">
+        <v>30</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENVIRONMENT RUSSIA  </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Interview with Sean Hannity</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>FOX NEWS</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Energy and Russia</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>"Well, based on the fact that we've just become -- and, you know, fairly recently, a little while ago, the number one oil and gas producer and energy producer in the world, by far -- Russia, Saudi Arabia, now second and third, based on the fact that we now have the best -- we will soon have the most modern military we have ever had with the best equipment, the best, newest planes and all of the things that we have done, and so many other things, Sean -- based on all of that, the last person they should want is me."</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The US has not "just" become the world's top energy producer: it took the top spot in 2012, according to the US government's Energy Information Administration. It became the top producer of crude oil in particular during Trump's tenure.  _x000D__x000D_
+"The United States has been the world's top producer of natural gas since 2009, when US natural gas production surpassed that of Russia, and it has been the world's top producer of petroleum hydrocarbons since 2013, when its production exceeded Saudi Arabia's," the Energy Information Administration says._x000D__x000D_
+There is a factual basis for Trump's claim that energy production was heading in a "very bad direction," at least from the perspective of someone who wants energy production to rise: production declined 4% in 2016, according to the US government's Energy Information Administration. But production had previously increased every year since 2009. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>ENVIRONMENT</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>RUSSIA</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N149">
+        <v>2019</v>
+      </c>
+      <c r="O149">
+        <v>7</v>
+      </c>
+      <c r="P149">
+        <v>25</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="R149">
+        <v>30</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENVIRONMENT RUSSIA  </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Iran deal 150</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>"The deal that President Obama made was a disaster because it was such a short term. It didn't cover ballistic missiles.  And they couldn't see the important sites. Under this you couldn't inspect the important sites.  There were many things wrong. And, of course, they gave $150 billion plus $1.8 billion in green — green, beautiful cash."</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The US did not give Iran $150 billion as part of the nuclear agreement. The deal allowed Iran to access tens of billions in its own assets -- not American cash -- that had been frozen in foreign financial institutions because of sanctions. The total was significantly lower than $150 billion, experts say._x000D__x000D_
+Trump did not invent the $150 billion figure out of thin air: Obama himself mused in a 2015 interview about Iran having "$150 billion parked outside the country." But experts on Iran policy, and Obama's own administration, said that the quantity of assets the agreement actually made available to Iran was much lower._x000D__x000D_
+In 2015, Treasury Secretary Jack Lew put the number at $56 billion. PolitiFact reported that Garbis Iradian, chief economist at the Institute of International Finance, put it at about $60 billion, and that Nader Habibi, professor of economics of the Middle East at Brandeis University, thought it was between $25 billion and $50 billion after discussing the issue with officials at Iran's Central Bank._x000D__x000D_
+Adam Szubin, a senior Treasury Department official, testified to Congress in 2015 that the "usable liquid assets" would total "a little more than $50 billion." The rest of Iran's foreign assets, he said, were either tied up in "illiquid" projects "that cannot be monetized quickly, if at all, or are composed of outstanding loans to Iranian entities that cannot repay them."_x000D__x000D_
+The Obama administration did send Iran $1.7 billion to settle a decades-old dispute over a purchase of US military goods Iran made before its government was overthrown in the Islamic Revolution of 1979. The goods were not delivered, and the US paid Iran its money back plus interest._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>IRAN</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N150">
+        <v>2019</v>
+      </c>
+      <c r="O150">
+        <v>7</v>
+      </c>
+      <c r="P150">
+        <v>22</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R150">
+        <v>30</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IRAN   </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Strait of Hormuz</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>"On the Straits -- so we get very little oil from the Straits anymore. In fact, yesterday was very interesting. They said, 'It's very interesting there are no USA tankers here.  They're all from China, from Japan.' China gets 65% of their oil from the Straits, right? Japan gets 25%. Other countries get a lot. And I said, 'So let me ask you just a really stupid question.' We hardly use it. We're getting 10%, only because we sort of feel an obligation to do it.  We don't need it."</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: China relied on the Strait of Hormuz for 36% of its crude oil imports in 2018, Japan 78% and the US 17%, according to an analysis by the Center for Strategic and International Studies._x000D__x000D_
+Trump's numbers are "not accurate," said one of the authors of the analysis, Andrew Stanley, an associate fellow with the CSIS Energy and National Security Program._x000D__x000D_
+The US government's Energy Information Administration reported that imports shipped through the Strait accounted for about 18% of total US crude oil and condensate imports and 7% of total US petroleum liquids consumption in 2018. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>ENERGY</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N151">
+        <v>2019</v>
+      </c>
+      <c r="O151">
+        <v>7</v>
+      </c>
+      <c r="P151">
+        <v>23</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R151">
+        <v>30</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGY   </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Turkey and the F-35</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>"Well, we're looking at the whole Turkey situation. You know, they've ordered 125 F-35 fighter jets."</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Facts First: Turkey has ordered 100 F-35s, not 125, a Lockheed Martin spokesperson said in an email.</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N152">
+        <v>2019</v>
+      </c>
+      <c r="O152">
+        <v>7</v>
+      </c>
+      <c r="P152">
+        <v>26</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R152">
+        <v>30</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Interview with Sean Hannity</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>FOX NEWS</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NK missile testing</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Trump said of North Korea: "They really haven't tested missiles other than, you know, smaller ones, the, uh -- which is something that lots test."</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: South Korean officials said North Korea fired two short-range missiles toward the sea of Japan on July 25. The first flew approximately 430 kilometers (265 miles) and the second flew 690 kilometers (428 miles), they said._x000D__x000D_
+Trump is entitled to his opinion about how "small" the missiles were, and they were indeed short-range, so we won't call this claim false -- but it's worth noting that their range was big enough to threaten both US allies and the US military personnel stationed in South Korea, 29,000 as of the end of March. South Korea's Ministry of Defense said it viewed the launches "as a military threat and an action undermining efforts to alleviate tensions on the Korean Peninsula."_x000D__x000D_
+Trump had argued that the May test was not a violation of United Nation resolutions, and he had occasionally insisted in the weeks after the test that North Korea had not done any missile testing at all. But Patrick Shanahan, then the acting secretary of defense, was unequivocal, telling reporters, "Let me just be clear: these were short-range missiles. Those are a violation of the UNSCR."_x000D__x000D_
+_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N153">
+        <v>2019</v>
+      </c>
+      <c r="O153">
+        <v>7</v>
+      </c>
+      <c r="P153">
+        <v>25</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="R153">
+        <v>30</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Unemployment</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Trump said military production is "one of the reasons our job numbers probably are so good -- the lowest unemployment."</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The unemployment rates for particular minority groups are at roughly their lowest levels ever, but the overall rate is not. The overall rate is 3.7% -- a 50-year low, but well above the record 2.5% set in 1953._x000D__x000D_
+The 3.7% overall rate for June is the lowest rate since 1969, other than the 3.6% rates for April and May. That is impressive, but it is still significantly higher than the best ever._x000D__x000D_
+Black, Asian and Hispanic Americans are at roughly their lowest unemployment rates since the government began tracking them using its current methodology (in the early 1970s for black and Hispanic Americans, 2000 for Asians), though the Asian and Hispanic rates were slightly lower earlier in the year._x000D__x000D_
+We'll let Trump claim that this is the "best economy" ever, since best is subjective. It is true that more people are working today than ever before, but this number tends to rise steadily as the population grows. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N154">
+        <v>2019</v>
+      </c>
+      <c r="O154">
+        <v>7</v>
+      </c>
+      <c r="P154">
+        <v>22</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R154">
+        <v>30</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>43670</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Unemployment</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>"We've got the strongest stock market, the best unemployment numbers, the most number of people ever working in the history of our country right now -- almost 160 million."</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The unemployment rates for particular minority groups are at roughly their lowest levels ever, but the overall rate is not. The overall rate is 3.7% -- a 50-year low, but well above the record 2.5% set in 1953._x000D__x000D_
+The 3.7% overall rate for June is the lowest rate since 1969, other than the 3.6% rates for April and May. That is impressive, but it is still significantly higher than the best ever._x000D__x000D_
+Black, Asian and Hispanic Americans are at roughly their lowest unemployment rates since the government began tracking them using its current methodology (in the early 1970s for black and Hispanic Americans, 2000 for Asians), though the Asian and Hispanic rates were slightly lower earlier in the year._x000D__x000D_
+We'll let Trump claim that this is the "best economy" ever, since best is subjective. It is true that more people are working today than ever before, but this number tends to rise steadily as the population grows. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N155">
+        <v>2019</v>
+      </c>
+      <c r="O155">
+        <v>7</v>
+      </c>
+      <c r="P155">
+        <v>24</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="R155">
+        <v>30</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Unemployment</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>"As you know, we have a very low rate of unemployment — record-setting. We're at about 3.5, maybe 3.6. I hear it's going down — probably will — because the country is doing tremendous business."</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The unemployment rates for particular minority groups are at roughly their lowest levels ever, but the overall rate is not. The overall rate is 3.7% -- a 50-year low, but well above the record 2.5% set in 1953._x000D__x000D_
+The 3.7% overall rate for June is the lowest rate since 1969, other than the 3.6% rates for April and May. That is impressive, but it is still significantly higher than the best ever._x000D__x000D_
+Black, Asian and Hispanic Americans are at roughly their lowest unemployment rates since the government began tracking them using its current methodology (in the early 1970s for black and Hispanic Americans, 2000 for Asians), though the Asian and Hispanic rates were slightly lower earlier in the year._x000D__x000D_
+We'll let Trump claim that this is the "best economy" ever, since best is subjective. It is true that more people are working today than ever before, but this number tends to rise steadily as the population grows. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N156">
+        <v>2019</v>
+      </c>
+      <c r="O156">
+        <v>7</v>
+      </c>
+      <c r="P156">
+        <v>26</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R156">
+        <v>30</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>who's paying</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>"Now we're taking in billions of dollars from China, and it's all turning around." And: "But — so I don't know that they're going to — I don't know if they're going to make a deal. Maybe they will; maybe they don't. I don't care, because we're taking in tens of billions of dollars' worth of tariffs." And: "So they're going to go and we'll talk. We'll see. I don't personally care that much because we're getting billions and billions. Remember this: The people aren't paying for it."</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Americans are paying these billions of dollars in Trump tariffs on imported Chinese products._x000D__x000D_
+The American importers, not the Chinese exporters, make the actual payments; economic studies, including one by the Federal Reserve Bank of New York, have concluded that the overwhelming majority of the costs are being eaten by Americans._x000D__x000D_
+Chinese exporters are also bearing some of the costs, but it's certainly not true that they are the only ones._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>TARIFFS</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N157">
+        <v>2019</v>
+      </c>
+      <c r="O157">
+        <v>7</v>
+      </c>
+      <c r="P157">
+        <v>26</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R157">
+        <v>30</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINA TARIFFS  </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Trade deficit with China</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>"Look, I look at deals that were done with other Presidents and this country, and it's a disgrace that our country has allowed this to happen — where China, for years and years and years was making from $300 billion to $507 billion a year, okay?"</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The US has never had a $507 billion trade deficit with China. (Trump refers to trade deficits as losses and trade surpluses as "making" money, though most economists don't.)_x000D__x000D_
+The 2018 deficit was $381 billion when all kinds of trade were considered, $420 billion when counting goods alone and excluding services. Those were both record figures._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N158">
+        <v>2019</v>
+      </c>
+      <c r="O158">
+        <v>7</v>
+      </c>
+      <c r="P158">
+        <v>26</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R158">
+        <v>30</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINA TRADE  </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>who's paying / history of tariffs</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>"So we have tens of billions of dollars rolling in from China.  We never had 10 cents coming in."</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The U.S. government has been charging tariffs on imported Chinese goods for more than two centuries, and it took in hefty sums from such tariffs long before Trump's own tariffs._x000D__x000D_
+The Treasury received $14 billion from tariffs on China in 2014, to look at one pre-Trump year. (Again, it is US importers, not China, who have paid these tariffs.)_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N159">
+        <v>2019</v>
+      </c>
+      <c r="O159">
+        <v>7</v>
+      </c>
+      <c r="P159">
+        <v>26</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R159">
+        <v>30</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINA TRADE  </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Farmers and China</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>"And the farmers are happy because I gave them $16 billion out of the tariffs and had tremendous — you know, much more than that left over, as you know. Tremendous amount of money left over, like by three times."</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There is not a "tremendous amount of money left over" from Trump's tariffs on China after his aid payments to farmers. The New York Times reported that the tariffs had generated $20.8 billion as of July 10, less than the $28 billion he has committed to farmers so far._x000D__x000D_
+Trump was referring only to the $16 billion he pledged to farmers in May. But that was on top of a package of up to $12 billion his administration announced in 2018. In other words, the tariffs have generated less than the sum of the two aid packages. Even if we're discussing only the most recent $16 billion in aid, $20.8 billion is obviously not "three times" higher._x000D__x000D_
+We can't fact-check a claim so vague as "the farmers are happy," but many farmers and agricultural groups continue to speak out about the harm the tariffs are causing them and to say that they would prefer the elimination of the tariffs to continued government aid._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N160">
+        <v>2019</v>
+      </c>
+      <c r="O160">
+        <v>7</v>
+      </c>
+      <c r="P160">
+        <v>26</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R160">
+        <v>30</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINA TRADE  </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>WTO and China</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>"And again, I don't blame President Xi. I blame our past leaders for allowing it to happen for so many years with the World Trade Organization. China was totally flat-lined. And when the World Trade Organization came about and China joined the World Trade, they became a rocket ship, because, you know, it's a very unfair situation that took place at the World Trade Organization, as are many of them."</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: China's economy was not "totally flat-lined" before it became a member of the World Trade Organization in late 2001. China had experienced significant growth for years prior._x000D__x000D_
+According to World Bank figures, China grew by 7.7% in 1999, 8.5% in 2000 and 8.3% in 2001. It then grew by 9.1% in 2002, 10.0% in 2003 and 10.1% in 2004. Its post-WTO growth peaked at 14.2% in 2007 -- almost identical to its growth in 1992._x000D__x000D_
+Nicholas Lardy of the Peterson Institute for International Economics wrote in 2008: "China has been the fastest growing economy in the world over almost three decades, expanding at 10 per cent per year in real terms." Lardy said in an email this week, "Uninformed would be the best characterization of the President's comment."_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N161">
+        <v>2019</v>
+      </c>
+      <c r="O161">
+        <v>7</v>
+      </c>
+      <c r="P161">
+        <v>26</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R161">
+        <v>30</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINA TRADE  </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Democrats and borders</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>"Now, if the Democrats would sign something, it would be a lot easier. But we have to do it around the Democrats because they refuse to want to close up the border. They want open borders."</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Some Democrats, including presidential candidates such as Elizabeth Warren and Julián Castro, have advocated a significant loosening of immigration law, including a decriminalization of the act of illegally crossing the border. But none of them have proposed literally opening the border to unrestricted migration._x000D__x000D_
+During the Trump era, Democrats have voted for billions of dollars worth of border fencing and other border security measures. In 2018, Democratic leaders offered Trump $25 billion for border security in exchange for a path to citizenship for the "DREAMers," young undocumented immigrants brought to the US illegally as children._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>IMMIGRATION</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>THE BORDER</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N162">
+        <v>2019</v>
+      </c>
+      <c r="O162">
+        <v>7</v>
+      </c>
+      <c r="P162">
+        <v>26</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R162">
+        <v>30</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION THE BORDER </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>43673</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Democrats and borders</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Democrats don't care about Border Security. They refuse to give the votes necessary to fix the Loopholes and Asylum. Would be so easy! They want Open Borders, which means CRIME,CRIME,CRIME!</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Some Democrats, including presidential candidates such as Elizabeth Warren and Julián Castro, have advocated a significant loosening of immigration law, including a decriminalization of the act of illegally crossing the border. But none of them have proposed literally opening the border to unrestricted migration._x000D__x000D_
+During the Trump era, Democrats have voted for billions of dollars worth of border fencing and other border security measures. In 2018, Democratic leaders offered Trump $25 billion for border security in exchange for a path to citizenship for the "DREAMers," young undocumented immigrants brought to the US illegally as children._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>IMMIGRATION</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>THE BORDER</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N163">
+        <v>2019</v>
+      </c>
+      <c r="O163">
+        <v>7</v>
+      </c>
+      <c r="P163">
+        <v>27</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="R163">
+        <v>30</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION THE BORDER </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Democrats and the wall</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>"And we can't get the Democrats to even give us a modicum of the money we need at the border, especially for the wall. I'm taking money from here and there and there and there.  Let's take it from here. We have all these different sources coming from all over the place because they won't approve it. And five years ago, they all wanted it. Six years ago, seven years ago, they all voted for it. They never got it built, but they all voted for it."</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Democrats did vote for a comprehensive immigration reform bill in 2013 that included 700 miles of border fencing. However, not all Democrats actually supported the fencing in itself. The fencing provision of the bill was demanded by Republicans in exchange for provisions that were more popular with Democrats, most notably a path to citizenship for undocumented immigrants._x000D__x000D_
+So Trump was right that Democrats voted for border barriers six years ago, though it was not described as "a wall" and would not have resembled the giant concrete barrier Trump proposed during the 2016 campaign. But Trump was wrong that all Democrats actually favored the fencing._x000D__x000D_
+For example, Mary Landrieu, then a Democratic senator for Louisiana, voted for the final bill that included the fencing. But she said during the debate: "I'm not going to waste taxpayers' money on a dumb fence...I've been in tunnels under the fence. I've watched people climb over the fence. I'm not going to send taxpayers' money down a rat hole." _x000D__x000D_
+Before the final bill passed the Senate 68-32, all but two Democrats voted against a Republican amendment that would have required the construction of 350 miles of fencing before immigrants were granted legal status and of all 700 miles before immigrants were granted full citizenship, the Washington Times reported in 2013._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>IMMIGRATION</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>THE BORDER</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>THE WALL</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N164">
+        <v>2019</v>
+      </c>
+      <c r="O164">
+        <v>7</v>
+      </c>
+      <c r="P164">
+        <v>23</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R164">
+        <v>30</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>DEMOCRATS IMMIGRATION THE BORDER THE WALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Democrats and the wall</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>"We could really do this in a much easier fashion if we had cooperation from the Democrats. We have absolutely no cooperation. Nobody can understand them. Most of these people, five years ago, they all wanted a wall."</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Democrats did vote for a comprehensive immigration reform bill in 2013 that included 700 miles of border fencing. However, not all Democrats actually supported the fencing in itself. The fencing provision of the bill was demanded by Republicans in exchange for provisions that were more popular with Democrats, most notably a path to citizenship for undocumented immigrants._x000D__x000D_
+So Trump was right that Democrats voted for border barriers six years ago, though it was not described as "a wall" and would not have resembled the giant concrete barrier Trump proposed during the 2016 campaign. But Trump was wrong that all Democrats actually favored the fencing._x000D__x000D_
+For example, Mary Landrieu, then a Democratic senator for Louisiana, voted for the final bill that included the fencing. But she said during the debate: "I'm not going to waste taxpayers' money on a dumb fence...I've been in tunnels under the fence. I've watched people climb over the fence. I'm not going to send taxpayers' money down a rat hole." _x000D__x000D_
+Before the final bill passed the Senate 68-32, all but two Democrats voted against a Republican amendment that would have required the construction of 350 miles of fencing before immigrants were granted legal status and of all 700 miles before immigrants were granted full citizenship, the Washington Times reported in 2013._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>IMMIGRATION</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>THE BORDER</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>THE WALL</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N165">
+        <v>2019</v>
+      </c>
+      <c r="O165">
+        <v>7</v>
+      </c>
+      <c r="P165">
+        <v>26</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R165">
+        <v>30</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>DEMOCRATS IMMIGRATION THE BORDER THE WALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>US-Mexico relations</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>"We never had any kind of cooperation with Mexico ever, until this president, frankly, and my presidency, where you have maybe 21,000 -- could be 26,000 -- soldiers."</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: There was extensive US-Mexico cooperation, on migration and other issues, prior to the Trump presidency._x000D__x000D_
+"The US-Mexico relationship around migration has always been complicated, but there has actually been quite a bit of cooperation over the years between the two governments, especially since 2014 when the major migration flows of concern were those of Central Americans passing through Mexico," said Andrew Selee, president of the Migration Policy Institute. "In 2014, with the huge surge of unaccompanied minors from Central America, the US and Mexican governments embarked on a significant program of cooperation, often referred to in Mexico as the Southern Border Plan, in which the Mexican government began to beef up its border enforcement measures. The numbers of unaccompanied minors dropped as a result of this cooperation (and the two countries dealt with a second, smaller spike in 2016 the same way)."_x000D__x000D_
+Selee added: "The Mexican government has actually deported more Central Americans to their home countries since 2015 than the US government has, sharply limiting the number of migrants from that region that have made it to the US border."_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N166">
+        <v>2019</v>
+      </c>
+      <c r="O166">
+        <v>7</v>
+      </c>
+      <c r="P166">
+        <v>26</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R166">
+        <v>30</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEXICO   </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Building the wall</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>"And we're building a lot of wall right now. A lot of it. We've ripped down old wall and we've ripped down wall that didn't even exist which was — it had bad footings, bad foundations. It was — there used to be a wall there; there wasn't. It was gobbled up by the people that crossed. And we're building beautiful, new wall. A lot of it. And it's getting built rapidly."</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Trump is not "rapidly" building a border wall, nor is he building "50 miles here, 50 miles there." About 50 miles have been built over his two-and-a-half years in office, all of them replacement barriers rather than additional miles._x000D__x000D_
+According to Customs and Border Protection, 47 miles "of new border barriers in place of dilapidated design" had been completed as of June 14. The Washington Examiner reported July 20 that the total was up to 51 miles of such replacement barriers, but that no additional miles had been built. (Customs and Border Protection did not respond to our request for updated information in the wake of the Examiner story.) _x000D__x000D_
+Trump has started arguing since this spring that replacement fencing should be counted by the media as his "wall," since he is replacing ineffective old barriers with effective modern ones. This is subjective, but we think it's fair to focus on the new barriers he promised during his campaign. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>IMMIGRATION</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>THE BORDER</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>THE WALL</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N167">
+        <v>2019</v>
+      </c>
+      <c r="O167">
+        <v>7</v>
+      </c>
+      <c r="P167">
+        <v>26</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R167">
+        <v>30</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IMMIGRATION THE BORDER THE WALL </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Speech at Turning Point USA’s Teen Student Action Summit</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>D.C</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Building the wall</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>"So these walls are old, they're crumbling, they're of no use. They're falling down. So we rip it up, build brand new foundations, pour brand new, beautiful footings, and take a wall that's two or three feet high, mostly laying on the ground, some of it only for cars -- you know, to stop cars from cars from coming across....Anyway, so we're building the wall. So they come out with saying, 'Donald Trump has built almost no wall.' What a lie that is. And we're building -- we're building 50 miles here, 50 miles there."</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Trump is not "rapidly" building a border wall, nor is he building "50 miles here, 50 miles there." About 50 miles have been built over his two-and-a-half years in office, all of them replacement barriers rather than additional miles._x000D__x000D_
+According to Customs and Border Protection, 47 miles "of new border barriers in place of dilapidated design" had been completed as of June 14. The Washington Examiner reported July 20 that the total was up to 51 miles of such replacement barriers, but that no additional miles had been built. (Customs and Border Protection did not respond to our request for updated information in the wake of the Examiner story.) _x000D__x000D_
+Trump has started arguing since this spring that replacement fencing should be counted by the media as his "wall," since he is replacing ineffective old barriers with effective modern ones. This is subjective, but we think it's fair to focus on the new barriers he promised during his campaign. _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>IMMIGRATION</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>THE BORDER</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>THE WALL</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N168">
+        <v>2019</v>
+      </c>
+      <c r="O168">
+        <v>7</v>
+      </c>
+      <c r="P168">
+        <v>23</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="R168">
+        <v>30</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IMMIGRATION THE BORDER THE WALL </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>43674</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Elijah Cummings</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>"If racist Elijah Cummings would focus more of his energy on helping the good people of his district, and Baltimore itself, perhaps progress could be made in fixing the mess..."</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: We give Trump wide latitude in expressing opinions about people, but there is no evidence that Cummings is racist._x000D__x000D_
+Trump made this accusation while he was himself being accused of racism for disparaging tweets about Cummings's city, Baltimore. He has regularly accused his critics of the same things he is being accused of.  _x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>BALTIMORE</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N169">
+        <v>2019</v>
+      </c>
+      <c r="O169">
+        <v>7</v>
+      </c>
+      <c r="P169">
+        <v>28</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="R169">
+        <v>30</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BALTIMORE   </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>exchange with reporters upon signing agreement with Guatemala</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>subpoenas</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>"Frankly, the Republicans were gentlemen and women.  When we had the majority in the House, they didn't do subpoenas all day long.  They didn't do what they — what these people have done."</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Trump was correct that the former Republican House majority did not issue frequent subpoenas of his Republican administration, as the Democrats have done since taking over the majority in January. But the Republican majority did do so when Democrat Barack Obama was in office._x000D__x000D_
+Darrell Issa, who became chairman of the House Oversight and Government Reform committee in 2011, issued so many subpoenas of Obama's administration -- more than 100 by 2014, The Hill reported then -- that the Washington Post wrote about his "record-breaking subpoena-palooza." Republicans even changed congressional rules in 2015 to make it easier for their committee chairs to issue subpoenas, allowing them to do so without the traditional consent from the minority party._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>CONGRESS</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N170">
+        <v>2019</v>
+      </c>
+      <c r="O170">
+        <v>7</v>
+      </c>
+      <c r="P170">
+        <v>26</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="R170">
+        <v>30</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONGRESS DEMOCRATS  </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>remarks with Pakistani Prime Minister Imran Khan</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>WHITE HOUSE</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>PR popularity</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>"The people of Puerto Rico are great. And the people of Puerto Rico like me, and they should because nobody has given them what I give them."</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: All available evidence suggests that Trump is unpopular among Puerto Ricans, though there is little recent polling of the people living on the island. _x000D__x000D_
+Trump was widely lambasted by Puerto Ricans for his response to Hurricane Maria; it is clear that Puerto Ricans did not agree that he had been especially good to them. In a 2018 poll by the Washington Post and Kaiser Family Foundation, 52% said Trump did a poor job responding to the storm. Just 15% rated his response as excellent, very good or good. _x000D__x000D_
+About 130,000 Puerto Ricans, or 4% of the island's population, left Puerto Rico in the aftermath of Maria, many to Florida. Polls of Puerto Ricans in Florida have also found that Trump is unpopular._x000D__x000D_
+In a 2018 Florida International University poll of Puerto Ricans living in Florida, 72% said they had a very bad or bad opinion of Trump, versus just 18% who said they had a very good or good opinion of him. In a March 2019 Politico poll of Puerto Rican likely voters living in Florida, 69% had an unfavorable view of Trump, 21% a favorable view._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>PUERTO RICO</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="N171">
+        <v>2019</v>
+      </c>
+      <c r="O171">
+        <v>7</v>
+      </c>
+      <c r="P171">
+        <v>22</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="R171">
+        <v>30</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PUERTO RICO   </t>
         </is>
       </c>
     </row>

--- a/saved_versions/fcheck_temp.xlsx
+++ b/saved_versions/fcheck_temp.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t xml:space="preserve">E POPULARITY  </t>
+          <t xml:space="preserve">E POPULARITY   </t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRADE ECONOMY  </t>
+          <t xml:space="preserve">TRADE ECONOMY   </t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENVIRONMENT   </t>
+          <t xml:space="preserve">ENVIRONMENT    </t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENVIRONMENT   </t>
+          <t xml:space="preserve">ENVIRONMENT    </t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEALTH CARE   </t>
+          <t xml:space="preserve">HEALTH CARE    </t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEALTH CARE   </t>
+          <t xml:space="preserve">HEALTH CARE    </t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNEMPLOYMENT ECONOMY WOMEN </t>
+          <t xml:space="preserve">UNEMPLOYMENT ECONOMY WOMEN  </t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRADE CHINA ECONOMY </t>
+          <t xml:space="preserve">TRADE CHINA ECONOMY  </t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CENSUS   </t>
+          <t xml:space="preserve">CENSUS    </t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>HILLARY CLINTON THE WALL DEMOCRATS IMMIGRATION</t>
+          <t xml:space="preserve">HILLARY CLINTON THE WALL DEMOCRATS IMMIGRATION </t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION  </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t xml:space="preserve">CROWDS   </t>
+          <t xml:space="preserve">CROWDS    </t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t xml:space="preserve">CROWDS   </t>
+          <t xml:space="preserve">CROWDS    </t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOCIAL MEDIA   </t>
+          <t xml:space="preserve">SOCIAL MEDIA    </t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRADE ECONOMY  </t>
+          <t xml:space="preserve">TRADE ECONOMY   </t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY   </t>
+          <t xml:space="preserve">ECONOMY    </t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOBS ECONOMY  </t>
+          <t xml:space="preserve">JOBS ECONOMY   </t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>JOBS ECONOMY MANUFACTURING BARACK OBAMA</t>
+          <t xml:space="preserve">JOBS ECONOMY MANUFACTURING BARACK OBAMA </t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGY   </t>
+          <t xml:space="preserve">ENERGY    </t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRADE CHINA  </t>
+          <t xml:space="preserve">TRADE CHINA   </t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>ECONOMY</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>TRADE CHINA FARMERS TARIFFS</t>
+          <t>TRADE CHINA FARMERS TARIFFS ECONOMY</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>TRADE CHINA ECONOMY TARIFFS</t>
+          <t xml:space="preserve">TRADE CHINA ECONOMY TARIFFS </t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Democrats</t>
+          <t>DEMOCRATS</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>TRADE CHINA ECONOMY TARIFFS</t>
+          <t>TRADE CHINA ECONOMY TARIFFS DEMOCRATS</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE FARMERS</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE FARMERS </t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRADE ECONOMY NAFTA AND USMCA </t>
+          <t xml:space="preserve">TRADE ECONOMY NAFTA AND USMCA  </t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t xml:space="preserve">CENSUS   </t>
+          <t xml:space="preserve">CENSUS    </t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION RUSSIA INVESTIGATION  </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION RUSSIA INVESTIGATION   </t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION MEXICO  </t>
+          <t xml:space="preserve">IMMIGRATION MEXICO   </t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION MEDIA  </t>
+          <t xml:space="preserve">IMMIGRATION MEDIA   </t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t xml:space="preserve">PAST PRESIDENTS   </t>
+          <t xml:space="preserve">PAST PRESIDENTS    </t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t xml:space="preserve">VETERANS HEALTH CARE MILITARY </t>
+          <t xml:space="preserve">VETERANS HEALTH CARE MILITARY  </t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>ECONOMY JAPAN GERMANY TRADE</t>
+          <t xml:space="preserve">ECONOMY JAPAN GERMANY TRADE </t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t xml:space="preserve">IRAN BARACK OBAMA DEMOCRATS </t>
+          <t xml:space="preserve">IRAN BARACK OBAMA DEMOCRATS  </t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD DEMOCRATS ISRAEL </t>
+          <t xml:space="preserve">THE SQUAD DEMOCRATS ISRAEL  </t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD DEMOCRATS ISRAEL </t>
+          <t xml:space="preserve">THE SQUAD DEMOCRATS ISRAEL  </t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD DEMOCRATS ISRAEL </t>
+          <t xml:space="preserve">THE SQUAD DEMOCRATS ISRAEL  </t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t xml:space="preserve">FARMERS   </t>
+          <t xml:space="preserve">FARMERS    </t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t xml:space="preserve">VETERANS HEALTH CARE MILITARY </t>
+          <t xml:space="preserve">VETERANS HEALTH CARE MILITARY  </t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION CARAVAN DEMOCRATS </t>
+          <t xml:space="preserve">IMMIGRATION CARAVAN DEMOCRATS  </t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION COURTS  </t>
+          <t xml:space="preserve">IMMIGRATION COURTS   </t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t xml:space="preserve">HUMAN TRAFFICKING DEMOCRATS IMMIGRATION </t>
+          <t xml:space="preserve">HUMAN TRAFFICKING DEMOCRATS IMMIGRATION  </t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION DEMOCRATS  </t>
+          <t xml:space="preserve">IMMIGRATION DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGY   </t>
+          <t xml:space="preserve">ENERGY    </t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t xml:space="preserve">NORTH KOREA VETERANS MILITARY </t>
+          <t xml:space="preserve">NORTH KOREA VETERANS MILITARY  </t>
         </is>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRADE MEXICO NAFTA AND USMCA </t>
+          <t xml:space="preserve">TRADE MEXICO NAFTA AND USMCA  </t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t xml:space="preserve">WALL IMMIGRATION  </t>
+          <t xml:space="preserve">WALL IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY WOMEN UNEMPLOYMENT </t>
+          <t xml:space="preserve">ECONOMY WOMEN UNEMPLOYMENT  </t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE FARMERS</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE FARMERS </t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>T</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINA ECONOMY TRADE </t>
+          <t>CHINA ECONOMY TRADE  T</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINA ECONOMY  </t>
+          <t xml:space="preserve">CHINA ECONOMY   </t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t xml:space="preserve">IRAN BARACK OBAMA DEMOCRATS </t>
+          <t xml:space="preserve">IRAN BARACK OBAMA DEMOCRATS  </t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t xml:space="preserve">STOCK MARKET ECONOMY  </t>
+          <t xml:space="preserve">STOCK MARKET ECONOMY   </t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD TERRORISM DEMOCRATS </t>
+          <t xml:space="preserve">THE SQUAD TERRORISM DEMOCRATS  </t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD POLLS DEMOCRATS </t>
+          <t xml:space="preserve">THE SQUAD POLLS DEMOCRATS  </t>
         </is>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t xml:space="preserve">IRAN   </t>
+          <t xml:space="preserve">IRAN    </t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION DEMOCRATS  </t>
+          <t xml:space="preserve">IMMIGRATION DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t xml:space="preserve">CROWDS   </t>
+          <t xml:space="preserve">CROWDS    </t>
         </is>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEALTH CARE DEMOCRATS  </t>
+          <t xml:space="preserve">HEALTH CARE DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD DEMOCRATS TERRORISM </t>
+          <t xml:space="preserve">THE SQUAD DEMOCRATS TERRORISM  </t>
         </is>
       </c>
     </row>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION HISPANICS THE WALL </t>
+          <t xml:space="preserve">IMMIGRATION HISPANICS THE WALL  </t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>IMMIGRATION DEMOCRATS HEALTH CARE CALIFORNIA</t>
+          <t xml:space="preserve">IMMIGRATION DEMOCRATS HEALTH CARE CALIFORNIA </t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t xml:space="preserve">HUMAN TRAFFICKING IMMIGRATION  </t>
+          <t xml:space="preserve">HUMAN TRAFFICKING IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t xml:space="preserve">HUMAN TRAFFICKING DEMOCRATS IMMIGRATION </t>
+          <t xml:space="preserve">HUMAN TRAFFICKING DEMOCRATS IMMIGRATION  </t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t xml:space="preserve">WALL DEMOCRATS  </t>
+          <t xml:space="preserve">WALL DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION GUNS </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION GUNS  </t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION DEMOCRATS MEDIA </t>
+          <t xml:space="preserve">IMMIGRATION DEMOCRATS MEDIA  </t>
         </is>
       </c>
     </row>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT   </t>
         </is>
       </c>
     </row>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY NORTH CAROLINA UNEMPLOYMENT </t>
+          <t xml:space="preserve">ECONOMY NORTH CAROLINA UNEMPLOYMENT  </t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t xml:space="preserve">POLLS 2016 ELECTION  </t>
+          <t xml:space="preserve">POLLS 2016 ELECTION   </t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>POLLS 2016 ELECTION DEMOCRATS HILLARY CLINTON</t>
+          <t xml:space="preserve">POLLS 2016 ELECTION DEMOCRATS HILLARY CLINTON </t>
         </is>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t xml:space="preserve">NATO MILITARY EUROPE </t>
+          <t xml:space="preserve">NATO MILITARY EUROPE  </t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRADE CHINA EUROPE </t>
+          <t xml:space="preserve">TRADE CHINA EUROPE  </t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>2020 ELECTION 2020 DEMOCRATIC CANDIDATES DEMOCRATS ELIZABETH WARREN</t>
+          <t xml:space="preserve">2020 ELECTION 2020 DEMOCRATIC CANDIDATES DEMOCRATS ELIZABETH WARREN </t>
         </is>
       </c>
     </row>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t xml:space="preserve">MILITARY HEALTH CARE VETERANS </t>
+          <t xml:space="preserve">MILITARY HEALTH CARE VETERANS  </t>
         </is>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRESCRIPTION DRUGS DEMOCRATS HEALTH CARE </t>
+          <t xml:space="preserve">PRESCRIPTION DRUGS DEMOCRATS HEALTH CARE  </t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t xml:space="preserve">OPIOD EPIDEMIC   </t>
+          <t xml:space="preserve">OPIOD EPIDEMIC    </t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY WOMEN UNEMPLOYMENT </t>
+          <t xml:space="preserve">ECONOMY WOMEN UNEMPLOYMENT  </t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION OBSTRUCTION OF JUSTICE  </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION OBSTRUCTION OF JUSTICE   </t>
         </is>
       </c>
     </row>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEBT DEMOCRATS  </t>
+          <t xml:space="preserve">DEBT DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD CROWDS  </t>
+          <t xml:space="preserve">THE SQUAD CROWDS   </t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t xml:space="preserve">IRAN BARACK OBAMA  </t>
+          <t xml:space="preserve">IRAN BARACK OBAMA   </t>
         </is>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMAZON MILITARY  </t>
+          <t xml:space="preserve">AMAZON MILITARY   </t>
         </is>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t xml:space="preserve">STEEL ECONOMY  </t>
+          <t xml:space="preserve">STEEL ECONOMY   </t>
         </is>
       </c>
     </row>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t xml:space="preserve">PUERTO RICO CONGRESS  </t>
+          <t xml:space="preserve">PUERTO RICO CONGRESS   </t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERRORISM PAKISTAN  </t>
+          <t xml:space="preserve">TERRORISM PAKISTAN   </t>
         </is>
       </c>
     </row>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD POLLS DEMOCRATS </t>
+          <t xml:space="preserve">THE SQUAD POLLS DEMOCRATS  </t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION  </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINA TARIFFS TRADE </t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE  </t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD DEMOCRATS  </t>
+          <t xml:space="preserve">THE SQUAD DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t xml:space="preserve">POLLS POPULARITY  </t>
+          <t xml:space="preserve">POLLS POPULARITY   </t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t xml:space="preserve">BARACK OBAMA DEBT  </t>
+          <t xml:space="preserve">BARACK OBAMA DEBT   </t>
         </is>
       </c>
     </row>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>MEDIA THE SQUAD DEMOCRATS ISRAEL</t>
+          <t xml:space="preserve">MEDIA THE SQUAD DEMOCRATS ISRAEL </t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINA TARIFFS TRADE </t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE  </t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION JAMES COMEY  </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION JAMES COMEY   </t>
         </is>
       </c>
     </row>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION OBSTRUCTION OF JUSTICE  </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION OBSTRUCTION OF JUSTICE   </t>
         </is>
       </c>
     </row>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t xml:space="preserve">PUERTO RICO CONGRESS  </t>
+          <t xml:space="preserve">PUERTO RICO CONGRESS   </t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t xml:space="preserve">MILITARY AFGHANISTAN  </t>
+          <t xml:space="preserve">MILITARY AFGHANISTAN   </t>
         </is>
       </c>
     </row>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t xml:space="preserve">NORTH KOREA VETERANS MILITARY </t>
+          <t xml:space="preserve">NORTH KOREA VETERANS MILITARY  </t>
         </is>
       </c>
     </row>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRESCRIPTION DRUGS HEALH CARE  </t>
+          <t xml:space="preserve">PRESCRIPTION DRUGS HEALH CARE   </t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT   </t>
         </is>
       </c>
     </row>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT   </t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY WOMEN UNEMPLOYMENT </t>
+          <t xml:space="preserve">ECONOMY WOMEN UNEMPLOYMENT  </t>
         </is>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t xml:space="preserve">IRAN   </t>
+          <t xml:space="preserve">IRAN    </t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t xml:space="preserve">IRAN BARACK OBAMA  </t>
+          <t xml:space="preserve">IRAN BARACK OBAMA   </t>
         </is>
       </c>
     </row>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY UNEMPLOYMENT MILITARY </t>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT MILITARY  </t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t xml:space="preserve">PUERTO RICO POPULARITY  </t>
+          <t xml:space="preserve">PUERTO RICO POPULARITY   </t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t xml:space="preserve">POLLS IMPEACHMENT  </t>
+          <t xml:space="preserve">POLLS IMPEACHMENT   </t>
         </is>
       </c>
     </row>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t xml:space="preserve">POLLS   </t>
+          <t xml:space="preserve">POLLS    </t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t xml:space="preserve">PAST PRESIDENTS MILITARY  </t>
+          <t xml:space="preserve">PAST PRESIDENTS MILITARY   </t>
         </is>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT   </t>
         </is>
       </c>
     </row>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINA TARIFFS TRADE </t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE  </t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t xml:space="preserve">COURTS   </t>
+          <t xml:space="preserve">COURTS    </t>
         </is>
       </c>
     </row>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t xml:space="preserve">NATO EUROPE MILITARY </t>
+          <t xml:space="preserve">NATO EUROPE MILITARY  </t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t xml:space="preserve">EUROPE TRADE NATO </t>
+          <t xml:space="preserve">EUROPE TRADE NATO  </t>
         </is>
       </c>
     </row>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION CARAVAN  </t>
+          <t xml:space="preserve">IMMIGRATION CARAVAN   </t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEDIA   </t>
+          <t xml:space="preserve">MEDIA    </t>
         </is>
       </c>
     </row>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE FARMERS</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE FARMERS </t>
         </is>
       </c>
     </row>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS PAST PRESIDENTS TRADE</t>
+          <t xml:space="preserve">CHINA TARIFFS PAST PRESIDENTS TRADE </t>
         </is>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE FARMERS</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE FARMERS </t>
         </is>
       </c>
     </row>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t xml:space="preserve">MILITARY HEALTH CARE VETERANS </t>
+          <t xml:space="preserve">MILITARY HEALTH CARE VETERANS  </t>
         </is>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t xml:space="preserve">MILITARY HEALTH CARE VETERANS </t>
+          <t xml:space="preserve">MILITARY HEALTH CARE VETERANS  </t>
         </is>
       </c>
     </row>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t xml:space="preserve">VOTER FRAUD CALIFORNIA IMMIGRATION </t>
+          <t xml:space="preserve">VOTER FRAUD CALIFORNIA IMMIGRATION  </t>
         </is>
       </c>
     </row>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD DEMOCRATS  </t>
+          <t xml:space="preserve">THE SQUAD DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE SQUAD DEMOCRATS ISRAEL </t>
+          <t xml:space="preserve">THE SQUAD DEMOCRATS ISRAEL  </t>
         </is>
       </c>
     </row>
@@ -10362,7 +10362,7 @@
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOCIAL MEDIA   </t>
+          <t xml:space="preserve">SOCIAL MEDIA    </t>
         </is>
       </c>
     </row>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION  </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>NATO EUROPE TRADE FARMERS</t>
+          <t xml:space="preserve">NATO EUROPE TRADE FARMERS </t>
         </is>
       </c>
     </row>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t xml:space="preserve">NATO MILITARY EUROPE </t>
+          <t xml:space="preserve">NATO MILITARY EUROPE  </t>
         </is>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRESIDENTIAL POWERS   </t>
+          <t xml:space="preserve">PRESIDENTIAL POWERS    </t>
         </is>
       </c>
     </row>
@@ -10748,7 +10748,7 @@
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGY RUSSIA SAUDI ARABIA </t>
+          <t xml:space="preserve">ENERGY RUSSIA SAUDI ARABIA  </t>
         </is>
       </c>
     </row>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>ENERGY CHINA JAPAN IRAN</t>
+          <t xml:space="preserve">ENERGY CHINA JAPAN IRAN </t>
         </is>
       </c>
     </row>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION THE WALL </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION THE WALL  </t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION THE WALL  </t>
+          <t xml:space="preserve">IMMIGRATION THE WALL   </t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION OBSTRUCTION OF JUSTICE  </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION OBSTRUCTION OF JUSTICE   </t>
         </is>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION JAMES COMEY DEMOCRATS </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION JAMES COMEY DEMOCRATS  </t>
         </is>
       </c>
     </row>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -11278,7 +11278,7 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION DEMOCRATS  </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t xml:space="preserve">HILLARY CLINTON MUELLER INVESTIGATION DEMOCRATS </t>
+          <t xml:space="preserve">HILLARY CLINTON MUELLER INVESTIGATION DEMOCRATS  </t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION MEDIA  </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION MEDIA   </t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -11547,7 +11547,7 @@
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT   </t>
         </is>
       </c>
     </row>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t xml:space="preserve">NORTH KOREA MILITARY VETERANS </t>
+          <t xml:space="preserve">NORTH KOREA MILITARY VETERANS  </t>
         </is>
       </c>
     </row>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t xml:space="preserve">RUSSIA MUELLER INVESTIGATION  </t>
+          <t xml:space="preserve">RUSSIA MUELLER INVESTIGATION   </t>
         </is>
       </c>
     </row>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -11839,7 +11839,7 @@
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t xml:space="preserve">CROWDS {P[I;AROTY  </t>
+          <t xml:space="preserve">CROWDS {P[I;AROTY   </t>
         </is>
       </c>
     </row>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGY RUSSIA SAUDI ARABIA </t>
+          <t xml:space="preserve">ENERGY RUSSIA SAUDI ARABIA  </t>
         </is>
       </c>
     </row>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t xml:space="preserve">NORTH KOREA MILITARY  </t>
+          <t xml:space="preserve">NORTH KOREA MILITARY   </t>
         </is>
       </c>
     </row>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION COLLUSION  </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION COLLUSION   </t>
         </is>
       </c>
     </row>
@@ -12282,7 +12282,7 @@
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t xml:space="preserve">TURKEY MILITARY  </t>
+          <t xml:space="preserve">TURKEY MILITARY   </t>
         </is>
       </c>
     </row>
@@ -12430,7 +12430,7 @@
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY UNEMPLOYMENT  </t>
+          <t xml:space="preserve">ECONOMY UNEMPLOYMENT   </t>
         </is>
       </c>
     </row>
@@ -12510,7 +12510,7 @@
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINA TARIFFS TRADE </t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE  </t>
         </is>
       </c>
     </row>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINA TRADE  </t>
+          <t xml:space="preserve">CHINA TRADE   </t>
         </is>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINA TRADE TARIFFS </t>
+          <t xml:space="preserve">CHINA TRADE TARIFFS  </t>
         </is>
       </c>
     </row>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE FARMERS</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE FARMERS </t>
         </is>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINA TRADE  </t>
+          <t xml:space="preserve">CHINA TRADE   </t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION  </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION THE WALL </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION THE WALL  </t>
         </is>
       </c>
     </row>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEXICO IMMIGRATION  </t>
+          <t xml:space="preserve">MEXICO IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -13128,7 +13128,7 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION THE WALL  </t>
+          <t xml:space="preserve">IMMIGRATION THE WALL   </t>
         </is>
       </c>
     </row>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t xml:space="preserve">CONGRESS DEMOCRATS  </t>
+          <t xml:space="preserve">CONGRESS DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION   </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION    </t>
         </is>
       </c>
     </row>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>MUELLER INVESTIGATION HILLARY CLINTON DEMOCRATS COLLUSION</t>
+          <t xml:space="preserve">MUELLER INVESTIGATION HILLARY CLINTON DEMOCRATS COLLUSION </t>
         </is>
       </c>
     </row>
@@ -13415,7 +13415,7 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION  </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -13484,7 +13484,7 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t xml:space="preserve">BALTIMORE DEMOCRATS  </t>
+          <t xml:space="preserve">BALTIMORE DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t xml:space="preserve">EUROPE ECONOMY TRADE </t>
+          <t xml:space="preserve">EUROPE ECONOMY TRADE  </t>
         </is>
       </c>
     </row>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE WALL IMMIGRATION DEMOCRATS </t>
+          <t xml:space="preserve">THE WALL IMMIGRATION DEMOCRATS  </t>
         </is>
       </c>
     </row>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t xml:space="preserve">CROWDS POPULARITY  </t>
+          <t xml:space="preserve">CROWDS POPULARITY   </t>
         </is>
       </c>
     </row>
@@ -13771,7 +13771,7 @@
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEDIA   </t>
+          <t xml:space="preserve">MEDIA    </t>
         </is>
       </c>
     </row>
@@ -13847,7 +13847,7 @@
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t xml:space="preserve">CROWDS 2020 DEMOCRATIC CANDIDATES JOE BIDEN </t>
+          <t xml:space="preserve">CROWDS 2020 DEMOCRATIC CANDIDATES JOE BIDEN  </t>
         </is>
       </c>
     </row>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION  </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t xml:space="preserve">MILITARY VETERANS HEALTH CARE </t>
+          <t xml:space="preserve">MILITARY VETERANS HEALTH CARE  </t>
         </is>
       </c>
     </row>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE FARMERS</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE FARMERS </t>
         </is>
       </c>
     </row>
@@ -14142,7 +14142,7 @@
       </c>
       <c r="T181" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE ECONOMY</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE ECONOMY </t>
         </is>
       </c>
     </row>
@@ -14212,7 +14212,7 @@
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUELLER INVESTIGATION COURTS  </t>
+          <t xml:space="preserve">MUELLER INVESTIGATION COURTS   </t>
         </is>
       </c>
     </row>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION  </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION BARACK OBAMA  </t>
+          <t xml:space="preserve">IMMIGRATION BARACK OBAMA   </t>
         </is>
       </c>
     </row>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="T185" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION   </t>
+          <t xml:space="preserve">IMMIGRATION    </t>
         </is>
       </c>
     </row>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t xml:space="preserve">COURTS   </t>
+          <t xml:space="preserve">COURTS    </t>
         </is>
       </c>
     </row>
@@ -14550,7 +14550,7 @@
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t xml:space="preserve">POLLS POPULARITY  </t>
+          <t xml:space="preserve">POLLS POPULARITY   </t>
         </is>
       </c>
     </row>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t xml:space="preserve">CROWDS POPULARITY  </t>
+          <t xml:space="preserve">CROWDS POPULARITY   </t>
         </is>
       </c>
     </row>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="T189" t="inlineStr">
         <is>
-          <t xml:space="preserve">ROBERT MUELLER OBSTRUCTION OF JUSTICE COLLUSION </t>
+          <t xml:space="preserve">ROBERT MUELLER OBSTRUCTION OF JUSTICE COLLUSION  </t>
         </is>
       </c>
     </row>
@@ -14760,7 +14760,7 @@
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION  </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEMOCRATS IMMIGRATION  </t>
+          <t xml:space="preserve">DEMOCRATS IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t xml:space="preserve">CROWDS POPULARITY  </t>
+          <t xml:space="preserve">CROWDS POPULARITY   </t>
         </is>
       </c>
     </row>
@@ -14985,7 +14985,7 @@
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t xml:space="preserve">TARIFFS STEEL ECONOMY </t>
+          <t xml:space="preserve">TARIFFS STEEL ECONOMY  </t>
         </is>
       </c>
     </row>
@@ -15067,7 +15067,7 @@
       </c>
       <c r="T194" t="inlineStr">
         <is>
-          <t xml:space="preserve">TARIFFS STEEL ECONOMY </t>
+          <t xml:space="preserve">TARIFFS STEEL ECONOMY  </t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 ELECTION OHIO  </t>
+          <t xml:space="preserve">2016 ELECTION OHIO   </t>
         </is>
       </c>
     </row>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 ELECTION POPULARITY  </t>
+          <t xml:space="preserve">2016 ELECTION POPULARITY   </t>
         </is>
       </c>
     </row>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="T197" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 ELECTION FLORIDA  </t>
+          <t xml:space="preserve">2016 ELECTION FLORIDA   </t>
         </is>
       </c>
     </row>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t xml:space="preserve">VETERANS HEALTH CARE MILITARY </t>
+          <t xml:space="preserve">VETERANS HEALTH CARE MILITARY  </t>
         </is>
       </c>
     </row>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="T199" t="inlineStr">
         <is>
-          <t xml:space="preserve">VETERANS HEALTH CARE MILITARY </t>
+          <t xml:space="preserve">VETERANS HEALTH CARE MILITARY  </t>
         </is>
       </c>
     </row>
@@ -15524,7 +15524,7 @@
       </c>
       <c r="T200" t="inlineStr">
         <is>
-          <t xml:space="preserve">RIGHT TO TRY HEALTH CARE  </t>
+          <t xml:space="preserve">RIGHT TO TRY HEALTH CARE   </t>
         </is>
       </c>
     </row>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="T201" t="inlineStr">
         <is>
-          <t xml:space="preserve">RIGHT TO TRY HEALTH CARE  </t>
+          <t xml:space="preserve">RIGHT TO TRY HEALTH CARE   </t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="T202" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEALTH CARE   </t>
+          <t xml:space="preserve">HEALTH CARE    </t>
         </is>
       </c>
     </row>
@@ -15742,7 +15742,7 @@
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION DEMOCRATS  </t>
+          <t xml:space="preserve">IMMIGRATION DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGY BARACK OBAMA  </t>
+          <t xml:space="preserve">ENERGY BARACK OBAMA   </t>
         </is>
       </c>
     </row>
@@ -15885,7 +15885,7 @@
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t xml:space="preserve">BARACK OBAMA ECONOMY  </t>
+          <t xml:space="preserve">BARACK OBAMA ECONOMY   </t>
         </is>
       </c>
     </row>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t xml:space="preserve">BARACK OBAMA ECONOMY  </t>
+          <t xml:space="preserve">BARACK OBAMA ECONOMY   </t>
         </is>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
       </c>
       <c r="T207" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGY BARACK OBAMA  </t>
+          <t xml:space="preserve">ENERGY BARACK OBAMA   </t>
         </is>
       </c>
     </row>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="T208" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGY BARACK OBAMA  </t>
+          <t xml:space="preserve">ENERGY BARACK OBAMA   </t>
         </is>
       </c>
     </row>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="T209" t="inlineStr">
         <is>
-          <t xml:space="preserve">BARACK OBAMA IRAN  </t>
+          <t xml:space="preserve">BARACK OBAMA IRAN   </t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="T210" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE WALL IMMIGRATION  </t>
+          <t xml:space="preserve">THE WALL IMMIGRATION   </t>
         </is>
       </c>
     </row>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="T211" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMMIGRATION DEMOCRATS  </t>
+          <t xml:space="preserve">IMMIGRATION DEMOCRATS   </t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="T212" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY JOBS UNEMPLOYMENT </t>
+          <t xml:space="preserve">ECONOMY JOBS UNEMPLOYMENT  </t>
         </is>
       </c>
     </row>
@@ -16495,7 +16495,7 @@
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY JOBS UNEMPLOYMENT </t>
+          <t xml:space="preserve">ECONOMY JOBS UNEMPLOYMENT  </t>
         </is>
       </c>
     </row>
@@ -16572,7 +16572,7 @@
       </c>
       <c r="T214" t="inlineStr">
         <is>
-          <t xml:space="preserve">ECONOMY JOBS UNEMPLOYMENT </t>
+          <t xml:space="preserve">ECONOMY JOBS UNEMPLOYMENT  </t>
         </is>
       </c>
     </row>
@@ -16641,7 +16641,7 @@
       </c>
       <c r="T215" t="inlineStr">
         <is>
-          <t xml:space="preserve">COURTS   </t>
+          <t xml:space="preserve">COURTS    </t>
         </is>
       </c>
     </row>
@@ -16721,7 +16721,7 @@
       </c>
       <c r="T216" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEALTH CARE PRESCRIPTION DRUGS HEALTH CARE </t>
+          <t xml:space="preserve">HEALTH CARE PRESCRIPTION DRUGS HEALTH CARE  </t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       </c>
       <c r="T217" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE ECONOMY</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE ECONOMY </t>
         </is>
       </c>
     </row>
@@ -16887,7 +16887,7 @@
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE ECONOMY</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE ECONOMY </t>
         </is>
       </c>
     </row>
@@ -16944,7 +16944,7 @@
       </c>
       <c r="T219" t="inlineStr">
         <is>
-          <t xml:space="preserve">AFGHANISTAN   </t>
+          <t xml:space="preserve">AFGHANISTAN    </t>
         </is>
       </c>
     </row>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t xml:space="preserve">RUSSIA CHINA MILITARY </t>
+          <t xml:space="preserve">RUSSIA CHINA MILITARY  </t>
         </is>
       </c>
     </row>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="T221" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE ECONOMY</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE ECONOMY </t>
         </is>
       </c>
     </row>
@@ -17167,7 +17167,7 @@
       </c>
       <c r="T222" t="inlineStr">
         <is>
-          <t>CHINA TARIFFS TRADE ECONOMY</t>
+          <t xml:space="preserve">CHINA TARIFFS TRADE ECONOMY </t>
         </is>
       </c>
     </row>

--- a/saved_versions/fcheck_temp.xlsx
+++ b/saved_versions/fcheck_temp.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T222"/>
+  <dimension ref="A1:T227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17171,6 +17171,370 @@
         </is>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Interview with C-SPAN</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>DEBT AND SPENDING</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Asked about the increase in debt during his tenure, and told that spending under his watch has been higher than spending under Obama, Trump said, "Sure, but the difference is, he wasn't building up the military. The military was getting depleted. I have to build it up, and I have to build it up from both Bush and from Obama, because with Bush, you know we were in these wars all over the place, and with Obama the same thing, they just never ended."</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Military spending is not the primary contributor to the increase in debt under Trump._x000D__x000D_
+According to a July analysis by the Committee for a Responsible Federal Budget, legislation signed by Trump will produce a $4.1 trillion increase in the debt between 2017 and 2029. Of that $4.1 trillion, senior vice president Marc Goldwein said, approximately a quarter is attributable to the increase in military spending._x000D__x000D_
+Trump's tax cuts are responsible for a much bigger share of the $4.1 trillion: about $1.8 trillion._x000D__x000D_
+"There's been across-the board-increases in the deficit, and defense is certainly a piece of it. But to use it as an excuse for the other three-quarters doesn't make a lot of sense to me," Goldwein said._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>DEBT</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>MILITARY</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>OBAMA</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="O223">
+        <v>2019</v>
+      </c>
+      <c r="P223">
+        <v>7</v>
+      </c>
+      <c r="Q223">
+        <v>30</v>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="S223">
+        <v>31</v>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DEBT ECONOMY MILITARY OBAMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>43676</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>BALTIMORE AND CORRUPTION</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>What Elijah Cummings should do is he should take his Oversight Committee, bring them down to Baltimore, and invest all of it, and really study the billions and billions of dollars that's been stolen. It's been wasted; it's been stolen. And: "But the people of Baltimore are very thankful — they have let us know by the thousands of people — because of the fact that finally somebody is pointing out how corrupt Baltimore is, how billions and billions of dollars have been stolen."</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Though Baltimore has had a series of corruption scandals in recent years, there is no evidence that anywhere near "billions and billions" has been "stolen."_x000D__x000D_
+We can't definitively fact-check Trump's claim that billions have been "wasted"; he is entitled to his opinion on the effectiveness of spending. But an allegation of billions in actual theft requires proof, and Trump has not provided any._x000D__x000D_
+"He has no idea what he's talking about," said Matthew Crenson, professor emeritus of political science at Johns Hopkins University and a scholar of Baltimore's political history. "I'd like to see those billions and billions."_x000D__x000D_
+Corruption convictions or cases involving alleged corruption in Baltimore have tended to involve sums of money much smaller than "billions."_x000D__x000D_
+In 2009, Mayor Sheila Dixon was convicted of stealing about $1,500 worth of gift cards meant for low-income residents. Mayor Catherine Pugh resigned in May of this year over a scandal involving payments from the University of Maryland Medical System. Pugh, who sat on the nonprofit company's board of directors, received $500,000 for 100,000 copies of a children's book she wrote. (She called the deal a "regrettable mistake.")_x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>CORRUPTION</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>BALTIMORE</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>ELIJAH CUMMINGS</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="O224">
+        <v>2019</v>
+      </c>
+      <c r="P224">
+        <v>7</v>
+      </c>
+      <c r="Q224">
+        <v>30</v>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="S224">
+        <v>31</v>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORRUPTION BALTIMORE ELIJAH CUMMINGS  </t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>43675</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>BALTIMORE'S ECONOMY</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>"Baltimore's numbers are the worst in the United States on Crime and the Economy. Billions of dollars have been pumped in over the years, but to no avail. The money was stolen or wasted. Ask Elijah Cummings where it went. He should investigate himself with his Oversight Committee!"</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Baltimore does not have the worst economic numbers in the United States, though it does rank poorly by several measures._x000D__x000D_
+Baltimore had the fourth-worst unemployment rate of major cities in 2018, but its 5.7% rate was substantially better than that of last-place Detroit, which was at 9.0%. In 2017, the Baltimore metropolitan area (which includes more than the city of Baltimore, on which Trump was focusing his attacks) ranked 19th in the country in gross domestic product out of 383 areas studied. The city of Baltimore had a 22.4% poverty rate over the 2013-2017 period, well ahead of such cities as Detroit (37.9%), Bloomington, Indiana (37.5%), and Laredo, Texas (30.6%)._x000D__x000D_
+Baltimore did have the highest homicide rate of any major city in 2017, so Trump was accurate in his claim about crime._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>BALTIMORE</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>ELIJAH CUMMINGS</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="O225">
+        <v>2019</v>
+      </c>
+      <c r="P225">
+        <v>7</v>
+      </c>
+      <c r="Q225">
+        <v>29</v>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="S225">
+        <v>31</v>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BALTIMORE ELIJAH CUMMINGS   </t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Interview with C-Span</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>TWEET ABOUT OBAMA WIRETAPPING</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Talking about his tweeting habits, Trump said, "I sent the one about the 'wiretapping' in quotes, and that turned out to be true. Remember the big deal that was? I heard like about a minute after I sent that, I was called by my people, 'Sir, did you say --' I said, 'Yeah, I did, what's the big deal?' And the reason it was such a big deal is it turned out to be true." -- July 30 interview with C-SPAN</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Trump's tweet about Obama allegedly wiretapping his phones has not been proved true._x000D__x000D_
+Trump was referring to the 2017 tweet in which he said, "Terrible! Just found out that Obama had my 'wires tapped' in Trump Tower just before the victory. Nothing found. This is McCarthyism!" (He repeated the allegation in additional tweets the same day, saying, for example, "I'd bet a good lawyer could make a great case out of the fact that President Obama was tapping my phones in October, just prior to Election!")_x000D__x000D_
+There is still no evidence that Trump was wiretapped, let alone that Obama ordered a wiretap of Trump. The Justice Department said in a 2017 court filing that there are no records related to wiretaps like the ones Trump described. Then-FBI Director James Comey told Congress in 2017 that "we have no information to support those tweets."_x000D__x000D_
+Paul Manafort, who served as Trump's campaign chairman, was wiretapped before and after the election, CNN has reported, and Manafort had a residence in Trump Tower._x000D__x000D_
+But a wiretap of someone living in Trump's apartment building is not the same as a wiretap of Trump himself. And there remains no public evidence that Obama was personally involved even in the Manafort wiretaps._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>ELECTION 2016</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="O226">
+        <v>2019</v>
+      </c>
+      <c r="P226">
+        <v>7</v>
+      </c>
+      <c r="Q226">
+        <v>30</v>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="S226">
+        <v>31</v>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELECTION 2016    </t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Rally in Cincinnati</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>RALLY</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>CINCINNATI</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>OHIO</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>VA FIRING</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>"You couldn't fire anybody. If they were treating our vets badly, you couldn't fire him for anything. People could steal, they could be sadistic to our vets. ... You couldn't fire anybody for almost anything."</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: While Trump might have been exaggerating here for effect, it's not true that "you couldn't fire anybody" prior to the Veterans Affairs Accountability and Whistleblower Protection Act he signed into law in 2017._x000D__x000D_
+The VA fired on average approximately 2,300 employees annually from 2005 to 2016, based on data collected by the Office of Personnel Management. However, the Clarion-Ledger newspaper in Mississippi did find several instances where VA employees who were registered sex offenders or had been indicted for killing patients, for example, retained their jobs. The legislation Trump signed simplified and expedited the process of terminating VA employees._x000D__x000D_
+</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>VETERANS</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>&lt;a href='' target='_blank'&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="O227">
+        <v>2019</v>
+      </c>
+      <c r="P227">
+        <v>8</v>
+      </c>
+      <c r="Q227">
+        <v>1</v>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="S227">
+        <v>31</v>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VETERANS    </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/saved_versions/fcheck_temp.xlsx
+++ b/saved_versions/fcheck_temp.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P343"/>
+  <dimension ref="A1:P375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13543,8 +13543,8 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Facts First: While Trump might have been exaggerating here for effect, it's not true that "you couldn't fire anybody" prior to the Veterans Affairs Accountability and Whistleblower Protection Act he signed into law in 2017._x000D__x000D_
-The VA fired on average approximately 2,300 employees annually from 2005 to 2016, based on data collected by the Office of Personnel Management. However, the Clarion-Ledger newspaper in Mississippi did find several instances where VA employees who were registered sex offenders or had been indicted for killing patients, for example, retained their jobs. The legislation Trump signed simplified and expedited the process of terminating VA employees._x000D__x000D_
+          <t xml:space="preserve">Facts First: While Trump might have been exaggerating here for effect, it's not true that "you couldn't fire anybody" prior to the Veterans Affairs Accountability and Whistleblower Protection Act he signed into law in 2017.
+The VA fired on average approximately 2,300 employees annually from 2005 to 2016, based on data collected by the Office of Personnel Management. However, the Clarion-Ledger newspaper in Mississippi did find several instances where VA employees who were registered sex offenders or had been indicted for killing patients, for example, retained their jobs. The legislation Trump signed simplified and expedited the process of terminating VA employees.
 </t>
         </is>
       </c>
@@ -20400,7 +20400,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -20453,7 +20453,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -20506,7 +20506,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -20558,7 +20558,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -20729,7 +20729,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -20783,7 +20783,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -20835,7 +20835,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -20939,7 +20939,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>August 22 exchange with reporters</t>
+          <t>August 21 exchange with reporters</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -20982,6 +20982,1762 @@
         </is>
       </c>
       <c r="P343">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>43702</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Remarks with Canadian Prime Minister Justin Trudeau</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>BIARRITZ, FRANCE</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>USMCA RATIFICATION</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>TRADE; ECONOMY; NAFTA AND USMCA</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>“I think most Democrats like it. So, hopefully, that’ll be put to a vote fairly soon. It’s got tremendous support — both, I believe, Democrat and Republican. It has been signed and finalized, essentially, by Canada and, essentially, by Mexico. So we’re waiting for that from the United States.”</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The trade agreement has not been finalized by Canada. Just as it has not been put to a vote in the US Congress, it has not been put to a vote in the Canadian Parliament. _x000D_
+The agreement is unlikely to be rejected by Parliament even if Prime Minister Justin Trudeau’s Liberal government is ousted in this year’s election, since the Conservative opposition party says it will “reluctantly” vote in favor, but it’s still a stretch for Trump to say the agreement has been finalized in Canada, even “essentially.”_x000D_
+Mexico’s Senate ratified the agreement in June._x000D_
+</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>&lt;a href='https://www.cnn.com/2019/08/21/politics/fact-check-trump-84-false-claims-last-week/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/21/politics/fact-check-trump-84-false-claims-last-week/index.html&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="L344">
+        <v>2019</v>
+      </c>
+      <c r="M344">
+        <v>8</v>
+      </c>
+      <c r="N344">
+        <v>25</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="P344">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>43702</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Remarks with UK Prime Minister Boris Johnson</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>BIARRITZ, FRANCE</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>WHO'S PAYING</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>CHINA; TARIFFS; TRADE; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>“We’re getting a lot of money in tariffs. It’s coming in by the billions. We never got 10 cents from China. So we’ll see what happens. ”</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: American importers make the actual tariff payments, and economic studies have found that Americans, not people and companies in China, have borne most of the cost._x000D_
+Trump acknowledged at least the possibility that tariffs on China might hurt US consumers when he delayed planned additional tariffs until December 15. Peter Navarro, his trade adviser, described the move as a "Christmas present to the nation."  _x000D_
+A March paper from economists at Columbia, Princeton and the New York Federal Reserve found that the "full incidence" of Trump's tariffs has fallen on domestic companies and consumers -- costing them $3 billion a month by the end of 2018. The paper also found that the tariffs led to a reduction in US income by $1.4 billion a month._x000D_
+A separate academic paper also found that the tariffs led to higher consumer prices. It estimated that the tariffs will result in a $7.8 billion-per-year decline in income._x000D_
+The White House's Economic Report of the President also acknowledged that American consumers do pay some of the cost of these tariffs. Domestic producers, according to the report, benefit from price increases from the tariffs, but "offsetting these benefits are the costs paid by consumers in the form of higher prices and reduced consumption."_x000D_
+Some Chinese suppliers might take on some of the burden of the tariff by reducing their prices to maintain a market in the United States, but these studies show that the burden heavily falls on US consumers and companies._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L345">
+        <v>2019</v>
+      </c>
+      <c r="M345">
+        <v>8</v>
+      </c>
+      <c r="N345">
+        <v>25</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="P345">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>WHO'S PAYING</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>CHINA; TARIFFS; TRADE; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>“No, I think our tariffs are very good for us. We’re taking in tens of billions of dollars. China is paying for it.”</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: American importers make the actual tariff payments, and economic studies have found that Americans, not people and companies in China, have borne most of the cost._x000D_
+Trump acknowledged at least the possibility that tariffs on China might hurt US consumers when he delayed planned additional tariffs until December 15. Peter Navarro, his trade adviser, described the move as a "Christmas present to the nation."  _x000D_
+A March paper from economists at Columbia, Princeton and the New York Federal Reserve found that the "full incidence" of Trump's tariffs has fallen on domestic companies and consumers -- costing them $3 billion a month by the end of 2018. The paper also found that the tariffs led to a reduction in US income by $1.4 billion a month._x000D_
+A separate academic paper also found that the tariffs led to higher consumer prices. It estimated that the tariffs will result in a $7.8 billion-per-year decline in income._x000D_
+The White House's Economic Report of the President also acknowledged that American consumers do pay some of the cost of these tariffs. Domestic producers, according to the report, benefit from price increases from the tariffs, but "offsetting these benefits are the costs paid by consumers in the form of higher prices and reduced consumption."_x000D_
+Some Chinese suppliers might take on some of the burden of the tariff by reducing their prices to maintain a market in the United States, but these studies show that the burden heavily falls on US consumers and companies._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L346">
+        <v>2019</v>
+      </c>
+      <c r="M346">
+        <v>8</v>
+      </c>
+      <c r="N346">
+        <v>23</v>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P346">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>43702</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Remarks with UK Prime Minister Boris Johnson</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>BIARRITZ, FRANCE</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>HISTORY OF TARIFFS</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>CHINA; TARIFFS; TRADE; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>“We’re getting a lot of money in tariffs. It’s coming in by the billions. We never got 10 cents from China.”</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The U.S. government has been charging tariffs on imported Chinese goods for more than two centuries, and it took in hefty sums from such tariffs long before Trump's own tariffs. (Again, it is US importers, not China, who have paid these tariffs.)_x000D_
+The Treasury received $14 billion from tariffs on China in 2014, to look at one pre-Trump year._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L347">
+        <v>2019</v>
+      </c>
+      <c r="M347">
+        <v>8</v>
+      </c>
+      <c r="N347">
+        <v>25</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="P347">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>DOW UNDER TRUMP</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Question: “Six hundred and twenty-three points — that’s what the Dow was down today because of what you tweeted. Do you have a responsibility for that?” Trump: “Not at all. Not at all. Because if you look at from November 9th — the day after the election — we’re up 50% or more. We’re up many, many points. We were at about sixteen or seventeen thousand. We’re at 25,000, so don’t tell me about 600 points.”</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Facts First: The Dow was up almost exactly 40% between its opening on November 9, 2016 and its close the day Trump spoke here, August 23, 2019. Though Trump was correct that it closed above 25,000 points on August 23, it was over 18,000 points on November 9, 2016, not at “sixteen or seventeen thousand.”</t>
+        </is>
+      </c>
+      <c r="L348">
+        <v>2019</v>
+      </c>
+      <c r="M348">
+        <v>8</v>
+      </c>
+      <c r="N348">
+        <v>23</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P348">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>GOOGLE AND VOTES</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>GOOGLE; 2016 ELECTION</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>“Somebody came in the other day and said the election that we had in ’16 with Hillary Clinton, that it could’ve cost me anywhere from 2,600 — from 2,600,000 votes to, I think, it went up to close to either 10 or maybe 15 million votes.”</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: A hotly disputed study concluded that bias in Google’s search results was sufficient to have swayed up to 10.4 million votes in Clinton’s direction. In other words, even if you accept a study other academics say is flawed, there is no basis for the “15 million” figure._x000D_
+Trump did say “I think,” acknowledging some uncertainty, but this is the second time he has cited a maximum figure far higher than the study did. You can read our full fact check on the study here._x000D_
+</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>&lt;a href='https://www.cnn.com/2019/08/19/politics/trump-google-manipulated-votes-claim/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/19/politics/trump-google-manipulated-votes-claim/index.html&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="L349">
+        <v>2019</v>
+      </c>
+      <c r="M349">
+        <v>8</v>
+      </c>
+      <c r="N349">
+        <v>23</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P349">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>VENEZUELA'S WEALTH</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>VENEZUELA</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>“We’re helping Venezuela as much as we can. We’re staying out of it, but we are helping it, and it needs a lot of help. It’s an incredible tribute to something bad happening, and the something bad is socialism. And it’s amazing because, 15 years ago, it was one of the wealthiest countries. Now it’s one of the poorest countries.”</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Venezuela was not one of the world's richest countries 15 years ago._x000D_
+ _x000D_
+The International Monetary Fund's World Economic Outlook ranked Venezuela 67th in the world in 2004 by GDP per capita, at $4,019 (US) -- better than more than half of the world's countries, but nowhere near the top._x000D_
+"Venezuela was one of the richest countries in the world 60 years ago. The richest in Latin America 40 years ago. But not 20 years ago," Ricardo Hausmann, a former Venezuelan planning minister and central bank board member, said in response to a previous version of this Trump claim. Hausmann, now a Harvard University professor of economic development, was chief economist of the Inter-American Development Bank from 1994 to 2000._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L350">
+        <v>2019</v>
+      </c>
+      <c r="M350">
+        <v>8</v>
+      </c>
+      <c r="N350">
+        <v>20</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P350">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>LOWEST UNEMPLOYMENT EVER</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>ECONOMY; UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>“You’re talking about unemployment numbers that are the lowest in history, in many categories, and, overall, almost the lowest ever, in the history of our country. I think it was 1969. And we are set to surpass that number. I mean, our country is doing very well.”</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: It is true that the unemployment rate is the lowest it has been since 1969 (other than months earlier this year), but it is not true that the 1969 rates were an all-time low. The low was 2.5%, in 1953._x000D_
+The unemployment rate in July was 3.7%, the same as the rate in June and up slightly from the 3.6% rate in May and April. It is possible that it will fall below the 1969 low of 3.4%. But there is no apparent sign that it will surpass the 2.5% low; it has not gone below 3.6% at any time during Trump’s presidency and has not gone below 3% since 1953._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L351">
+        <v>2019</v>
+      </c>
+      <c r="M351">
+        <v>8</v>
+      </c>
+      <c r="N351">
+        <v>20</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P351">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>GM FOUNDER</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>“The Legendary Henry Ford and Alfred P. Sloan, the Founders of Ford Motor Company and General Motors, are ‘rolling over’ at the weakness of current car company executives…”</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Facts First: William Durant founded General Motors in 1908. Sloan became company president in 1923 and chairman of the board in 1937.</t>
+        </is>
+      </c>
+      <c r="L352">
+        <v>2019</v>
+      </c>
+      <c r="M352">
+        <v>8</v>
+      </c>
+      <c r="N352">
+        <v>21</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P352">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>FENTANYL</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>DRUGS</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>“Fentanyl kills 100,000 Americans a year.”</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Facts First: Though many Americans die from fentanyl overdoses, Trump’s “100,000” figure was not close to correct. The Centers for Disease Control and Prevention estimated that there were 28,466 overdose deaths connected to synthetic opioids, including fentanyl, in 2017, and that 47,600 overdose deaths that year involved any kind of opioid. The CDC’s preliminary data found a decline in overdose deaths in 2018, so it is exceptionally unlikely that the number of fentanyl-related deaths has spiked from an estimate of less than 30,000 in 2017 to anywhere near 100,000 today.</t>
+        </is>
+      </c>
+      <c r="L353">
+        <v>2019</v>
+      </c>
+      <c r="M353">
+        <v>8</v>
+      </c>
+      <c r="N353">
+        <v>23</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P353">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Interview with Lawrence Smith of WDRB Louisville</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>VETERANS CHOICE</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>MILITARY; VETERANS; HEALTH CARE</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>“Well, we've done a lot for the vets, especially with choice. You know, before I came, you didn't have Veterans Choice. Now you have Veterans Choice, which nobody in their wildest dream really thought -- they've been trying to get it for 44 years, and I got it for the veterans. So, the veterans are liking me a lot and I like them. So, now if they have to wait on a line -- you know, they were waiting three, four, five weeks to see a doctor. Now, if there's a wait, they go out, they see a doctor, we pay for the cost of it. And, it's the least important thing, but frankly, we save money, and we take care of our vets, and that's a good combination.”</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Facts First: Trump did not get the Veterans Choice program passed. It was signed into law by Obama in 2014.
+In 2018, Trump signed the VA MISSION Act, which expanded and changed the Choice program.)</t>
+        </is>
+      </c>
+      <c r="L354">
+        <v>2019</v>
+      </c>
+      <c r="M354">
+        <v>8</v>
+      </c>
+      <c r="N354">
+        <v>21</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P354">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Speech to the AMVETS national convention</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>VETERANS CHOICE</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>MILITARY; VETERANS; HEALTH CARE</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>“You fought courageously for our country, and now my administration is fighting for you. That’s for sure. And, you know, we’ve accomplished a lot. We’ve done a lot. And one of the things we have done is you get that medical care quickly now, when you go into those doctors. And you used to have to wait for weeks and weeks and weeks. And you don’t wait anymore. You go out and see a private doctor and we pay the bill. And people are really happy about it, and the vets are very happy about it. Veterans Choice, as you’ve been trying to get that for 44 years, they say — 44 years. I guess it’s longer than that; probably earlier than that. But for 44 years, at least, that we know of. And you got it, so congratulations. Hopefully, you don’t have to use it too often because you’re going to feel great. Okay?”</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Facts First: Trump did not get the Veterans Choice program passed. It was signed into law by Obama in 2014.
+In 2018, Trump signed the VA MISSION Act, which expanded and changed the Choice program.)</t>
+        </is>
+      </c>
+      <c r="L355">
+        <v>2019</v>
+      </c>
+      <c r="M355">
+        <v>8</v>
+      </c>
+      <c r="N355">
+        <v>21</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P355">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Interview with Lawrence Smith of WDRB Louisville</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>OPIOID EPIDEMIC</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>OPIOID EPIDEMIC; DRUGS</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>“And, as you know, we're down about 17% from what it was a year and a half ago, with the opioid, and opioid is a serious problem.”</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Facts First: Trump didn't explain what exactly he was referring to, but the most prominent statistic associated with the opioid epidemic, the number of overdose deaths, is not down 16% or 17% nationally, according to the latest available data.
+Overdose deaths were down an estimated 3.4% between January 2018 and 2019, according to preliminary data published by the Centers for Disease Control and Prevention. In New Hampshire, where Trump was speaking when he made these remarks, it was 6.6%. – August 21 interview with Lawrence Smith of WDRB Louisville</t>
+        </is>
+      </c>
+      <c r="L356">
+        <v>2019</v>
+      </c>
+      <c r="M356">
+        <v>8</v>
+      </c>
+      <c r="N356">
+        <v>21</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P356">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>TLAIB CONDUCT</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>THE SQUAD; DEMOCRATS; ISRAEL</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>“And then, yesterday, I noticed for the first time, Tlaib with the tears. All of a sudden, she starts with tears. Tears. And I don’t buy it. I don’t buy it. I don’t buy it for a second because I’ve seen her in a very vicious mood at campaign rallies — my campaign rallies — before she was a congresswoman. I said, ‘Who is that?’ And I saw a woman that was violent and vicious and out of control. And all of a sudden, I see this person who’s crying because she can’t see her grandmother”</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Facts First: There is no evidence Tlaib, who became teary last week as she recalled how her family was treated during childhood visits to the West Bank, is “violent.” (Tlaib did interrupt one of his 2016 campaign speeches, in Detroit, to protest him. When she tried to free herself from the grip of a security employee who had put his hands on her while escorting her out, she twisted her body, jumped and pushed him.)
+ Tlaib spokesperson Adrienne Salazar told CNN last week that Tlaib made the push to “gain footing, as she was walking backward while the agent was walking forward in front of her.”</t>
+        </is>
+      </c>
+      <c r="L357">
+        <v>2019</v>
+      </c>
+      <c r="M357">
+        <v>8</v>
+      </c>
+      <c r="N357">
+        <v>20</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P357">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>TLAIB CONDUCT</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>THE SQUAD; DEMOCRATS; ISRAEL</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>“Sorry, I don't buy Rep. Tlaib's tears. I have watched her violence, craziness and, most importantly, WORDS, for far too long.”</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Facts First: There is no evidence Tlaib, who became teary last week as she recalled how her family was treated during childhood visits to the West Bank, is “violent.” (Tlaib did interrupt one of his 2016 campaign speeches, in Detroit, to protest him. When she tried to free herself from the grip of a security employee who had put his hands on her while escorting her out, she twisted her body, jumped and pushed him.)
+ Tlaib spokesperson Adrienne Salazar told CNN last week that Tlaib made the push to “gain footing, as she was walking backward while the agent was walking forward in front of her.”</t>
+        </is>
+      </c>
+      <c r="L358">
+        <v>2019</v>
+      </c>
+      <c r="M358">
+        <v>8</v>
+      </c>
+      <c r="N358">
+        <v>20</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P358">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Speech to the AMVETS national convention</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT FOR VETERANS</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT; ECONOMY; VETERANS</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>“Veterans unemployment has reached the lowest level ever recorded. You ever hear that? That’s big.”</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Facts First: The seasonally unadjusted unemployment rate for veterans was 3.4% in July, higher than the 2.3% low in 2000. Trump’s boast would have been correct in April, when the rate fell to 2.3% again, but isn’t anymore.
+The government recently began releasing seasonally adjusted unemployment data for veterans, but it does not date back further than 2003. (By the adjusted measure, the July rate was also 3.4%; the low for the 2003-to-present period was 2.4% in April of this year.)</t>
+        </is>
+      </c>
+      <c r="L359">
+        <v>2019</v>
+      </c>
+      <c r="M359">
+        <v>8</v>
+      </c>
+      <c r="N359">
+        <v>21</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P359">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Speech to the AMVETS national convention</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>ASIAN AMERICAN UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>ECONOMY; UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>“Veterans unemployment has reached the lowest level ever recorded. You ever hear that? That’s big. Same thing with African American unemployment. Same thing with Asian unemployment.”</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Facts First: Trump was accurate about the black unemployment rate, but not the rate for Asians.
+Black Americans are at their lowest unemployment rate since the government began tracking employment statistics for them using its current methodology (in the 1970s); However, the rate for Asians was 2.8% in July -- higher than the 2.6% rate in December 2016, Obama's last full month in office.</t>
+        </is>
+      </c>
+      <c r="L360">
+        <v>2019</v>
+      </c>
+      <c r="M360">
+        <v>8</v>
+      </c>
+      <c r="N360">
+        <v>21</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P360">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>43701</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>THE 'CHOSEN ONE'</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>“When I looked up to the sky and jokingly said ‘I am the chosen one,’ at a news conference two days ago, referring to taking on Trade with China, little did I realize that the media would claim that I had a ‘Messiah complex.’ They knew I was kidding, being sarcastic, and just having fun. I was smiling as I looked up and around. The MANY reporters with me were smiling also. They knew the TRUTH...And yet when I saw the reporting, CNN, MSNBC and other Fake News outlets covered it as serious news &amp; me thinking of myself as the Messiah. No more trust!”</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Facts First: Trump was not smiling when he made this remark, the video shows.
+While Trump’s meaning is open to interpretation, there was no obvious physical sign that he was trying to speak humorously; he was in the middle of an impassioned defense of his trade policy. Here’s the full quote: “Over the last five or six years, China has made $500 billion. $500 billion. Ripped it out of the United States. And not only that — if you take a look, intellectual property theft. Add that to it. And add a lot of other things to it. So somebody [crosstalk] -- excuse me. Somebody had to do it. I am the chosen one. Somebody had to do it. So I’m taking on China. I’m taking on China on trade. And you know what? We’re winning.”</t>
+        </is>
+      </c>
+      <c r="L361">
+        <v>2019</v>
+      </c>
+      <c r="M361">
+        <v>8</v>
+      </c>
+      <c r="N361">
+        <v>24</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="P361">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>THE 'CHOSEN ONE'</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>“Let me tell you, you know exactly what I meant. It was sarcasm. It was joking. We were all smiling. And a question like that is just fake news. You’re just a faker.”</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Facts First: Trump was not smiling when he made this remark, the video shows.
+While Trump’s meaning is open to interpretation, there was no obvious physical sign that he was trying to speak humorously; he was in the middle of an impassioned defense of his trade policy. Here’s the full quote: “Over the last five or six years, China has made $500 billion. $500 billion. Ripped it out of the United States. And not only that — if you take a look, intellectual property theft. Add that to it. And add a lot of other things to it. So somebody [crosstalk] -- excuse me. Somebody had to do it. I am the chosen one. Somebody had to do it. So I’m taking on China. I’m taking on China on trade. And you know what? We’re winning.”</t>
+        </is>
+      </c>
+      <c r="L362">
+        <v>2019</v>
+      </c>
+      <c r="M362">
+        <v>8</v>
+      </c>
+      <c r="N362">
+        <v>23</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P362">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>RUSSIAS G8 EXIT</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>RUSSIA; BARACK OBAMA</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>“So it was the G8 for a long time, and now it’s the G7.  And a lot of the time, we talk about — we talk about Russia. We’re talking about Russia because I’ve gone to numerous G7 meetings.  And I guess President Obama, because Putin outsmarted him — President Obama thought it wasn’t a good thing to have Russia in, so he wanted Russia out…But, as you know, for most of the time, it was the G8.  It included Russia.  And President Obama didn’t want Russia in because he got outsmarted. Well, that’s not the way it really should work.”</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Facts First: The G8 suspended Russia in 2014 for annexing Crimea from Ukraine. The ouster was endorsed by not only Obama but the leaders of Canada, Japan, the United Kingdom, France, Germany and Italy.
+Trump is free to express an opinion that the real reason for the ouster was Obama being personally wounded by the seizure of Crimea. But we think he makes the claim false when he omits Crimea entirely from his account.</t>
+        </is>
+      </c>
+      <c r="L363">
+        <v>2019</v>
+      </c>
+      <c r="M363">
+        <v>8</v>
+      </c>
+      <c r="N363">
+        <v>20</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P363">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>LOG CABIN REPUBLICANS</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>ACCOMPLISHMENTS</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Asked about his administration taking steps to make it easier to discriminate against LGBT people in the workplace, Trump said, “Well, you know, I just got an award and an endorsement yesterday from a — the exact group, a group.  They gave — you saw that.  They gave me the endorsement yesterday.  And I was very honored to — is it Log Cabin?  The Log Cabin group.”</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Facts First: Trump did receive the endorsement of the Log Cabin Republicans, a gay conservative group, but “no award,” Log Cabin Republicans national spokesman Charles Moran told CNN.
+The endorsement was announced in a Washington Post essay published five days before Trump’s comments, not “yesterday.” (Trump might just have briefly confused the endorsement for an “award,” but he has invented accolades before.)</t>
+        </is>
+      </c>
+      <c r="L364">
+        <v>2019</v>
+      </c>
+      <c r="M364">
+        <v>8</v>
+      </c>
+      <c r="N364">
+        <v>20</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P364">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>US IN AFGHANISTAN</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>MILITARY; AFGHANISTAN</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>“But we’ve been a peacekeeper there, in a way, for 19 years. And at a certain point, you have to say, ‘That’s long enough.’”</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Facts First: This was a small exaggeration. The US invaded Afghanistan in October 2001, less than 18 years ago. This was not a one-time slip though; Trump habitually says "19 years."</t>
+        </is>
+      </c>
+      <c r="L365">
+        <v>2019</v>
+      </c>
+      <c r="M365">
+        <v>8</v>
+      </c>
+      <c r="N365">
+        <v>20</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P365">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>US INFLATION</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>“Strong Dollar, No Inflation!”</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Facts First: There is inflation: 1.8% for the 12 months ending in July, up from 1.6% for the 12-month period ending in June. Core inflation, which excludes food and energy costs, was up 2.2% for the 12 months ending in July, the highest level since January.
+Trump could fairly say that inflation is low, but “no inflation” is incorrect.</t>
+        </is>
+      </c>
+      <c r="L366">
+        <v>2019</v>
+      </c>
+      <c r="M366">
+        <v>8</v>
+      </c>
+      <c r="N366">
+        <v>22</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="P366">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>43698</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>US INFLATION</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>“No Inflation!”</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Facts First: There is inflation: 1.8% for the 12 months ending in July, up from 1.6% for the 12-month period ending in June. Core inflation, which excludes food and energy costs, was up 2.2% for the 12 months ending in July, the highest level since January.
+Trump could fairly say that inflation is low, but “no inflation” is incorrect.</t>
+        </is>
+      </c>
+      <c r="L367">
+        <v>2019</v>
+      </c>
+      <c r="M367">
+        <v>8</v>
+      </c>
+      <c r="N367">
+        <v>21</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P367">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>43698</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>US INFLATION</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>“No inflation. Wake up Federal Reserve.”</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Facts First: There is inflation: 1.8% for the 12 months ending in July, up from 1.6% for the 12-month period ending in June. Core inflation, which excludes food and energy costs, was up 2.2% for the 12 months ending in July, the highest level since January.
+Trump could fairly say that inflation is low, but “no inflation” is incorrect.</t>
+        </is>
+      </c>
+      <c r="L368">
+        <v>2019</v>
+      </c>
+      <c r="M368">
+        <v>8</v>
+      </c>
+      <c r="N368">
+        <v>21</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P368">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>REPUBLICAN APPROVAL</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>POLLS; POPULARITY; REPUBLICANS</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>“94% Approval Rating within the Republican Party. Thank you!”</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>He twice said he has a 94% approval rating among Republicans and the "highest of any Republican" in "history." (His approval with Republicans is very high, regularly in the 80s and sometimes creeping into the 90s, but it has not been 94% in any recent poll. Trump's Republican approval peak in Gallup polling ranks sixth out of seven post-World War II Republican presidents.)</t>
+        </is>
+      </c>
+      <c r="L369">
+        <v>2019</v>
+      </c>
+      <c r="M369">
+        <v>8</v>
+      </c>
+      <c r="N369">
+        <v>23</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P369">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>August 21 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>SHERROD BROWN, NAN WHALEY AND THE HOSPITAL VISIT</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Trump said, of his visits to hospitals in Dayton and El Paso after mass shootings in both cities, “Not only did they meet with me, they were pouring out of the room. The doctors were coming out of the operating rooms.”</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Doctors did not leave any active operating rooms, spokespeople for both the El Paso and Dayton hospitals said. The Dayton spokesperson said doctors did not even leave any patient rooms._x000D_
+"At no time did (or would) physicians or staff leave active operating rooms during the presidential visit. Our priority is always patient care," said Ryan Mielke, director of public affairs for the University Medical Center of El Paso._x000D_
+"Our physicians and staff at no time leave an active operating room, procedural area, or patient room to greet anyone," said Ben Sutherly, director of system communications for the Premier Health network, of which Miami Valley Hospital in Dayton is a part._x000D_
+You can read our full fact check of this claim here._x000D_
+</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>&lt;a href='https://www.cnn.com/2019/08/23/politics/fact-check-trump-wrong-doctors-el-paso-dayton/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/23/politics/fact-check-trump-wrong-doctors-el-paso-dayton/index.html&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="L370">
+        <v>2019</v>
+      </c>
+      <c r="M370">
+        <v>8</v>
+      </c>
+      <c r="N370">
+        <v>21</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P370">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>27 YEARS</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>CHINA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>“China has had the worst year they’ve had in 27 years. And a lot of people are saying the worst year they’ve had in 54 years. OK?”</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Facts First: China's official second-quarter GDP growth rate, 6.2%, was the worst since 1992, 27 years ago. There is no basis for the "52 or 54 years" claim.
+Trump has correctly cited this "27 years" statistic in the past without questioning it. This week, though, he has begun doubling it. He said Tuesday that "China has had the worst year they've had in 27 years" -- then added, "And a lot of people are saying the worst year they've had in 54 years."
+Experts say China's official statistics are unreliable, but there is no specific evidence for the "half a century" claim. Derek Scissors, an expert on US economic relations with Asia at the conservative American Enterprise Institute think tank, notes that going past 27 years ago skips over the 1989-to-1992 period in which China's growth slowed significantly after its 1989 crackdown on protests in Tiananmen Square.</t>
+        </is>
+      </c>
+      <c r="L371">
+        <v>2019</v>
+      </c>
+      <c r="M371">
+        <v>8</v>
+      </c>
+      <c r="N371">
+        <v>20</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P371">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>27 YEARS</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>CHINA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>“At the same time, China has had the worst — the worst year probably in anywhere from 30 to 50 years. Their worst year.”</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Facts First: China's official second-quarter GDP growth rate, 6.2%, was the worst since 1992, 27 years ago. There is no basis for the "52 or 54 years" claim.
+Trump has correctly cited this "27 years" statistic in the past without questioning it. This week, though, he has begun doubling it. He said Tuesday that "China has had the worst year they've had in 27 years" -- then added, "And a lot of people are saying the worst year they've had in 54 years."
+Experts say China's official statistics are unreliable, but there is no specific evidence for the "half a century" claim. Derek Scissors, an expert on US economic relations with Asia at the conservative American Enterprise Institute think tank, notes that going past 27 years ago skips over the 1989-to-1992 period in which China's growth slowed significantly after its 1989 crackdown on protests in Tiananmen Square.</t>
+        </is>
+      </c>
+      <c r="L372">
+        <v>2019</v>
+      </c>
+      <c r="M372">
+        <v>8</v>
+      </c>
+      <c r="N372">
+        <v>23</v>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P372">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>CHINA TRADE DEFICIT</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>TRADE; CHINA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>“Long term, it’s imperative that somebody does this because our country cannot continue to pay China $500 billion a year because stupid people are running it…We have to solve the problem with China because they’re taking out $500 billion a year-plus. And that doesn’t include intellectual property theft and other things.”</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
+        </is>
+      </c>
+      <c r="L373">
+        <v>2019</v>
+      </c>
+      <c r="M373">
+        <v>8</v>
+      </c>
+      <c r="N373">
+        <v>20</v>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P373">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>43702</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Remarks with UK Prime Minister Boris Johnson</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>BIARRITZ, FRANCE</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>CHINA TRADE DEFICIT</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>TRADE; CHINA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>“I think when they steal and take out, and — intellectual property theft, anywhere from $300 billion to $500 billion a year, and where we have a total loss of almost a trillion dollars a year — for many years, this has been going on — in many ways, that’s an emergency.”</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
+        </is>
+      </c>
+      <c r="L374">
+        <v>2019</v>
+      </c>
+      <c r="M374">
+        <v>8</v>
+      </c>
+      <c r="N374">
+        <v>25</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="P374">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>CHINA TRADE DEFICIT</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>TRADE; CHINA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>“They’ve been hitting us for many, many years — for over $500 billion a year — taking out of our country much more than $500 billion a year.”</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
+        </is>
+      </c>
+      <c r="L375">
+        <v>2019</v>
+      </c>
+      <c r="M375">
+        <v>8</v>
+      </c>
+      <c r="N375">
+        <v>23</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P375">
         <v>34</v>
       </c>
     </row>

--- a/saved_versions/fcheck_temp.xlsx
+++ b/saved_versions/fcheck_temp.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P375"/>
+  <dimension ref="A1:P380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17162,6 +17162,11 @@
       <c r="A278" s="2">
         <v>43690</v>
       </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C278" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -17214,6 +17219,11 @@
       <c r="A279" s="2">
         <v>43691</v>
       </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C279" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -17265,6 +17275,11 @@
     <row r="280">
       <c r="A280" s="2">
         <v>43691</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -19550,6 +19565,11 @@
       <c r="A317" s="2">
         <v>43692</v>
       </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C317" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -19600,6 +19620,11 @@
     <row r="318">
       <c r="A318" s="2">
         <v>43693</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -20138,6 +20163,11 @@
       <c r="A328" s="2">
         <v>43695</v>
       </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C328" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -20190,6 +20220,11 @@
       <c r="A329" s="2">
         <v>43695</v>
       </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C329" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -20302,6 +20337,11 @@
       <c r="A331" s="2">
         <v>43696</v>
       </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C331" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -20349,6 +20389,11 @@
     <row r="332">
       <c r="A332" s="2">
         <v>43696</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -21362,7 +21407,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>VENEZUELA</t>
+          <t>VENEZUELA; ECONOMY</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -21472,7 +21517,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>AUTO</t>
+          <t>ECONOMY</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -21524,7 +21569,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>DRUGS</t>
+          <t>OPIOID EPIDEMIC</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -21712,7 +21757,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>OPIOID EPIDEMIC; DRUGS</t>
+          <t>OPIOID EPIDEMIC</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -21980,6 +22025,11 @@
       <c r="A361" s="2">
         <v>43701</v>
       </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C361" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -21988,6 +22038,11 @@
       <c r="F361" t="inlineStr">
         <is>
           <t>THE 'CHOSEN ONE'</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>POPULARITY</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -22038,6 +22093,11 @@
           <t>THE 'CHOSEN ONE'</t>
         </is>
       </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>POPULARITY</t>
+        </is>
+      </c>
       <c r="H362" t="inlineStr">
         <is>
           <t>“Let me tell you, you know exactly what I meant. It was sarcasm. It was joking. We were all smiling. And a question like that is just fake news. You’re just a faker.”</t>
@@ -22229,6 +22289,11 @@
       <c r="A366" s="2">
         <v>43699</v>
       </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C366" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -22277,6 +22342,11 @@
       <c r="A367" s="2">
         <v>43698</v>
       </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C367" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -22325,6 +22395,11 @@
       <c r="A368" s="2">
         <v>43698</v>
       </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C368" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -22373,6 +22448,11 @@
       <c r="A369" s="2">
         <v>43700</v>
       </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="C369" t="inlineStr">
         <is>
           <t>TWEET</t>
@@ -22380,7 +22460,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>REPUBLICAN APPROVAL</t>
+          <t>APPROVAL AMONG REPUBLICANS</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -22433,6 +22513,11 @@
       <c r="F370" t="inlineStr">
         <is>
           <t>SHERROD BROWN, NAN WHALEY AND THE HOSPITAL VISIT</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -22547,7 +22632,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>CHINA; ECONOMY</t>
+          <t>CHINA; ECONOMY; TRADE; TARIFFS</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -22738,6 +22823,293 @@
         </is>
       </c>
       <c r="P375">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>43699</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>DAN MCCREADY</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>“Looking forward to soon being in North Carolina to hold a big rally for wonderful Dan Bishop, who is running for Congress. His opponent wants Open Borders, Sanctuary Cities, and Socialism. He likes the ‘Squad’ more than North Carolina.”</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Trump was referring to Bishop’s Democratic opponent, Dan McCready, who does not support “open borders.”_x000D_
+McCready’s website says he wants comprehensive immigration reform "that secures our border, respects our laws and protects our American values." He calls for the government to "reinforce physical barriers with the technology Dan used in the Marines, like infrared cameras and drones."_x000D_
+We can’t definitively fact check Trump’s claims about how much McCready likes his state or other politicians, but it’s worth noting that McCready returned a $2,000 donation from one member of “The Squad,” Rep. Ilhan Omar, after she was criticized for remarks both Republicans and many Democrats said were anti-Semitic._x000D_
+We tend to ignore Trump’s claims that various Democrats support “socialism,” since definitions of the term vary, but we'll point out that McCready advocates tax cuts for the middle class and opposes two of the policies Republicans have derided as “socialist,” Medicare for All health plans and the Green New Deal environmental proposal._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L376">
+        <v>2019</v>
+      </c>
+      <c r="M376">
+        <v>8</v>
+      </c>
+      <c r="N376">
+        <v>22</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="P376">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>43702</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Remarks with Canadian Prime Minister Justin Trudeau</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>BIARRITZ, FRANCE</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>USMCA AND UNIONS</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>“So, we’re going to be significantly expanding our trading relationship when the USMCA gets done and completed. Our farmers love it. The unions love it. The workers love it.”</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: On the whole, American unions do not “love” Trump’s North American trade agreement, a revised version of NAFTA. The AFL-CIO, a large labor federation made up of 55 unions, says changes must be made to the agreement before the federation could possibly be supportive._x000D_
+Asked by Politico in June about a previous version of Trump’s claim that unions love the agreement, AFL-CIO president Richard Trumka said, "Maybe he’s talking about the unions in some other country?” Trumka said he didn’t have a “clue” where Trump had gotten that impression._x000D_
+“Our position hasn't changed,” AFL-CIO spokesperson John Weber told CNN on Monday. “The only way this agreement will earn the support of the labor movement — and the only way it will have any chance of passing — is if it's enforceable. That won't happen without changes to the text of the agreement.”_x000D_
+As The New York Times has reported, the United Automobile Workers and United Steelworkers, among other unions, have also demanded changes to the agreement. _x000D_
+</t>
+        </is>
+      </c>
+      <c r="L377">
+        <v>2019</v>
+      </c>
+      <c r="M377">
+        <v>8</v>
+      </c>
+      <c r="N377">
+        <v>25</v>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="P377">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Speech to the AMVETS national convention</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>VA FIRING</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>VETERANS</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>“…I proudly signed into law the groundbreaking VA Accountability Act…Now somebody mistreats you or mistreats people in the VA and we know what happens, right? It’s called, ‘You’re fired…You’re fired. Get out of here. Get out of here.’ You couldn’t fire anyone for virtually any reason. They could do anything. So we have the Accountability Act.”</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: While Trump might have been exaggerating here for effect, it's not true that "you couldn't fire anybody for virtually any reason" prior to the Veterans Affairs Accountability and Whistleblower Protection Act he signed into law in 2017. The VA fired an average of approximately 2,300 employees annually from 2005 to 2016, based on data collected by the Office of Personnel Management._x000D_
+However, the Clarion-Ledger newspaper in Mississippi did find several instances where VA employees who were registered sex offenders or had been indicted for killing patients, for example, retained their jobs. The legislation Trump signed simplified and expedited the process of terminating VA employees._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L378">
+        <v>2019</v>
+      </c>
+      <c r="M378">
+        <v>8</v>
+      </c>
+      <c r="N378">
+        <v>21</v>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P378">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>August 21 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>EU TRADE DEFICIT</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>“We're the one that all these countries -- including the European Union -- wants to rob and takes advantage of. European Union -- $200 billion.”</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Facts First: The trade deficit with the European Union was $114 billion in 2018, $101 billion in 2017, $93 billion in 2016.</t>
+        </is>
+      </c>
+      <c r="L379">
+        <v>2019</v>
+      </c>
+      <c r="M379">
+        <v>8</v>
+      </c>
+      <c r="N379">
+        <v>21</v>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P379">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>AFGHANISTAN AND THE SOVIET UNION</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>AFGHANISTAN; RUSSIA</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>“And, remember, it’s a tough place. The Soviet Union became Russia because of Afghanistan. That’s what happened. Very simple. They became Russia because of Afghanistan.”</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: It’s not so simple. The Soviet Union’s invasion of Afghanistan was perhaps one contributing factor in its collapse, but it was certainly far from the only reason, experts say. (And, of course, the Soviet Union dissolved into 15 separate countries; it did not simply turn into “Russia” with the same borders.)_x000D_
+The Washington Post delved at length into a previous version of this Trump claim; it quoted two Russia historians who said Trump’s history was overly simplistic. "I think most scholars would agree that Afghanistan was a contributing factor in the Soviet collapse, but I don’t think anyone would go so far as to pin sole blame for the collapse on Afghanistan or to say that the Soviets went ‘bankrupt fighting in Afghanistan,” Sarah Cameron, a University of Maryland professor, told the Post. “The moral, social and political costs of the war were substantial and contributed to the crisis of the Soviet Union, but it wasn’t a decisive financial burden,” Eric Lohr, chair of the history department at American University, told the Post._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L380">
+        <v>2019</v>
+      </c>
+      <c r="M380">
+        <v>8</v>
+      </c>
+      <c r="N380">
+        <v>20</v>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P380">
         <v>34</v>
       </c>
     </row>

--- a/saved_versions/fcheck_temp.xlsx
+++ b/saved_versions/fcheck_temp.xlsx
@@ -20441,695 +20441,1918 @@
     </row>
     <row r="333">
       <c r="A333" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>VENEZUELA'S WEALTH</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>VENEZUELA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>“We’re helping Venezuela as much as we can. We’re staying out of it, but we are helping it, and it needs a lot of help. It’s an incredible tribute to something bad happening, and the something bad is socialism. And it’s amazing because, 15 years ago, it was one of the wealthiest countries. Now it’s one of the poorest countries.”</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Venezuela was not one of the world's richest countries 15 years ago._x000D_
+ _x000D_
+The International Monetary Fund's World Economic Outlook ranked Venezuela 67th in the world in 2004 by GDP per capita, at $4,019 (US) -- better than more than half of the world's countries, but nowhere near the top._x000D_
+"Venezuela was one of the richest countries in the world 60 years ago. The richest in Latin America 40 years ago. But not 20 years ago," Ricardo Hausmann, a former Venezuelan planning minister and central bank board member, said in response to a previous version of this Trump claim. Hausmann, now a Harvard University professor of economic development, was chief economist of the Inter-American Development Bank from 1994 to 2000._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L333">
+        <v>2019</v>
+      </c>
+      <c r="M333">
+        <v>8</v>
+      </c>
+      <c r="N333">
+        <v>20</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P333">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>LOWEST UNEMPLOYMENT EVER</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>ECONOMY; UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>“You’re talking about unemployment numbers that are the lowest in history, in many categories, and, overall, almost the lowest ever, in the history of our country. I think it was 1969. And we are set to surpass that number. I mean, our country is doing very well.”</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: It is true that the unemployment rate is the lowest it has been since 1969 (other than months earlier this year), but it is not true that the 1969 rates were an all-time low. The low was 2.5%, in 1953._x000D_
+The unemployment rate in July was 3.7%, the same as the rate in June and up slightly from the 3.6% rate in May and April. It is possible that it will fall below the 1969 low of 3.4%. But there is no apparent sign that it will surpass the 2.5% low; it has not gone below 3.6% at any time during Trump’s presidency and has not gone below 3% since 1953._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L334">
+        <v>2019</v>
+      </c>
+      <c r="M334">
+        <v>8</v>
+      </c>
+      <c r="N334">
+        <v>20</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P334">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>TLAIB CONDUCT</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>THE SQUAD; DEMOCRATS; ISRAEL</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>“And then, yesterday, I noticed for the first time, Tlaib with the tears. All of a sudden, she starts with tears. Tears. And I don’t buy it. I don’t buy it. I don’t buy it for a second because I’ve seen her in a very vicious mood at campaign rallies — my campaign rallies — before she was a congresswoman. I said, ‘Who is that?’ And I saw a woman that was violent and vicious and out of control. And all of a sudden, I see this person who’s crying because she can’t see her grandmother”</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Facts First: There is no evidence Tlaib, who became teary last week as she recalled how her family was treated during childhood visits to the West Bank, is “violent.” (Tlaib did interrupt one of his 2016 campaign speeches, in Detroit, to protest him. When she tried to free herself from the grip of a security employee who had put his hands on her while escorting her out, she twisted her body, jumped and pushed him.)
+ Tlaib spokesperson Adrienne Salazar told CNN last week that Tlaib made the push to “gain footing, as she was walking backward while the agent was walking forward in front of her.”</t>
+        </is>
+      </c>
+      <c r="L335">
+        <v>2019</v>
+      </c>
+      <c r="M335">
+        <v>8</v>
+      </c>
+      <c r="N335">
+        <v>20</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P335">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>TLAIB CONDUCT</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>THE SQUAD; DEMOCRATS; ISRAEL</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>“Sorry, I don't buy Rep. Tlaib's tears. I have watched her violence, craziness and, most importantly, WORDS, for far too long.”</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Facts First: There is no evidence Tlaib, who became teary last week as she recalled how her family was treated during childhood visits to the West Bank, is “violent.” (Tlaib did interrupt one of his 2016 campaign speeches, in Detroit, to protest him. When she tried to free herself from the grip of a security employee who had put his hands on her while escorting her out, she twisted her body, jumped and pushed him.)
+ Tlaib spokesperson Adrienne Salazar told CNN last week that Tlaib made the push to “gain footing, as she was walking backward while the agent was walking forward in front of her.”</t>
+        </is>
+      </c>
+      <c r="L336">
+        <v>2019</v>
+      </c>
+      <c r="M336">
+        <v>8</v>
+      </c>
+      <c r="N336">
+        <v>20</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P336">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>RUSSIAS G8 EXIT</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>RUSSIA; BARACK OBAMA</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>“So it was the G8 for a long time, and now it’s the G7.  And a lot of the time, we talk about — we talk about Russia. We’re talking about Russia because I’ve gone to numerous G7 meetings.  And I guess President Obama, because Putin outsmarted him — President Obama thought it wasn’t a good thing to have Russia in, so he wanted Russia out…But, as you know, for most of the time, it was the G8.  It included Russia.  And President Obama didn’t want Russia in because he got outsmarted. Well, that’s not the way it really should work.”</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Facts First: The G8 suspended Russia in 2014 for annexing Crimea from Ukraine. The ouster was endorsed by not only Obama but the leaders of Canada, Japan, the United Kingdom, France, Germany and Italy.
+Trump is free to express an opinion that the real reason for the ouster was Obama being personally wounded by the seizure of Crimea. But we think he makes the claim false when he omits Crimea entirely from his account.</t>
+        </is>
+      </c>
+      <c r="L337">
+        <v>2019</v>
+      </c>
+      <c r="M337">
+        <v>8</v>
+      </c>
+      <c r="N337">
+        <v>20</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P337">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS DURING MEETING WITH ROMANIAN PRESIDENT KLAUS IOHANNIS</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>LOG CABIN REPUBLICANS</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>ACCOMPLISHMENTS</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Asked about his administration taking steps to make it easier to discriminate against LGBT people in the workplace, Trump said, “Well, you know, I just got an award and an endorsement yesterday from a — the exact group, a group.  They gave — you saw that.  They gave me the endorsement yesterday.  And I was very honored to — is it Log Cabin?  The Log Cabin group.”</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Facts First: Trump did receive the endorsement of the Log Cabin Republicans, a gay conservative group, but “no award,” Log Cabin Republicans national spokesman Charles Moran told CNN.
+The endorsement was announced in a Washington Post essay published five days before Trump’s comments, not “yesterday.” (Trump might just have briefly confused the endorsement for an “award,” but he has invented accolades before.)</t>
+        </is>
+      </c>
+      <c r="L338">
+        <v>2019</v>
+      </c>
+      <c r="M338">
+        <v>8</v>
+      </c>
+      <c r="N338">
+        <v>20</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P338">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>US IN AFGHANISTAN</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>MILITARY; AFGHANISTAN</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>“But we’ve been a peacekeeper there, in a way, for 19 years. And at a certain point, you have to say, ‘That’s long enough.’”</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Facts First: This was a small exaggeration. The US invaded Afghanistan in October 2001, less than 18 years ago. This was not a one-time slip though; Trump habitually says "19 years."</t>
+        </is>
+      </c>
+      <c r="L339">
+        <v>2019</v>
+      </c>
+      <c r="M339">
+        <v>8</v>
+      </c>
+      <c r="N339">
+        <v>20</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P339">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>27 YEARS</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>CHINA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>“China has had the worst year they’ve had in 27 years. And a lot of people are saying the worst year they’ve had in 54 years. OK?”</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Facts First: China's official second-quarter GDP growth rate, 6.2%, was the worst since 1992, 27 years ago. There is no basis for the "52 or 54 years" claim.
+Trump has correctly cited this "27 years" statistic in the past without questioning it. This week, though, he has begun doubling it. He said Tuesday that "China has had the worst year they've had in 27 years" -- then added, "And a lot of people are saying the worst year they've had in 54 years."
+Experts say China's official statistics are unreliable, but there is no specific evidence for the "half a century" claim. Derek Scissors, an expert on US economic relations with Asia at the conservative American Enterprise Institute think tank, notes that going past 27 years ago skips over the 1989-to-1992 period in which China's growth slowed significantly after its 1989 crackdown on protests in Tiananmen Square.</t>
+        </is>
+      </c>
+      <c r="L340">
+        <v>2019</v>
+      </c>
+      <c r="M340">
+        <v>8</v>
+      </c>
+      <c r="N340">
+        <v>20</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P340">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>CHINA TRADE DEFICIT</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>TRADE; CHINA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>“Long term, it’s imperative that somebody does this because our country cannot continue to pay China $500 billion a year because stupid people are running it…We have to solve the problem with China because they’re taking out $500 billion a year-plus. And that doesn’t include intellectual property theft and other things.”</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
+        </is>
+      </c>
+      <c r="L341">
+        <v>2019</v>
+      </c>
+      <c r="M341">
+        <v>8</v>
+      </c>
+      <c r="N341">
+        <v>20</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P341">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>AFGHANISTAN AND THE SOVIET UNION</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>AFGHANISTAN; RUSSIA</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>“And, remember, it’s a tough place. The Soviet Union became Russia because of Afghanistan. That’s what happened. Very simple. They became Russia because of Afghanistan.”</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: It’s not so simple. The Soviet Union’s invasion of Afghanistan was perhaps one contributing factor in its collapse, but it was certainly far from the only reason, experts say. (And, of course, the Soviet Union dissolved into 15 separate countries; it did not simply turn into “Russia” with the same borders.)_x000D_
+The Washington Post delved at length into a previous version of this Trump claim; it quoted two Russia historians who said Trump’s history was overly simplistic. "I think most scholars would agree that Afghanistan was a contributing factor in the Soviet collapse, but I don’t think anyone would go so far as to pin sole blame for the collapse on Afghanistan or to say that the Soviets went ‘bankrupt fighting in Afghanistan,” Sarah Cameron, a University of Maryland professor, told the Post. “The moral, social and political costs of the war were substantial and contributed to the crisis of the Soviet Union, but it wasn’t a decisive financial burden,” Eric Lohr, chair of the history department at American University, told the Post._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L342">
+        <v>2019</v>
+      </c>
+      <c r="M342">
+        <v>8</v>
+      </c>
+      <c r="N342">
+        <v>20</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="P342">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
         <v>43698</v>
       </c>
-      <c r="B333" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
+      <c r="F343" t="inlineStr">
         <is>
           <t>OBAMA AND THE PHILIPPINES</t>
         </is>
       </c>
-      <c r="G333" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>BARACK OBAMA</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
+      <c r="H343" t="inlineStr">
         <is>
           <t>Trump said that he will not allow foreign countries to disrespect him or the US. He said that things were different under Obama, who was treated "so badly," and he cited an example: "President Obama: when they wouldn't let him land in the Philippines."</t>
         </is>
       </c>
-      <c r="I333" t="inlineStr">
+      <c r="I343" t="inlineStr">
         <is>
           <t>Facts First: Obama was never prevented from landing in the Philippines. Rather, Obama called off a planned meeting with President Rodrigo Duterte in 2016 after Duterte delivered a profane and insulting rant about him._x000D__x000D_
 Trump could have accurately said that Obama was treated disrespectfully by Duterte, but there is no basis for the suggestion that Duterte stranded Obama in the sky.</t>
         </is>
       </c>
-      <c r="L333">
-        <v>2019</v>
-      </c>
-      <c r="M333">
+      <c r="L343">
+        <v>2019</v>
+      </c>
+      <c r="M343">
         <v>8</v>
       </c>
-      <c r="N333">
+      <c r="N343">
         <v>21</v>
       </c>
-      <c r="O333" t="inlineStr">
+      <c r="O343" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P333">
+      <c r="P343">
         <v>34</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2">
+    <row r="344">
+      <c r="A344" s="2">
         <v>43698</v>
       </c>
-      <c r="B334" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F334" t="inlineStr">
+      <c r="F344" t="inlineStr">
         <is>
           <t>PAYMENTS TO GREENLAND</t>
         </is>
       </c>
-      <c r="G334" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>GREENLAND</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
+      <c r="H344" t="inlineStr">
         <is>
           <t>"I think it is a good idea, because Denmark is losing $700 million a year with it. It doesn't do them any good."</t>
         </is>
       </c>
-      <c r="I334" t="inlineStr">
+      <c r="I344" t="inlineStr">
         <is>
           <t>Facts First: Denmark's annual subsidy to Greenland, an autonomous territory of Denmark, is for less than $600 million._x000D__x000D_
 According to a representative from Greenland's Ministry of Finance, Head of Division Anders Fonnesbech-Wulff, the grant for 2019 is expected to amount to 3.86 billion Danish kroner (DKK), which is approximately $573 million. The amount has increased slightly over the years, from $547 million (3.68 billion DKK) in 2016 to $553 million (3.72 billion DKK) in 2017 to $568 million (3.82 billion DKK) in 2018. All US dollar amounts are based on the Tuesday exchange rate.</t>
         </is>
       </c>
-      <c r="L334">
-        <v>2019</v>
-      </c>
-      <c r="M334">
+      <c r="L344">
+        <v>2019</v>
+      </c>
+      <c r="M344">
         <v>8</v>
       </c>
-      <c r="N334">
+      <c r="N344">
         <v>21</v>
       </c>
-      <c r="O334" t="inlineStr">
+      <c r="O344" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P334">
+      <c r="P344">
         <v>34</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2">
+    <row r="345">
+      <c r="A345" s="2">
         <v>43698</v>
       </c>
-      <c r="B335" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F335" t="inlineStr">
+      <c r="F345" t="inlineStr">
         <is>
           <t>GREENLAND AND TRUMAN</t>
         </is>
       </c>
-      <c r="G335" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>GREENLAND</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
+      <c r="H345" t="inlineStr">
         <is>
           <t>"President Truman said, 'What about Greenland?' And he talked about it very openly and it was a big deal at the time."</t>
         </is>
       </c>
-      <c r="I335" t="inlineStr">
+      <c r="I345" t="inlineStr">
         <is>
           <t>Facts First: Truman was not open about his desire to purchase Greenland. As the Washington Post reported, Truman's 1946 offer to Denmark, $100 million in gold, "didn't become public knowledge until 1991, when a Copenhagen newspaper came across declassified documents in the National Archives."</t>
         </is>
       </c>
-      <c r="L335">
-        <v>2019</v>
-      </c>
-      <c r="M335">
+      <c r="L345">
+        <v>2019</v>
+      </c>
+      <c r="M345">
         <v>8</v>
       </c>
-      <c r="N335">
+      <c r="N345">
         <v>21</v>
       </c>
-      <c r="O335" t="inlineStr">
+      <c r="O345" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P335">
+      <c r="P345">
         <v>34</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2">
+    <row r="346">
+      <c r="A346" s="2">
         <v>43698</v>
       </c>
-      <c r="B336" t="inlineStr">
+      <c r="B346" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F336" t="inlineStr">
+      <c r="F346" t="inlineStr">
         <is>
           <t>STRONG DOLLAR</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr">
+      <c r="G346" t="inlineStr">
         <is>
           <t>ECONOMY</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
+      <c r="H346" t="inlineStr">
         <is>
           <t>"Yesterday we had the strongest dollar in the history of our country. Yesterday we had the strongest dollar in the history of our country. Now in one way I'm honored by that, but in another way it makes it much harder to export goods, you understand. ... It is much harder to compete. We had literally the strongest dollar in the history of our country,"</t>
         </is>
       </c>
-      <c r="I336" t="inlineStr">
+      <c r="I346" t="inlineStr">
         <is>
           <t>Facts First: The dollar is not the strongest it has ever been against other currencies._x000D__x000D_
 There are various ways to measure the strength of the dollar. The USDX dollar index, which compares the dollar to a group of other countries' currencies, is hovering around its highest level since 2017 -- but the dollar was stronger at various points in 2015, 2016 and 2017, plus several points in the 1980s and early 2000s. The Bloomberg Dollar Spot Index, which compares the dollar against another group of currencies, is around its highest level of the year, but it too was higher in multiple years past._x000D__x000D_
 Trump might perhaps have been confused by the news earlier in the week that Bloomberg's measure had hit a new 2019 peak.</t>
         </is>
       </c>
-      <c r="L336">
-        <v>2019</v>
-      </c>
-      <c r="M336">
+      <c r="L346">
+        <v>2019</v>
+      </c>
+      <c r="M346">
         <v>8</v>
       </c>
-      <c r="N336">
+      <c r="N346">
         <v>21</v>
       </c>
-      <c r="O336" t="inlineStr">
+      <c r="O346" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P336">
+      <c r="P346">
         <v>34</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2">
+    <row r="347">
+      <c r="A347" s="2">
         <v>43698</v>
       </c>
-      <c r="B337" t="inlineStr">
+      <c r="B347" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
+      <c r="C347" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F337" t="inlineStr">
+      <c r="F347" t="inlineStr">
         <is>
           <t>FAMILY SEPARATION</t>
         </is>
       </c>
-      <c r="G337" t="inlineStr">
+      <c r="G347" t="inlineStr">
         <is>
           <t>IMMIGRATION; BARACK OBAMA</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
+      <c r="H347" t="inlineStr">
         <is>
           <t>"I am the one that kept the families together. OK? You remember that, right? Just remember I said it. And now it gets even better. President Obama and others brought the families apart. But I'm the one who kept the families together."</t>
         </is>
       </c>
-      <c r="I337" t="inlineStr">
+      <c r="I347" t="inlineStr">
         <is>
           <t>Facts First: Trump did not inherit an Obama policy of routinely separating migrant children from their parents. Separations were rare under Obama. Trump made them standard._x000D__x000D_
 It is technically true that Trump ended the separation policy: in June 2018, he signed an executive order to detain families together. But he was ending his own policy, not Obama's, and he only signed the order after a furious public outcry._x000D__x000D_
 You can read a fuller fact check of this claim here.</t>
         </is>
       </c>
-      <c r="J337" t="inlineStr">
+      <c r="J347" t="inlineStr">
         <is>
           <t>&lt;a href='https://www.cnn.com/2019/08/21/politics/fact-check-trump-11-false-claims-greenland/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/21/politics/fact-check-trump-11-false-claims-greenland/index.html&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="K337" t="inlineStr">
+      <c r="K347" t="inlineStr">
         <is>
           <t>&lt;a href='https://www.cnn.com/2019/06/21/politics/fact-check-trump-telemundo/index.html' target='_blank'&gt;https://www.cnn.com/2019/06/21/politics/fact-check-trump-telemundo/index.html&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="L337">
-        <v>2019</v>
-      </c>
-      <c r="M337">
+      <c r="L347">
+        <v>2019</v>
+      </c>
+      <c r="M347">
         <v>8</v>
       </c>
-      <c r="N337">
+      <c r="N347">
         <v>21</v>
       </c>
-      <c r="O337" t="inlineStr">
+      <c r="O347" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P337">
+      <c r="P347">
         <v>34</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2">
+    <row r="348">
+      <c r="A348" s="2">
         <v>43698</v>
       </c>
-      <c r="B338" t="inlineStr">
+      <c r="B348" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
+      <c r="C348" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F338" t="inlineStr">
+      <c r="F348" t="inlineStr">
         <is>
           <t>TRADE WAR</t>
         </is>
       </c>
-      <c r="G338" t="inlineStr">
+      <c r="G348" t="inlineStr">
         <is>
           <t>CHINA; TRADE</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
+      <c r="H348" t="inlineStr">
         <is>
           <t>"Somebody said, 'It's Trump's trade war.' This isn't my trade war. This is a trade war that should've taken place a long time ago by a lot of other presidents."</t>
         </is>
       </c>
-      <c r="I338" t="inlineStr">
+      <c r="I348" t="inlineStr">
         <is>
           <t>Facts First: This is nonsense. As is obvious, Trump initiated the trade war with China. He defended his decisions in this very exchange with reporters, saying the conflict needed to happen because China has long taken advantage of the United States._x000D__x000D_
 Trump is free to argue that other presidents should have launched a trade war, but not to deny that he was the one who did.</t>
         </is>
       </c>
-      <c r="L338">
-        <v>2019</v>
-      </c>
-      <c r="M338">
+      <c r="L348">
+        <v>2019</v>
+      </c>
+      <c r="M348">
         <v>8</v>
       </c>
-      <c r="N338">
+      <c r="N348">
         <v>21</v>
       </c>
-      <c r="O338" t="inlineStr">
+      <c r="O348" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P338">
+      <c r="P348">
         <v>34</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2">
+    <row r="349">
+      <c r="A349" s="2">
         <v>43698</v>
       </c>
-      <c r="B339" t="inlineStr">
+      <c r="B349" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="C349" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
+      <c r="F349" t="inlineStr">
         <is>
           <t>27 YEARS</t>
         </is>
       </c>
-      <c r="G339" t="inlineStr">
+      <c r="G349" t="inlineStr">
         <is>
           <t>CHINA; ECONOMY</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
+      <c r="H349" t="inlineStr">
         <is>
           <t>"They had the worst year in 27 years, but I think it was actually 52 or 54 years. It was the worst year they've had in half a century."</t>
         </is>
       </c>
-      <c r="I339" t="inlineStr">
+      <c r="I349" t="inlineStr">
         <is>
           <t>Facts First: China's official second-quarter GDP growth rate, 6.2%, was the worst since 1992, 27 years ago. There is no basis for the "52 or 54 years" claim._x000D__x000D_
 Trump has correctly cited this "27 years" statistic in the past without questioning it. This week, though, he has begun doubling it. He said Tuesday that "China has had the worst year they've had in 27 years" -- then added, "And a lot of people are saying the worst year they've had in 54 years."_x000D__x000D_
 Experts say China's official statistics are unreliable, but there is no specific evidence for the "half a century" claim. Derek Scissors, an expert on US economic relations with Asia at the conservative American Enterprise Institute think tank, notes that going past 27 years ago skips over the 1989-to-1992 period in which China's growth slowed significantly after its 1989 crackdown on protests in Tiananmen Square.</t>
         </is>
       </c>
-      <c r="L339">
-        <v>2019</v>
-      </c>
-      <c r="M339">
+      <c r="L349">
+        <v>2019</v>
+      </c>
+      <c r="M349">
         <v>8</v>
       </c>
-      <c r="N339">
+      <c r="N349">
         <v>21</v>
       </c>
-      <c r="O339" t="inlineStr">
+      <c r="O349" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P339">
+      <c r="P349">
         <v>34</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2">
+    <row r="350">
+      <c r="A350" s="2">
         <v>43698</v>
       </c>
-      <c r="B340" t="inlineStr">
+      <c r="B350" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
+      <c r="C350" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
+      <c r="F350" t="inlineStr">
         <is>
           <t>CHINA TRADE DEFICIT</t>
         </is>
       </c>
-      <c r="G340" t="inlineStr">
+      <c r="G350" t="inlineStr">
         <is>
           <t>TRADE; CHINA; ECONOMY</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
+      <c r="H350" t="inlineStr">
         <is>
           <t>"Over the last five or six years, China has made $500 billion. $500 billion. Ripped it out of the United States. And not only that — if you take a look, intellectual property theft." And; "o I’m taking on China. I’m taking on China on trade. And you know what? We’re winning. Because we’re the piggybank. We’re the one that all these countries — including the European Union — wants to rob and takes advantage of. European Union — $200 billion. China — more than $500 billion. Sorry."</t>
         </is>
       </c>
-      <c r="I340" t="inlineStr">
+      <c r="I350" t="inlineStr">
         <is>
           <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
         </is>
       </c>
-      <c r="L340">
-        <v>2019</v>
-      </c>
-      <c r="M340">
+      <c r="L350">
+        <v>2019</v>
+      </c>
+      <c r="M350">
         <v>8</v>
       </c>
-      <c r="N340">
+      <c r="N350">
         <v>21</v>
       </c>
-      <c r="O340" t="inlineStr">
+      <c r="O350" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P340">
+      <c r="P350">
         <v>34</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2">
+    <row r="351">
+      <c r="A351" s="2">
         <v>43698</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B351" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C351" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F351" t="inlineStr">
         <is>
           <t>APPROVAL AMONG REPUBLICANS</t>
         </is>
       </c>
-      <c r="G341" t="inlineStr">
+      <c r="G351" t="inlineStr">
         <is>
           <t>TRUMP POPULARITY; REPUBLICANS</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
+      <c r="H351" t="inlineStr">
         <is>
           <t>"Well, I’m at 94 percent now in the Republican Party — the highest in history, the highest of any Republican."</t>
         </is>
       </c>
-      <c r="I341" t="inlineStr">
+      <c r="I351" t="inlineStr">
         <is>
           <t>His approval with Republicans is very high, regularly in the 80s and sometimes creeping into the 90s, but it has not been 94% in any recent poll. Trump's Republican approval peak in Gallup polling ranks sixth out of seven post-World War II Republican presidents.</t>
         </is>
       </c>
-      <c r="L341">
-        <v>2019</v>
-      </c>
-      <c r="M341">
+      <c r="L351">
+        <v>2019</v>
+      </c>
+      <c r="M351">
         <v>8</v>
       </c>
-      <c r="N341">
+      <c r="N351">
         <v>21</v>
       </c>
-      <c r="O341" t="inlineStr">
+      <c r="O351" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P341">
+      <c r="P351">
         <v>34</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2">
+    <row r="352">
+      <c r="A352" s="2">
         <v>43698</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B352" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C352" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
+      <c r="F352" t="inlineStr">
         <is>
           <t>BUILDING THE WALL</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr">
+      <c r="G352" t="inlineStr">
         <is>
           <t>THE WALL; IMMIGRATION; DEMOCRATS</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
+      <c r="H352" t="inlineStr">
         <is>
           <t>"People make this horrible, 2,000-mile journey — one of the things that will happen, when they realize the borders are closing, the wall is being built. We’re building tremendous numbers of miles of wall right now in different locations." And; "Plus, we’re building large sections of the wall. I won the lawsuit two weeks ago in the Supreme Court. We’re building large sections of wall and lots of other things are happening."</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr">
+      <c r="I352" t="inlineStr">
         <is>
           <t>No new miles have been built during Trump's presidency, though about 50 miles of replacement barriers had been built as of July, the Washington Examiner reported.</t>
         </is>
       </c>
-      <c r="L342">
-        <v>2019</v>
-      </c>
-      <c r="M342">
+      <c r="L352">
+        <v>2019</v>
+      </c>
+      <c r="M352">
         <v>8</v>
       </c>
-      <c r="N342">
+      <c r="N352">
         <v>21</v>
       </c>
-      <c r="O342" t="inlineStr">
+      <c r="O352" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P342">
+      <c r="P352">
         <v>34</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2">
+    <row r="353">
+      <c r="A353" s="2">
         <v>43698</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B353" t="inlineStr">
         <is>
           <t>August 21 exchange with reporters</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C353" t="inlineStr">
         <is>
           <t>EXCHANGE WITH REPORTERS</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
+      <c r="F353" t="inlineStr">
         <is>
           <t>US-MEXICO RELATIONS</t>
         </is>
       </c>
-      <c r="G343" t="inlineStr">
+      <c r="G353" t="inlineStr">
         <is>
           <t>MEXICO; IMMIGRATION</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
+      <c r="H353" t="inlineStr">
         <is>
           <t>"I want to thank Mexico. They have 26,000 soldiers at our border, and they're really stopping people from coming in."</t>
         </is>
       </c>
-      <c r="I343" t="inlineStr">
+      <c r="I353" t="inlineStr">
         <is>
           <t>The approximately 26,000 troops are split between the US border and Mexico's southern border. Trump himself said in late July that 6,000 of the troops were near Guatemala.</t>
         </is>
       </c>
-      <c r="L343">
-        <v>2019</v>
-      </c>
-      <c r="M343">
+      <c r="L353">
+        <v>2019</v>
+      </c>
+      <c r="M353">
         <v>8</v>
       </c>
-      <c r="N343">
+      <c r="N353">
         <v>21</v>
       </c>
-      <c r="O343" t="inlineStr">
+      <c r="O353" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="P343">
+      <c r="P353">
         <v>34</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2">
-        <v>43702</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Remarks with Canadian Prime Minister Justin Trudeau</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>REMARKS</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>BIARRITZ, FRANCE</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>USMCA RATIFICATION</t>
-        </is>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>TRADE; ECONOMY; NAFTA AND USMCA</t>
-        </is>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>“I think most Democrats like it. So, hopefully, that’ll be put to a vote fairly soon. It’s got tremendous support — both, I believe, Democrat and Republican. It has been signed and finalized, essentially, by Canada and, essentially, by Mexico. So we’re waiting for that from the United States.”</t>
-        </is>
-      </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facts First: The trade agreement has not been finalized by Canada. Just as it has not been put to a vote in the US Congress, it has not been put to a vote in the Canadian Parliament. _x000D_
-The agreement is unlikely to be rejected by Parliament even if Prime Minister Justin Trudeau’s Liberal government is ousted in this year’s election, since the Conservative opposition party says it will “reluctantly” vote in favor, but it’s still a stretch for Trump to say the agreement has been finalized in Canada, even “essentially.”_x000D_
-Mexico’s Senate ratified the agreement in June._x000D_
+    <row r="354">
+      <c r="A354" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>GM FOUNDER</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>“The Legendary Henry Ford and Alfred P. Sloan, the Founders of Ford Motor Company and General Motors, are ‘rolling over’ at the weakness of current car company executives…”</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Facts First: William Durant founded General Motors in 1908. Sloan became company president in 1923 and chairman of the board in 1937.</t>
+        </is>
+      </c>
+      <c r="L354">
+        <v>2019</v>
+      </c>
+      <c r="M354">
+        <v>8</v>
+      </c>
+      <c r="N354">
+        <v>21</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P354">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Interview with Lawrence Smith of WDRB Louisville</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>VETERANS CHOICE</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>MILITARY; VETERANS; HEALTH CARE</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>“Well, we've done a lot for the vets, especially with choice. You know, before I came, you didn't have Veterans Choice. Now you have Veterans Choice, which nobody in their wildest dream really thought -- they've been trying to get it for 44 years, and I got it for the veterans. So, the veterans are liking me a lot and I like them. So, now if they have to wait on a line -- you know, they were waiting three, four, five weeks to see a doctor. Now, if there's a wait, they go out, they see a doctor, we pay for the cost of it. And, it's the least important thing, but frankly, we save money, and we take care of our vets, and that's a good combination.”</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Facts First: Trump did not get the Veterans Choice program passed. It was signed into law by Obama in 2014.
+In 2018, Trump signed the VA MISSION Act, which expanded and changed the Choice program.)</t>
+        </is>
+      </c>
+      <c r="L355">
+        <v>2019</v>
+      </c>
+      <c r="M355">
+        <v>8</v>
+      </c>
+      <c r="N355">
+        <v>21</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P355">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Speech to the AMVETS national convention</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>VETERANS CHOICE</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>MILITARY; VETERANS; HEALTH CARE</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>“You fought courageously for our country, and now my administration is fighting for you. That’s for sure. And, you know, we’ve accomplished a lot. We’ve done a lot. And one of the things we have done is you get that medical care quickly now, when you go into those doctors. And you used to have to wait for weeks and weeks and weeks. And you don’t wait anymore. You go out and see a private doctor and we pay the bill. And people are really happy about it, and the vets are very happy about it. Veterans Choice, as you’ve been trying to get that for 44 years, they say — 44 years. I guess it’s longer than that; probably earlier than that. But for 44 years, at least, that we know of. And you got it, so congratulations. Hopefully, you don’t have to use it too often because you’re going to feel great. Okay?”</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Facts First: Trump did not get the Veterans Choice program passed. It was signed into law by Obama in 2014.
+In 2018, Trump signed the VA MISSION Act, which expanded and changed the Choice program.)</t>
+        </is>
+      </c>
+      <c r="L356">
+        <v>2019</v>
+      </c>
+      <c r="M356">
+        <v>8</v>
+      </c>
+      <c r="N356">
+        <v>21</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P356">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Interview with Lawrence Smith of WDRB Louisville</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>INTERVIEW</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>OPIOID EPIDEMIC</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>OPIOID EPIDEMIC</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>“And, as you know, we're down about 17% from what it was a year and a half ago, with the opioid, and opioid is a serious problem.”</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Facts First: Trump didn't explain what exactly he was referring to, but the most prominent statistic associated with the opioid epidemic, the number of overdose deaths, is not down 16% or 17% nationally, according to the latest available data.
+Overdose deaths were down an estimated 3.4% between January 2018 and 2019, according to preliminary data published by the Centers for Disease Control and Prevention. In New Hampshire, where Trump was speaking when he made these remarks, it was 6.6%. – August 21 interview with Lawrence Smith of WDRB Louisville</t>
+        </is>
+      </c>
+      <c r="L357">
+        <v>2019</v>
+      </c>
+      <c r="M357">
+        <v>8</v>
+      </c>
+      <c r="N357">
+        <v>21</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P357">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Speech to the AMVETS national convention</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT FOR VETERANS</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>UNEMPLOYMENT; ECONOMY; VETERANS</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>“Veterans unemployment has reached the lowest level ever recorded. You ever hear that? That’s big.”</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Facts First: The seasonally unadjusted unemployment rate for veterans was 3.4% in July, higher than the 2.3% low in 2000. Trump’s boast would have been correct in April, when the rate fell to 2.3% again, but isn’t anymore.
+The government recently began releasing seasonally adjusted unemployment data for veterans, but it does not date back further than 2003. (By the adjusted measure, the July rate was also 3.4%; the low for the 2003-to-present period was 2.4% in April of this year.)</t>
+        </is>
+      </c>
+      <c r="L358">
+        <v>2019</v>
+      </c>
+      <c r="M358">
+        <v>8</v>
+      </c>
+      <c r="N358">
+        <v>21</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P358">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Speech to the AMVETS national convention</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>ASIAN AMERICAN UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>ECONOMY; UNEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>“Veterans unemployment has reached the lowest level ever recorded. You ever hear that? That’s big. Same thing with African American unemployment. Same thing with Asian unemployment.”</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Facts First: Trump was accurate about the black unemployment rate, but not the rate for Asians.
+Black Americans are at their lowest unemployment rate since the government began tracking employment statistics for them using its current methodology (in the 1970s); However, the rate for Asians was 2.8% in July -- higher than the 2.6% rate in December 2016, Obama's last full month in office.</t>
+        </is>
+      </c>
+      <c r="L359">
+        <v>2019</v>
+      </c>
+      <c r="M359">
+        <v>8</v>
+      </c>
+      <c r="N359">
+        <v>21</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P359">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>US INFLATION</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>“No Inflation!”</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Facts First: There is inflation: 1.8% for the 12 months ending in July, up from 1.6% for the 12-month period ending in June. Core inflation, which excludes food and energy costs, was up 2.2% for the 12 months ending in July, the highest level since January.
+Trump could fairly say that inflation is low, but “no inflation” is incorrect.</t>
+        </is>
+      </c>
+      <c r="L360">
+        <v>2019</v>
+      </c>
+      <c r="M360">
+        <v>8</v>
+      </c>
+      <c r="N360">
+        <v>21</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P360">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>US INFLATION</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>“No inflation. Wake up Federal Reserve.”</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Facts First: There is inflation: 1.8% for the 12 months ending in July, up from 1.6% for the 12-month period ending in June. Core inflation, which excludes food and energy costs, was up 2.2% for the 12 months ending in July, the highest level since January.
+Trump could fairly say that inflation is low, but “no inflation” is incorrect.</t>
+        </is>
+      </c>
+      <c r="L361">
+        <v>2019</v>
+      </c>
+      <c r="M361">
+        <v>8</v>
+      </c>
+      <c r="N361">
+        <v>21</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P361">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>August 21 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>SHERROD BROWN, NAN WHALEY AND THE HOSPITAL VISIT</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Trump said, of his visits to hospitals in Dayton and El Paso after mass shootings in both cities, “Not only did they meet with me, they were pouring out of the room. The doctors were coming out of the operating rooms.”</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Doctors did not leave any active operating rooms, spokespeople for both the El Paso and Dayton hospitals said. The Dayton spokesperson said doctors did not even leave any patient rooms._x000D_
+"At no time did (or would) physicians or staff leave active operating rooms during the presidential visit. Our priority is always patient care," said Ryan Mielke, director of public affairs for the University Medical Center of El Paso._x000D_
+"Our physicians and staff at no time leave an active operating room, procedural area, or patient room to greet anyone," said Ben Sutherly, director of system communications for the Premier Health network, of which Miami Valley Hospital in Dayton is a part._x000D_
+You can read our full fact check of this claim here._x000D_
 </t>
         </is>
       </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>&lt;a href='https://www.cnn.com/2019/08/21/politics/fact-check-trump-84-false-claims-last-week/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/21/politics/fact-check-trump-84-false-claims-last-week/index.html&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="L344">
-        <v>2019</v>
-      </c>
-      <c r="M344">
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>&lt;a href='https://www.cnn.com/2019/08/23/politics/fact-check-trump-wrong-doctors-el-paso-dayton/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/23/politics/fact-check-trump-wrong-doctors-el-paso-dayton/index.html&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="L362">
+        <v>2019</v>
+      </c>
+      <c r="M362">
         <v>8</v>
       </c>
-      <c r="N344">
-        <v>25</v>
-      </c>
-      <c r="O344" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="P344">
+      <c r="N362">
+        <v>21</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P362">
         <v>34</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2">
-        <v>43702</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Remarks with UK Prime Minister Boris Johnson</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>REMARKS</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>BIARRITZ, FRANCE</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
+    <row r="363">
+      <c r="A363" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Speech to the AMVETS national convention</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>SPEECH</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>LOUISVILLE</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>VA FIRING</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>VETERANS</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>“…I proudly signed into law the groundbreaking VA Accountability Act…Now somebody mistreats you or mistreats people in the VA and we know what happens, right? It’s called, ‘You’re fired…You’re fired. Get out of here. Get out of here.’ You couldn’t fire anyone for virtually any reason. They could do anything. So we have the Accountability Act.”</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: While Trump might have been exaggerating here for effect, it's not true that "you couldn't fire anybody for virtually any reason" prior to the Veterans Affairs Accountability and Whistleblower Protection Act he signed into law in 2017. The VA fired an average of approximately 2,300 employees annually from 2005 to 2016, based on data collected by the Office of Personnel Management._x000D_
+However, the Clarion-Ledger newspaper in Mississippi did find several instances where VA employees who were registered sex offenders or had been indicted for killing patients, for example, retained their jobs. The legislation Trump signed simplified and expedited the process of terminating VA employees._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L363">
+        <v>2019</v>
+      </c>
+      <c r="M363">
+        <v>8</v>
+      </c>
+      <c r="N363">
+        <v>21</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P363">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>August 21 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>EU TRADE DEFICIT</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>“We're the one that all these countries -- including the European Union -- wants to rob and takes advantage of. European Union -- $200 billion.”</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Facts First: The trade deficit with the European Union was $114 billion in 2018, $101 billion in 2017, $93 billion in 2016.</t>
+        </is>
+      </c>
+      <c r="L364">
+        <v>2019</v>
+      </c>
+      <c r="M364">
+        <v>8</v>
+      </c>
+      <c r="N364">
+        <v>21</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="P364">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>43699</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>US INFLATION</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>“Strong Dollar, No Inflation!”</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Facts First: There is inflation: 1.8% for the 12 months ending in July, up from 1.6% for the 12-month period ending in June. Core inflation, which excludes food and energy costs, was up 2.2% for the 12 months ending in July, the highest level since January.
+Trump could fairly say that inflation is low, but “no inflation” is incorrect.</t>
+        </is>
+      </c>
+      <c r="L365">
+        <v>2019</v>
+      </c>
+      <c r="M365">
+        <v>8</v>
+      </c>
+      <c r="N365">
+        <v>22</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="P365">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>43699</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>DAN MCCREADY</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>DEMOCRATS</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>“Looking forward to soon being in North Carolina to hold a big rally for wonderful Dan Bishop, who is running for Congress. His opponent wants Open Borders, Sanctuary Cities, and Socialism. He likes the ‘Squad’ more than North Carolina.”</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Trump was referring to Bishop’s Democratic opponent, Dan McCready, who does not support “open borders.”_x000D_
+McCready’s website says he wants comprehensive immigration reform "that secures our border, respects our laws and protects our American values." He calls for the government to "reinforce physical barriers with the technology Dan used in the Marines, like infrared cameras and drones."_x000D_
+We can’t definitively fact check Trump’s claims about how much McCready likes his state or other politicians, but it’s worth noting that McCready returned a $2,000 donation from one member of “The Squad,” Rep. Ilhan Omar, after she was criticized for remarks both Republicans and many Democrats said were anti-Semitic._x000D_
+We tend to ignore Trump’s claims that various Democrats support “socialism,” since definitions of the term vary, but we'll point out that McCready advocates tax cuts for the middle class and opposes two of the policies Republicans have derided as “socialist,” Medicare for All health plans and the Green New Deal environmental proposal._x000D_
+</t>
+        </is>
+      </c>
+      <c r="L366">
+        <v>2019</v>
+      </c>
+      <c r="M366">
+        <v>8</v>
+      </c>
+      <c r="N366">
+        <v>22</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="P366">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
         <is>
           <t>WHO'S PAYING</t>
         </is>
       </c>
-      <c r="G345" t="inlineStr">
+      <c r="G367" t="inlineStr">
         <is>
           <t>CHINA; TARIFFS; TRADE; ECONOMY</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>“We’re getting a lot of money in tariffs. It’s coming in by the billions. We never got 10 cents from China. So we’ll see what happens. ”</t>
-        </is>
-      </c>
-      <c r="I345" t="inlineStr">
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>“No, I think our tariffs are very good for us. We’re taking in tens of billions of dollars. China is paying for it.”</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
         <is>
           <t xml:space="preserve">Facts First: American importers make the actual tariff payments, and economic studies have found that Americans, not people and companies in China, have borne most of the cost._x000D_
 Trump acknowledged at least the possibility that tariffs on China might hurt US consumers when he delayed planned additional tariffs until December 15. Peter Navarro, his trade adviser, described the move as a "Christmas present to the nation."  _x000D_
@@ -21140,54 +22363,551 @@
 </t>
         </is>
       </c>
-      <c r="L345">
-        <v>2019</v>
-      </c>
-      <c r="M345">
+      <c r="L367">
+        <v>2019</v>
+      </c>
+      <c r="M367">
         <v>8</v>
       </c>
-      <c r="N345">
+      <c r="N367">
+        <v>23</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P367">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>DOW UNDER TRUMP</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>ECONOMY</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Question: “Six hundred and twenty-three points — that’s what the Dow was down today because of what you tweeted. Do you have a responsibility for that?” Trump: “Not at all. Not at all. Because if you look at from November 9th — the day after the election — we’re up 50% or more. We’re up many, many points. We were at about sixteen or seventeen thousand. We’re at 25,000, so don’t tell me about 600 points.”</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Facts First: The Dow was up almost exactly 40% between its opening on November 9, 2016 and its close the day Trump spoke here, August 23, 2019. Though Trump was correct that it closed above 25,000 points on August 23, it was over 18,000 points on November 9, 2016, not at “sixteen or seventeen thousand.”</t>
+        </is>
+      </c>
+      <c r="L368">
+        <v>2019</v>
+      </c>
+      <c r="M368">
+        <v>8</v>
+      </c>
+      <c r="N368">
+        <v>23</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P368">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>GOOGLE AND VOTES</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>GOOGLE; 2016 ELECTION</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>“Somebody came in the other day and said the election that we had in ’16 with Hillary Clinton, that it could’ve cost me anywhere from 2,600 — from 2,600,000 votes to, I think, it went up to close to either 10 or maybe 15 million votes.”</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: A hotly disputed study concluded that bias in Google’s search results was sufficient to have swayed up to 10.4 million votes in Clinton’s direction. In other words, even if you accept a study other academics say is flawed, there is no basis for the “15 million” figure._x000D_
+Trump did say “I think,” acknowledging some uncertainty, but this is the second time he has cited a maximum figure far higher than the study did. You can read our full fact check on the study here._x000D_
+</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>&lt;a href='https://www.cnn.com/2019/08/19/politics/trump-google-manipulated-votes-claim/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/19/politics/trump-google-manipulated-votes-claim/index.html&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="L369">
+        <v>2019</v>
+      </c>
+      <c r="M369">
+        <v>8</v>
+      </c>
+      <c r="N369">
+        <v>23</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P369">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>FENTANYL</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>OPIOID EPIDEMIC</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>“Fentanyl kills 100,000 Americans a year.”</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Facts First: Though many Americans die from fentanyl overdoses, Trump’s “100,000” figure was not close to correct. The Centers for Disease Control and Prevention estimated that there were 28,466 overdose deaths connected to synthetic opioids, including fentanyl, in 2017, and that 47,600 overdose deaths that year involved any kind of opioid. The CDC’s preliminary data found a decline in overdose deaths in 2018, so it is exceptionally unlikely that the number of fentanyl-related deaths has spiked from an estimate of less than 30,000 in 2017 to anywhere near 100,000 today.</t>
+        </is>
+      </c>
+      <c r="L370">
+        <v>2019</v>
+      </c>
+      <c r="M370">
+        <v>8</v>
+      </c>
+      <c r="N370">
+        <v>23</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P370">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>THE 'CHOSEN ONE'</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>POPULARITY</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>“Let me tell you, you know exactly what I meant. It was sarcasm. It was joking. We were all smiling. And a question like that is just fake news. You’re just a faker.”</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Facts First: Trump was not smiling when he made this remark, the video shows.
+While Trump’s meaning is open to interpretation, there was no obvious physical sign that he was trying to speak humorously; he was in the middle of an impassioned defense of his trade policy. Here’s the full quote: “Over the last five or six years, China has made $500 billion. $500 billion. Ripped it out of the United States. And not only that — if you take a look, intellectual property theft. Add that to it. And add a lot of other things to it. So somebody [crosstalk] -- excuse me. Somebody had to do it. I am the chosen one. Somebody had to do it. So I’m taking on China. I’m taking on China on trade. And you know what? We’re winning.”</t>
+        </is>
+      </c>
+      <c r="L371">
+        <v>2019</v>
+      </c>
+      <c r="M371">
+        <v>8</v>
+      </c>
+      <c r="N371">
+        <v>23</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P371">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>APPROVAL AMONG REPUBLICANS</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>POLLS; POPULARITY; REPUBLICANS</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>“94% Approval Rating within the Republican Party. Thank you!”</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>He twice said he has a 94% approval rating among Republicans and the "highest of any Republican" in "history." (His approval with Republicans is very high, regularly in the 80s and sometimes creeping into the 90s, but it has not been 94% in any recent poll. Trump's Republican approval peak in Gallup polling ranks sixth out of seven post-World War II Republican presidents.)</t>
+        </is>
+      </c>
+      <c r="L372">
+        <v>2019</v>
+      </c>
+      <c r="M372">
+        <v>8</v>
+      </c>
+      <c r="N372">
+        <v>23</v>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P372">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>27 YEARS</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>CHINA; ECONOMY; TRADE; TARIFFS</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>“At the same time, China has had the worst — the worst year probably in anywhere from 30 to 50 years. Their worst year.”</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Facts First: China's official second-quarter GDP growth rate, 6.2%, was the worst since 1992, 27 years ago. There is no basis for the "52 or 54 years" claim.
+Trump has correctly cited this "27 years" statistic in the past without questioning it. This week, though, he has begun doubling it. He said Tuesday that "China has had the worst year they've had in 27 years" -- then added, "And a lot of people are saying the worst year they've had in 54 years."
+Experts say China's official statistics are unreliable, but there is no specific evidence for the "half a century" claim. Derek Scissors, an expert on US economic relations with Asia at the conservative American Enterprise Institute think tank, notes that going past 27 years ago skips over the 1989-to-1992 period in which China's growth slowed significantly after its 1989 crackdown on protests in Tiananmen Square.</t>
+        </is>
+      </c>
+      <c r="L373">
+        <v>2019</v>
+      </c>
+      <c r="M373">
+        <v>8</v>
+      </c>
+      <c r="N373">
+        <v>23</v>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P373">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>August 23 exchange with reporters</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>EXCHANGE WITH REPORTERS</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>CHINA TRADE DEFICIT</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>TRADE; CHINA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>“They’ve been hitting us for many, many years — for over $500 billion a year — taking out of our country much more than $500 billion a year.”</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
+        </is>
+      </c>
+      <c r="L374">
+        <v>2019</v>
+      </c>
+      <c r="M374">
+        <v>8</v>
+      </c>
+      <c r="N374">
+        <v>23</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="P374">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>43701</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>TWEET</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>THE 'CHOSEN ONE'</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>POPULARITY</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>“When I looked up to the sky and jokingly said ‘I am the chosen one,’ at a news conference two days ago, referring to taking on Trade with China, little did I realize that the media would claim that I had a ‘Messiah complex.’ They knew I was kidding, being sarcastic, and just having fun. I was smiling as I looked up and around. The MANY reporters with me were smiling also. They knew the TRUTH...And yet when I saw the reporting, CNN, MSNBC and other Fake News outlets covered it as serious news &amp; me thinking of myself as the Messiah. No more trust!”</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Facts First: Trump was not smiling when he made this remark, the video shows.
+While Trump’s meaning is open to interpretation, there was no obvious physical sign that he was trying to speak humorously; he was in the middle of an impassioned defense of his trade policy. Here’s the full quote: “Over the last five or six years, China has made $500 billion. $500 billion. Ripped it out of the United States. And not only that — if you take a look, intellectual property theft. Add that to it. And add a lot of other things to it. So somebody [crosstalk] -- excuse me. Somebody had to do it. I am the chosen one. Somebody had to do it. So I’m taking on China. I’m taking on China on trade. And you know what? We’re winning.”</t>
+        </is>
+      </c>
+      <c r="L375">
+        <v>2019</v>
+      </c>
+      <c r="M375">
+        <v>8</v>
+      </c>
+      <c r="N375">
+        <v>24</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="P375">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>43702</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Remarks with Canadian Prime Minister Justin Trudeau</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>BIARRITZ, FRANCE</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>USMCA RATIFICATION</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>TRADE; ECONOMY; NAFTA AND USMCA</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>“I think most Democrats like it. So, hopefully, that’ll be put to a vote fairly soon. It’s got tremendous support — both, I believe, Democrat and Republican. It has been signed and finalized, essentially, by Canada and, essentially, by Mexico. So we’re waiting for that from the United States.”</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: The trade agreement has not been finalized by Canada. Just as it has not been put to a vote in the US Congress, it has not been put to a vote in the Canadian Parliament. _x000D_
+The agreement is unlikely to be rejected by Parliament even if Prime Minister Justin Trudeau’s Liberal government is ousted in this year’s election, since the Conservative opposition party says it will “reluctantly” vote in favor, but it’s still a stretch for Trump to say the agreement has been finalized in Canada, even “essentially.”_x000D_
+Mexico’s Senate ratified the agreement in June._x000D_
+</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>&lt;a href='https://www.cnn.com/2019/08/21/politics/fact-check-trump-84-false-claims-last-week/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/21/politics/fact-check-trump-84-false-claims-last-week/index.html&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="L376">
+        <v>2019</v>
+      </c>
+      <c r="M376">
+        <v>8</v>
+      </c>
+      <c r="N376">
         <v>25</v>
       </c>
-      <c r="O345" t="inlineStr">
+      <c r="O376" t="inlineStr">
         <is>
           <t>Sun</t>
         </is>
       </c>
-      <c r="P345">
+      <c r="P376">
         <v>34</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>August 23 exchange with reporters</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
+    <row r="377">
+      <c r="A377" s="2">
+        <v>43702</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Remarks with UK Prime Minister Boris Johnson</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>BIARRITZ, FRANCE</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
         <is>
           <t>WHO'S PAYING</t>
         </is>
       </c>
-      <c r="G346" t="inlineStr">
+      <c r="G377" t="inlineStr">
         <is>
           <t>CHINA; TARIFFS; TRADE; ECONOMY</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>“No, I think our tariffs are very good for us. We’re taking in tens of billions of dollars. China is paying for it.”</t>
-        </is>
-      </c>
-      <c r="I346" t="inlineStr">
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>“We’re getting a lot of money in tariffs. It’s coming in by the billions. We never got 10 cents from China. So we’ll see what happens. ”</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
         <is>
           <t xml:space="preserve">Facts First: American importers make the actual tariff payments, and economic studies have found that Americans, not people and companies in China, have borne most of the cost._x000D_
 Trump acknowledged at least the possibility that tariffs on China might hurt US consumers when he delayed planned additional tariffs until December 15. Peter Navarro, his trade adviser, described the move as a "Christmas present to the nation."  _x000D_
@@ -21198,1725 +22918,175 @@
 </t>
         </is>
       </c>
-      <c r="L346">
-        <v>2019</v>
-      </c>
-      <c r="M346">
+      <c r="L377">
+        <v>2019</v>
+      </c>
+      <c r="M377">
         <v>8</v>
       </c>
-      <c r="N346">
-        <v>23</v>
-      </c>
-      <c r="O346" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="P346">
+      <c r="N377">
+        <v>25</v>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="P377">
         <v>34</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2">
+    <row r="378">
+      <c r="A378" s="2">
         <v>43702</v>
       </c>
-      <c r="B347" t="inlineStr">
+      <c r="B378" t="inlineStr">
         <is>
           <t>Remarks with UK Prime Minister Boris Johnson</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
+      <c r="C378" t="inlineStr">
         <is>
           <t>REMARKS</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr">
+      <c r="D378" t="inlineStr">
         <is>
           <t>BIARRITZ, FRANCE</t>
         </is>
       </c>
-      <c r="F347" t="inlineStr">
+      <c r="F378" t="inlineStr">
         <is>
           <t>HISTORY OF TARIFFS</t>
         </is>
       </c>
-      <c r="G347" t="inlineStr">
+      <c r="G378" t="inlineStr">
         <is>
           <t>CHINA; TARIFFS; TRADE; ECONOMY</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
+      <c r="H378" t="inlineStr">
         <is>
           <t>“We’re getting a lot of money in tariffs. It’s coming in by the billions. We never got 10 cents from China.”</t>
         </is>
       </c>
-      <c r="I347" t="inlineStr">
+      <c r="I378" t="inlineStr">
         <is>
           <t xml:space="preserve">Facts First: The U.S. government has been charging tariffs on imported Chinese goods for more than two centuries, and it took in hefty sums from such tariffs long before Trump's own tariffs. (Again, it is US importers, not China, who have paid these tariffs.)_x000D_
 The Treasury received $14 billion from tariffs on China in 2014, to look at one pre-Trump year._x000D_
 </t>
         </is>
       </c>
-      <c r="L347">
-        <v>2019</v>
-      </c>
-      <c r="M347">
+      <c r="L378">
+        <v>2019</v>
+      </c>
+      <c r="M378">
         <v>8</v>
       </c>
-      <c r="N347">
+      <c r="N378">
         <v>25</v>
       </c>
-      <c r="O347" t="inlineStr">
+      <c r="O378" t="inlineStr">
         <is>
           <t>Sun</t>
         </is>
       </c>
-      <c r="P347">
+      <c r="P378">
         <v>34</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>August 23 exchange with reporters</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>DOW UNDER TRUMP</t>
-        </is>
-      </c>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>ECONOMY</t>
-        </is>
-      </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>Question: “Six hundred and twenty-three points — that’s what the Dow was down today because of what you tweeted. Do you have a responsibility for that?” Trump: “Not at all. Not at all. Because if you look at from November 9th — the day after the election — we’re up 50% or more. We’re up many, many points. We were at about sixteen or seventeen thousand. We’re at 25,000, so don’t tell me about 600 points.”</t>
-        </is>
-      </c>
-      <c r="I348" t="inlineStr">
-        <is>
-          <t>Facts First: The Dow was up almost exactly 40% between its opening on November 9, 2016 and its close the day Trump spoke here, August 23, 2019. Though Trump was correct that it closed above 25,000 points on August 23, it was over 18,000 points on November 9, 2016, not at “sixteen or seventeen thousand.”</t>
-        </is>
-      </c>
-      <c r="L348">
-        <v>2019</v>
-      </c>
-      <c r="M348">
+    <row r="379">
+      <c r="A379" s="2">
+        <v>43702</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Remarks with UK Prime Minister Boris Johnson</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>BIARRITZ, FRANCE</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>CHINA TRADE DEFICIT</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>TRADE; CHINA; ECONOMY</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>“I think when they steal and take out, and — intellectual property theft, anywhere from $300 billion to $500 billion a year, and where we have a total loss of almost a trillion dollars a year — for many years, this has been going on — in many ways, that’s an emergency.”</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
+        </is>
+      </c>
+      <c r="L379">
+        <v>2019</v>
+      </c>
+      <c r="M379">
         <v>8</v>
       </c>
-      <c r="N348">
-        <v>23</v>
-      </c>
-      <c r="O348" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="P348">
+      <c r="N379">
+        <v>25</v>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="P379">
         <v>34</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>August 23 exchange with reporters</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>GOOGLE AND VOTES</t>
-        </is>
-      </c>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>GOOGLE; 2016 ELECTION</t>
-        </is>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>“Somebody came in the other day and said the election that we had in ’16 with Hillary Clinton, that it could’ve cost me anywhere from 2,600 — from 2,600,000 votes to, I think, it went up to close to either 10 or maybe 15 million votes.”</t>
-        </is>
-      </c>
-      <c r="I349" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facts First: A hotly disputed study concluded that bias in Google’s search results was sufficient to have swayed up to 10.4 million votes in Clinton’s direction. In other words, even if you accept a study other academics say is flawed, there is no basis for the “15 million” figure._x000D_
-Trump did say “I think,” acknowledging some uncertainty, but this is the second time he has cited a maximum figure far higher than the study did. You can read our full fact check on the study here._x000D_
-</t>
-        </is>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>&lt;a href='https://www.cnn.com/2019/08/19/politics/trump-google-manipulated-votes-claim/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/19/politics/trump-google-manipulated-votes-claim/index.html&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="L349">
-        <v>2019</v>
-      </c>
-      <c r="M349">
-        <v>8</v>
-      </c>
-      <c r="N349">
-        <v>23</v>
-      </c>
-      <c r="O349" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="P349">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>VENEZUELA'S WEALTH</t>
-        </is>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>VENEZUELA; ECONOMY</t>
-        </is>
-      </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>“We’re helping Venezuela as much as we can. We’re staying out of it, but we are helping it, and it needs a lot of help. It’s an incredible tribute to something bad happening, and the something bad is socialism. And it’s amazing because, 15 years ago, it was one of the wealthiest countries. Now it’s one of the poorest countries.”</t>
-        </is>
-      </c>
-      <c r="I350" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facts First: Venezuela was not one of the world's richest countries 15 years ago._x000D_
- _x000D_
-The International Monetary Fund's World Economic Outlook ranked Venezuela 67th in the world in 2004 by GDP per capita, at $4,019 (US) -- better than more than half of the world's countries, but nowhere near the top._x000D_
-"Venezuela was one of the richest countries in the world 60 years ago. The richest in Latin America 40 years ago. But not 20 years ago," Ricardo Hausmann, a former Venezuelan planning minister and central bank board member, said in response to a previous version of this Trump claim. Hausmann, now a Harvard University professor of economic development, was chief economist of the Inter-American Development Bank from 1994 to 2000._x000D_
-</t>
-        </is>
-      </c>
-      <c r="L350">
-        <v>2019</v>
-      </c>
-      <c r="M350">
-        <v>8</v>
-      </c>
-      <c r="N350">
-        <v>20</v>
-      </c>
-      <c r="O350" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="P350">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>LOWEST UNEMPLOYMENT EVER</t>
-        </is>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>ECONOMY; UNEMPLOYMENT</t>
-        </is>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>“You’re talking about unemployment numbers that are the lowest in history, in many categories, and, overall, almost the lowest ever, in the history of our country. I think it was 1969. And we are set to surpass that number. I mean, our country is doing very well.”</t>
-        </is>
-      </c>
-      <c r="I351" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facts First: It is true that the unemployment rate is the lowest it has been since 1969 (other than months earlier this year), but it is not true that the 1969 rates were an all-time low. The low was 2.5%, in 1953._x000D_
-The unemployment rate in July was 3.7%, the same as the rate in June and up slightly from the 3.6% rate in May and April. It is possible that it will fall below the 1969 low of 3.4%. But there is no apparent sign that it will surpass the 2.5% low; it has not gone below 3.6% at any time during Trump’s presidency and has not gone below 3% since 1953._x000D_
-</t>
-        </is>
-      </c>
-      <c r="L351">
-        <v>2019</v>
-      </c>
-      <c r="M351">
-        <v>8</v>
-      </c>
-      <c r="N351">
-        <v>20</v>
-      </c>
-      <c r="O351" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="P351">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>TWEET</t>
-        </is>
-      </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>GM FOUNDER</t>
-        </is>
-      </c>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>ECONOMY</t>
-        </is>
-      </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>“The Legendary Henry Ford and Alfred P. Sloan, the Founders of Ford Motor Company and General Motors, are ‘rolling over’ at the weakness of current car company executives…”</t>
-        </is>
-      </c>
-      <c r="I352" t="inlineStr">
-        <is>
-          <t>Facts First: William Durant founded General Motors in 1908. Sloan became company president in 1923 and chairman of the board in 1937.</t>
-        </is>
-      </c>
-      <c r="L352">
-        <v>2019</v>
-      </c>
-      <c r="M352">
-        <v>8</v>
-      </c>
-      <c r="N352">
-        <v>21</v>
-      </c>
-      <c r="O352" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P352">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>TWEET</t>
-        </is>
-      </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>FENTANYL</t>
-        </is>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>OPIOID EPIDEMIC</t>
-        </is>
-      </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>“Fentanyl kills 100,000 Americans a year.”</t>
-        </is>
-      </c>
-      <c r="I353" t="inlineStr">
-        <is>
-          <t>Facts First: Though many Americans die from fentanyl overdoses, Trump’s “100,000” figure was not close to correct. The Centers for Disease Control and Prevention estimated that there were 28,466 overdose deaths connected to synthetic opioids, including fentanyl, in 2017, and that 47,600 overdose deaths that year involved any kind of opioid. The CDC’s preliminary data found a decline in overdose deaths in 2018, so it is exceptionally unlikely that the number of fentanyl-related deaths has spiked from an estimate of less than 30,000 in 2017 to anywhere near 100,000 today.</t>
-        </is>
-      </c>
-      <c r="L353">
-        <v>2019</v>
-      </c>
-      <c r="M353">
-        <v>8</v>
-      </c>
-      <c r="N353">
-        <v>23</v>
-      </c>
-      <c r="O353" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="P353">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Interview with Lawrence Smith of WDRB Louisville</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>INTERVIEW</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>LOUISVILLE</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>VETERANS CHOICE</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>MILITARY; VETERANS; HEALTH CARE</t>
-        </is>
-      </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>“Well, we've done a lot for the vets, especially with choice. You know, before I came, you didn't have Veterans Choice. Now you have Veterans Choice, which nobody in their wildest dream really thought -- they've been trying to get it for 44 years, and I got it for the veterans. So, the veterans are liking me a lot and I like them. So, now if they have to wait on a line -- you know, they were waiting three, four, five weeks to see a doctor. Now, if there's a wait, they go out, they see a doctor, we pay for the cost of it. And, it's the least important thing, but frankly, we save money, and we take care of our vets, and that's a good combination.”</t>
-        </is>
-      </c>
-      <c r="I354" t="inlineStr">
-        <is>
-          <t>Facts First: Trump did not get the Veterans Choice program passed. It was signed into law by Obama in 2014.
-In 2018, Trump signed the VA MISSION Act, which expanded and changed the Choice program.)</t>
-        </is>
-      </c>
-      <c r="L354">
-        <v>2019</v>
-      </c>
-      <c r="M354">
-        <v>8</v>
-      </c>
-      <c r="N354">
-        <v>21</v>
-      </c>
-      <c r="O354" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P354">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Speech to the AMVETS national convention</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>SPEECH</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>LOUISVILLE</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>VETERANS CHOICE</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>MILITARY; VETERANS; HEALTH CARE</t>
-        </is>
-      </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>“You fought courageously for our country, and now my administration is fighting for you. That’s for sure. And, you know, we’ve accomplished a lot. We’ve done a lot. And one of the things we have done is you get that medical care quickly now, when you go into those doctors. And you used to have to wait for weeks and weeks and weeks. And you don’t wait anymore. You go out and see a private doctor and we pay the bill. And people are really happy about it, and the vets are very happy about it. Veterans Choice, as you’ve been trying to get that for 44 years, they say — 44 years. I guess it’s longer than that; probably earlier than that. But for 44 years, at least, that we know of. And you got it, so congratulations. Hopefully, you don’t have to use it too often because you’re going to feel great. Okay?”</t>
-        </is>
-      </c>
-      <c r="I355" t="inlineStr">
-        <is>
-          <t>Facts First: Trump did not get the Veterans Choice program passed. It was signed into law by Obama in 2014.
-In 2018, Trump signed the VA MISSION Act, which expanded and changed the Choice program.)</t>
-        </is>
-      </c>
-      <c r="L355">
-        <v>2019</v>
-      </c>
-      <c r="M355">
-        <v>8</v>
-      </c>
-      <c r="N355">
-        <v>21</v>
-      </c>
-      <c r="O355" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P355">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Interview with Lawrence Smith of WDRB Louisville</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>INTERVIEW</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>LOUISVILLE</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>OPIOID EPIDEMIC</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>OPIOID EPIDEMIC</t>
-        </is>
-      </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>“And, as you know, we're down about 17% from what it was a year and a half ago, with the opioid, and opioid is a serious problem.”</t>
-        </is>
-      </c>
-      <c r="I356" t="inlineStr">
-        <is>
-          <t>Facts First: Trump didn't explain what exactly he was referring to, but the most prominent statistic associated with the opioid epidemic, the number of overdose deaths, is not down 16% or 17% nationally, according to the latest available data.
-Overdose deaths were down an estimated 3.4% between January 2018 and 2019, according to preliminary data published by the Centers for Disease Control and Prevention. In New Hampshire, where Trump was speaking when he made these remarks, it was 6.6%. – August 21 interview with Lawrence Smith of WDRB Louisville</t>
-        </is>
-      </c>
-      <c r="L356">
-        <v>2019</v>
-      </c>
-      <c r="M356">
-        <v>8</v>
-      </c>
-      <c r="N356">
-        <v>21</v>
-      </c>
-      <c r="O356" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P356">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>TLAIB CONDUCT</t>
-        </is>
-      </c>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>THE SQUAD; DEMOCRATS; ISRAEL</t>
-        </is>
-      </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>“And then, yesterday, I noticed for the first time, Tlaib with the tears. All of a sudden, she starts with tears. Tears. And I don’t buy it. I don’t buy it. I don’t buy it for a second because I’ve seen her in a very vicious mood at campaign rallies — my campaign rallies — before she was a congresswoman. I said, ‘Who is that?’ And I saw a woman that was violent and vicious and out of control. And all of a sudden, I see this person who’s crying because she can’t see her grandmother”</t>
-        </is>
-      </c>
-      <c r="I357" t="inlineStr">
-        <is>
-          <t>Facts First: There is no evidence Tlaib, who became teary last week as she recalled how her family was treated during childhood visits to the West Bank, is “violent.” (Tlaib did interrupt one of his 2016 campaign speeches, in Detroit, to protest him. When she tried to free herself from the grip of a security employee who had put his hands on her while escorting her out, she twisted her body, jumped and pushed him.)
- Tlaib spokesperson Adrienne Salazar told CNN last week that Tlaib made the push to “gain footing, as she was walking backward while the agent was walking forward in front of her.”</t>
-        </is>
-      </c>
-      <c r="L357">
-        <v>2019</v>
-      </c>
-      <c r="M357">
-        <v>8</v>
-      </c>
-      <c r="N357">
-        <v>20</v>
-      </c>
-      <c r="O357" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="P357">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>TWEET</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>TLAIB CONDUCT</t>
-        </is>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>THE SQUAD; DEMOCRATS; ISRAEL</t>
-        </is>
-      </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>“Sorry, I don't buy Rep. Tlaib's tears. I have watched her violence, craziness and, most importantly, WORDS, for far too long.”</t>
-        </is>
-      </c>
-      <c r="I358" t="inlineStr">
-        <is>
-          <t>Facts First: There is no evidence Tlaib, who became teary last week as she recalled how her family was treated during childhood visits to the West Bank, is “violent.” (Tlaib did interrupt one of his 2016 campaign speeches, in Detroit, to protest him. When she tried to free herself from the grip of a security employee who had put his hands on her while escorting her out, she twisted her body, jumped and pushed him.)
- Tlaib spokesperson Adrienne Salazar told CNN last week that Tlaib made the push to “gain footing, as she was walking backward while the agent was walking forward in front of her.”</t>
-        </is>
-      </c>
-      <c r="L358">
-        <v>2019</v>
-      </c>
-      <c r="M358">
-        <v>8</v>
-      </c>
-      <c r="N358">
-        <v>20</v>
-      </c>
-      <c r="O358" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="P358">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>Speech to the AMVETS national convention</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>SPEECH</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>LOUISVILLE</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>UNEMPLOYMENT FOR VETERANS</t>
-        </is>
-      </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>UNEMPLOYMENT; ECONOMY; VETERANS</t>
-        </is>
-      </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>“Veterans unemployment has reached the lowest level ever recorded. You ever hear that? That’s big.”</t>
-        </is>
-      </c>
-      <c r="I359" t="inlineStr">
-        <is>
-          <t>Facts First: The seasonally unadjusted unemployment rate for veterans was 3.4% in July, higher than the 2.3% low in 2000. Trump’s boast would have been correct in April, when the rate fell to 2.3% again, but isn’t anymore.
-The government recently began releasing seasonally adjusted unemployment data for veterans, but it does not date back further than 2003. (By the adjusted measure, the July rate was also 3.4%; the low for the 2003-to-present period was 2.4% in April of this year.)</t>
-        </is>
-      </c>
-      <c r="L359">
-        <v>2019</v>
-      </c>
-      <c r="M359">
-        <v>8</v>
-      </c>
-      <c r="N359">
-        <v>21</v>
-      </c>
-      <c r="O359" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P359">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>Speech to the AMVETS national convention</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>SPEECH</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>LOUISVILLE</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>ASIAN AMERICAN UNEMPLOYMENT</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>ECONOMY; UNEMPLOYMENT</t>
-        </is>
-      </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>“Veterans unemployment has reached the lowest level ever recorded. You ever hear that? That’s big. Same thing with African American unemployment. Same thing with Asian unemployment.”</t>
-        </is>
-      </c>
-      <c r="I360" t="inlineStr">
-        <is>
-          <t>Facts First: Trump was accurate about the black unemployment rate, but not the rate for Asians.
-Black Americans are at their lowest unemployment rate since the government began tracking employment statistics for them using its current methodology (in the 1970s); However, the rate for Asians was 2.8% in July -- higher than the 2.6% rate in December 2016, Obama's last full month in office.</t>
-        </is>
-      </c>
-      <c r="L360">
-        <v>2019</v>
-      </c>
-      <c r="M360">
-        <v>8</v>
-      </c>
-      <c r="N360">
-        <v>21</v>
-      </c>
-      <c r="O360" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P360">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="2">
-        <v>43701</v>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>TWEET</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>THE 'CHOSEN ONE'</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>POPULARITY</t>
-        </is>
-      </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>“When I looked up to the sky and jokingly said ‘I am the chosen one,’ at a news conference two days ago, referring to taking on Trade with China, little did I realize that the media would claim that I had a ‘Messiah complex.’ They knew I was kidding, being sarcastic, and just having fun. I was smiling as I looked up and around. The MANY reporters with me were smiling also. They knew the TRUTH...And yet when I saw the reporting, CNN, MSNBC and other Fake News outlets covered it as serious news &amp; me thinking of myself as the Messiah. No more trust!”</t>
-        </is>
-      </c>
-      <c r="I361" t="inlineStr">
-        <is>
-          <t>Facts First: Trump was not smiling when he made this remark, the video shows.
-While Trump’s meaning is open to interpretation, there was no obvious physical sign that he was trying to speak humorously; he was in the middle of an impassioned defense of his trade policy. Here’s the full quote: “Over the last five or six years, China has made $500 billion. $500 billion. Ripped it out of the United States. And not only that — if you take a look, intellectual property theft. Add that to it. And add a lot of other things to it. So somebody [crosstalk] -- excuse me. Somebody had to do it. I am the chosen one. Somebody had to do it. So I’m taking on China. I’m taking on China on trade. And you know what? We’re winning.”</t>
-        </is>
-      </c>
-      <c r="L361">
-        <v>2019</v>
-      </c>
-      <c r="M361">
-        <v>8</v>
-      </c>
-      <c r="N361">
-        <v>24</v>
-      </c>
-      <c r="O361" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="P361">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>August 23 exchange with reporters</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>THE 'CHOSEN ONE'</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>POPULARITY</t>
-        </is>
-      </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>“Let me tell you, you know exactly what I meant. It was sarcasm. It was joking. We were all smiling. And a question like that is just fake news. You’re just a faker.”</t>
-        </is>
-      </c>
-      <c r="I362" t="inlineStr">
-        <is>
-          <t>Facts First: Trump was not smiling when he made this remark, the video shows.
-While Trump’s meaning is open to interpretation, there was no obvious physical sign that he was trying to speak humorously; he was in the middle of an impassioned defense of his trade policy. Here’s the full quote: “Over the last five or six years, China has made $500 billion. $500 billion. Ripped it out of the United States. And not only that — if you take a look, intellectual property theft. Add that to it. And add a lot of other things to it. So somebody [crosstalk] -- excuse me. Somebody had to do it. I am the chosen one. Somebody had to do it. So I’m taking on China. I’m taking on China on trade. And you know what? We’re winning.”</t>
-        </is>
-      </c>
-      <c r="L362">
-        <v>2019</v>
-      </c>
-      <c r="M362">
-        <v>8</v>
-      </c>
-      <c r="N362">
-        <v>23</v>
-      </c>
-      <c r="O362" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="P362">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>RUSSIAS G8 EXIT</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>RUSSIA; BARACK OBAMA</t>
-        </is>
-      </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>“So it was the G8 for a long time, and now it’s the G7.  And a lot of the time, we talk about — we talk about Russia. We’re talking about Russia because I’ve gone to numerous G7 meetings.  And I guess President Obama, because Putin outsmarted him — President Obama thought it wasn’t a good thing to have Russia in, so he wanted Russia out…But, as you know, for most of the time, it was the G8.  It included Russia.  And President Obama didn’t want Russia in because he got outsmarted. Well, that’s not the way it really should work.”</t>
-        </is>
-      </c>
-      <c r="I363" t="inlineStr">
-        <is>
-          <t>Facts First: The G8 suspended Russia in 2014 for annexing Crimea from Ukraine. The ouster was endorsed by not only Obama but the leaders of Canada, Japan, the United Kingdom, France, Germany and Italy.
-Trump is free to express an opinion that the real reason for the ouster was Obama being personally wounded by the seizure of Crimea. But we think he makes the claim false when he omits Crimea entirely from his account.</t>
-        </is>
-      </c>
-      <c r="L363">
-        <v>2019</v>
-      </c>
-      <c r="M363">
-        <v>8</v>
-      </c>
-      <c r="N363">
-        <v>20</v>
-      </c>
-      <c r="O363" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="P363">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>LOG CABIN REPUBLICANS</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>ACCOMPLISHMENTS</t>
-        </is>
-      </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>Asked about his administration taking steps to make it easier to discriminate against LGBT people in the workplace, Trump said, “Well, you know, I just got an award and an endorsement yesterday from a — the exact group, a group.  They gave — you saw that.  They gave me the endorsement yesterday.  And I was very honored to — is it Log Cabin?  The Log Cabin group.”</t>
-        </is>
-      </c>
-      <c r="I364" t="inlineStr">
-        <is>
-          <t>Facts First: Trump did receive the endorsement of the Log Cabin Republicans, a gay conservative group, but “no award,” Log Cabin Republicans national spokesman Charles Moran told CNN.
-The endorsement was announced in a Washington Post essay published five days before Trump’s comments, not “yesterday.” (Trump might just have briefly confused the endorsement for an “award,” but he has invented accolades before.)</t>
-        </is>
-      </c>
-      <c r="L364">
-        <v>2019</v>
-      </c>
-      <c r="M364">
-        <v>8</v>
-      </c>
-      <c r="N364">
-        <v>20</v>
-      </c>
-      <c r="O364" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="P364">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>US IN AFGHANISTAN</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>MILITARY; AFGHANISTAN</t>
-        </is>
-      </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>“But we’ve been a peacekeeper there, in a way, for 19 years. And at a certain point, you have to say, ‘That’s long enough.’”</t>
-        </is>
-      </c>
-      <c r="I365" t="inlineStr">
-        <is>
-          <t>Facts First: This was a small exaggeration. The US invaded Afghanistan in October 2001, less than 18 years ago. This was not a one-time slip though; Trump habitually says "19 years."</t>
-        </is>
-      </c>
-      <c r="L365">
-        <v>2019</v>
-      </c>
-      <c r="M365">
-        <v>8</v>
-      </c>
-      <c r="N365">
-        <v>20</v>
-      </c>
-      <c r="O365" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="P365">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="2">
-        <v>43699</v>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>TWEET</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>US INFLATION</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>ECONOMY</t>
-        </is>
-      </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>“Strong Dollar, No Inflation!”</t>
-        </is>
-      </c>
-      <c r="I366" t="inlineStr">
-        <is>
-          <t>Facts First: There is inflation: 1.8% for the 12 months ending in July, up from 1.6% for the 12-month period ending in June. Core inflation, which excludes food and energy costs, was up 2.2% for the 12 months ending in July, the highest level since January.
-Trump could fairly say that inflation is low, but “no inflation” is incorrect.</t>
-        </is>
-      </c>
-      <c r="L366">
-        <v>2019</v>
-      </c>
-      <c r="M366">
-        <v>8</v>
-      </c>
-      <c r="N366">
-        <v>22</v>
-      </c>
-      <c r="O366" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="P366">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>TWEET</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>US INFLATION</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>ECONOMY</t>
-        </is>
-      </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>“No Inflation!”</t>
-        </is>
-      </c>
-      <c r="I367" t="inlineStr">
-        <is>
-          <t>Facts First: There is inflation: 1.8% for the 12 months ending in July, up from 1.6% for the 12-month period ending in June. Core inflation, which excludes food and energy costs, was up 2.2% for the 12 months ending in July, the highest level since January.
-Trump could fairly say that inflation is low, but “no inflation” is incorrect.</t>
-        </is>
-      </c>
-      <c r="L367">
-        <v>2019</v>
-      </c>
-      <c r="M367">
-        <v>8</v>
-      </c>
-      <c r="N367">
-        <v>21</v>
-      </c>
-      <c r="O367" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P367">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>TWEET</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>US INFLATION</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>ECONOMY</t>
-        </is>
-      </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>“No inflation. Wake up Federal Reserve.”</t>
-        </is>
-      </c>
-      <c r="I368" t="inlineStr">
-        <is>
-          <t>Facts First: There is inflation: 1.8% for the 12 months ending in July, up from 1.6% for the 12-month period ending in June. Core inflation, which excludes food and energy costs, was up 2.2% for the 12 months ending in July, the highest level since January.
-Trump could fairly say that inflation is low, but “no inflation” is incorrect.</t>
-        </is>
-      </c>
-      <c r="L368">
-        <v>2019</v>
-      </c>
-      <c r="M368">
-        <v>8</v>
-      </c>
-      <c r="N368">
-        <v>21</v>
-      </c>
-      <c r="O368" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P368">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>TWEET</t>
-        </is>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>APPROVAL AMONG REPUBLICANS</t>
-        </is>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>POLLS; POPULARITY; REPUBLICANS</t>
-        </is>
-      </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>“94% Approval Rating within the Republican Party. Thank you!”</t>
-        </is>
-      </c>
-      <c r="I369" t="inlineStr">
-        <is>
-          <t>He twice said he has a 94% approval rating among Republicans and the "highest of any Republican" in "history." (His approval with Republicans is very high, regularly in the 80s and sometimes creeping into the 90s, but it has not been 94% in any recent poll. Trump's Republican approval peak in Gallup polling ranks sixth out of seven post-World War II Republican presidents.)</t>
-        </is>
-      </c>
-      <c r="L369">
-        <v>2019</v>
-      </c>
-      <c r="M369">
-        <v>8</v>
-      </c>
-      <c r="N369">
-        <v>23</v>
-      </c>
-      <c r="O369" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="P369">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>August 21 exchange with reporters</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>SHERROD BROWN, NAN WHALEY AND THE HOSPITAL VISIT</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>DEMOCRATS</t>
-        </is>
-      </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>Trump said, of his visits to hospitals in Dayton and El Paso after mass shootings in both cities, “Not only did they meet with me, they were pouring out of the room. The doctors were coming out of the operating rooms.”</t>
-        </is>
-      </c>
-      <c r="I370" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facts First: Doctors did not leave any active operating rooms, spokespeople for both the El Paso and Dayton hospitals said. The Dayton spokesperson said doctors did not even leave any patient rooms._x000D_
-"At no time did (or would) physicians or staff leave active operating rooms during the presidential visit. Our priority is always patient care," said Ryan Mielke, director of public affairs for the University Medical Center of El Paso._x000D_
-"Our physicians and staff at no time leave an active operating room, procedural area, or patient room to greet anyone," said Ben Sutherly, director of system communications for the Premier Health network, of which Miami Valley Hospital in Dayton is a part._x000D_
-You can read our full fact check of this claim here._x000D_
-</t>
-        </is>
-      </c>
-      <c r="J370" t="inlineStr">
-        <is>
-          <t>&lt;a href='https://www.cnn.com/2019/08/23/politics/fact-check-trump-wrong-doctors-el-paso-dayton/index.html' target='_blank'&gt;https://www.cnn.com/2019/08/23/politics/fact-check-trump-wrong-doctors-el-paso-dayton/index.html&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="L370">
-        <v>2019</v>
-      </c>
-      <c r="M370">
-        <v>8</v>
-      </c>
-      <c r="N370">
-        <v>21</v>
-      </c>
-      <c r="O370" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P370">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>27 YEARS</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>CHINA; ECONOMY</t>
-        </is>
-      </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>“China has had the worst year they’ve had in 27 years. And a lot of people are saying the worst year they’ve had in 54 years. OK?”</t>
-        </is>
-      </c>
-      <c r="I371" t="inlineStr">
-        <is>
-          <t>Facts First: China's official second-quarter GDP growth rate, 6.2%, was the worst since 1992, 27 years ago. There is no basis for the "52 or 54 years" claim.
-Trump has correctly cited this "27 years" statistic in the past without questioning it. This week, though, he has begun doubling it. He said Tuesday that "China has had the worst year they've had in 27 years" -- then added, "And a lot of people are saying the worst year they've had in 54 years."
-Experts say China's official statistics are unreliable, but there is no specific evidence for the "half a century" claim. Derek Scissors, an expert on US economic relations with Asia at the conservative American Enterprise Institute think tank, notes that going past 27 years ago skips over the 1989-to-1992 period in which China's growth slowed significantly after its 1989 crackdown on protests in Tiananmen Square.</t>
-        </is>
-      </c>
-      <c r="L371">
-        <v>2019</v>
-      </c>
-      <c r="M371">
-        <v>8</v>
-      </c>
-      <c r="N371">
-        <v>20</v>
-      </c>
-      <c r="O371" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="P371">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>August 23 exchange with reporters</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>27 YEARS</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>CHINA; ECONOMY; TRADE; TARIFFS</t>
-        </is>
-      </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>“At the same time, China has had the worst — the worst year probably in anywhere from 30 to 50 years. Their worst year.”</t>
-        </is>
-      </c>
-      <c r="I372" t="inlineStr">
-        <is>
-          <t>Facts First: China's official second-quarter GDP growth rate, 6.2%, was the worst since 1992, 27 years ago. There is no basis for the "52 or 54 years" claim.
-Trump has correctly cited this "27 years" statistic in the past without questioning it. This week, though, he has begun doubling it. He said Tuesday that "China has had the worst year they've had in 27 years" -- then added, "And a lot of people are saying the worst year they've had in 54 years."
-Experts say China's official statistics are unreliable, but there is no specific evidence for the "half a century" claim. Derek Scissors, an expert on US economic relations with Asia at the conservative American Enterprise Institute think tank, notes that going past 27 years ago skips over the 1989-to-1992 period in which China's growth slowed significantly after its 1989 crackdown on protests in Tiananmen Square.</t>
-        </is>
-      </c>
-      <c r="L372">
-        <v>2019</v>
-      </c>
-      <c r="M372">
-        <v>8</v>
-      </c>
-      <c r="N372">
-        <v>23</v>
-      </c>
-      <c r="O372" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="P372">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>CHINA TRADE DEFICIT</t>
-        </is>
-      </c>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>TRADE; CHINA; ECONOMY</t>
-        </is>
-      </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>“Long term, it’s imperative that somebody does this because our country cannot continue to pay China $500 billion a year because stupid people are running it…We have to solve the problem with China because they’re taking out $500 billion a year-plus. And that doesn’t include intellectual property theft and other things.”</t>
-        </is>
-      </c>
-      <c r="I373" t="inlineStr">
-        <is>
-          <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
-        </is>
-      </c>
-      <c r="L373">
-        <v>2019</v>
-      </c>
-      <c r="M373">
-        <v>8</v>
-      </c>
-      <c r="N373">
-        <v>20</v>
-      </c>
-      <c r="O373" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="P373">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="2">
+    <row r="380">
+      <c r="A380" s="2">
         <v>43702</v>
       </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>Remarks with UK Prime Minister Boris Johnson</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Remarks with Canadian Prime Minister Justin Trudeau</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
         <is>
           <t>REMARKS</t>
         </is>
       </c>
-      <c r="D374" t="inlineStr">
+      <c r="D380" t="inlineStr">
         <is>
           <t>BIARRITZ, FRANCE</t>
         </is>
       </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>CHINA TRADE DEFICIT</t>
-        </is>
-      </c>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>TRADE; CHINA; ECONOMY</t>
-        </is>
-      </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>“I think when they steal and take out, and — intellectual property theft, anywhere from $300 billion to $500 billion a year, and where we have a total loss of almost a trillion dollars a year — for many years, this has been going on — in many ways, that’s an emergency.”</t>
-        </is>
-      </c>
-      <c r="I374" t="inlineStr">
-        <is>
-          <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
-        </is>
-      </c>
-      <c r="L374">
-        <v>2019</v>
-      </c>
-      <c r="M374">
-        <v>8</v>
-      </c>
-      <c r="N374">
-        <v>25</v>
-      </c>
-      <c r="O374" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="P374">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>August 23 exchange with reporters</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>CHINA TRADE DEFICIT</t>
-        </is>
-      </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>TRADE; CHINA; ECONOMY</t>
-        </is>
-      </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>“They’ve been hitting us for many, many years — for over $500 billion a year — taking out of our country much more than $500 billion a year.”</t>
-        </is>
-      </c>
-      <c r="I375" t="inlineStr">
-        <is>
-          <t>It has never been $500 billion; it was $381 billion last year when counting goods and services, $420 billion when counting goods alone.)</t>
-        </is>
-      </c>
-      <c r="L375">
-        <v>2019</v>
-      </c>
-      <c r="M375">
-        <v>8</v>
-      </c>
-      <c r="N375">
-        <v>23</v>
-      </c>
-      <c r="O375" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="P375">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="2">
-        <v>43699</v>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>TWEET</t>
-        </is>
-      </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>DAN MCCREADY</t>
-        </is>
-      </c>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>DEMOCRATS</t>
-        </is>
-      </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>“Looking forward to soon being in North Carolina to hold a big rally for wonderful Dan Bishop, who is running for Congress. His opponent wants Open Borders, Sanctuary Cities, and Socialism. He likes the ‘Squad’ more than North Carolina.”</t>
-        </is>
-      </c>
-      <c r="I376" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facts First: Trump was referring to Bishop’s Democratic opponent, Dan McCready, who does not support “open borders.”_x000D_
-McCready’s website says he wants comprehensive immigration reform "that secures our border, respects our laws and protects our American values." He calls for the government to "reinforce physical barriers with the technology Dan used in the Marines, like infrared cameras and drones."_x000D_
-We can’t definitively fact check Trump’s claims about how much McCready likes his state or other politicians, but it’s worth noting that McCready returned a $2,000 donation from one member of “The Squad,” Rep. Ilhan Omar, after she was criticized for remarks both Republicans and many Democrats said were anti-Semitic._x000D_
-We tend to ignore Trump’s claims that various Democrats support “socialism,” since definitions of the term vary, but we'll point out that McCready advocates tax cuts for the middle class and opposes two of the policies Republicans have derided as “socialist,” Medicare for All health plans and the Green New Deal environmental proposal._x000D_
-</t>
-        </is>
-      </c>
-      <c r="L376">
-        <v>2019</v>
-      </c>
-      <c r="M376">
-        <v>8</v>
-      </c>
-      <c r="N376">
-        <v>22</v>
-      </c>
-      <c r="O376" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="P376">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="2">
-        <v>43702</v>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>Remarks with Canadian Prime Minister Justin Trudeau</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>REMARKS</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>BIARRITZ, FRANCE</t>
-        </is>
-      </c>
-      <c r="F377" t="inlineStr">
+      <c r="F380" t="inlineStr">
         <is>
           <t>USMCA AND UNIONS</t>
         </is>
       </c>
-      <c r="G377" t="inlineStr">
+      <c r="G380" t="inlineStr">
         <is>
           <t>TRADE</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
+      <c r="H380" t="inlineStr">
         <is>
           <t>“So, we’re going to be significantly expanding our trading relationship when the USMCA gets done and completed. Our farmers love it. The unions love it. The workers love it.”</t>
         </is>
       </c>
-      <c r="I377" t="inlineStr">
+      <c r="I380" t="inlineStr">
         <is>
           <t xml:space="preserve">Facts First: On the whole, American unions do not “love” Trump’s North American trade agreement, a revised version of NAFTA. The AFL-CIO, a large labor federation made up of 55 unions, says changes must be made to the agreement before the federation could possibly be supportive._x000D_
 Asked by Politico in June about a previous version of Trump’s claim that unions love the agreement, AFL-CIO president Richard Trumka said, "Maybe he’s talking about the unions in some other country?” Trumka said he didn’t have a “clue” where Trump had gotten that impression._x000D_
@@ -22925,176 +23095,6 @@
 </t>
         </is>
       </c>
-      <c r="L377">
-        <v>2019</v>
-      </c>
-      <c r="M377">
-        <v>8</v>
-      </c>
-      <c r="N377">
-        <v>25</v>
-      </c>
-      <c r="O377" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="P377">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>Speech to the AMVETS national convention</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>SPEECH</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>LOUISVILLE</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>VA FIRING</t>
-        </is>
-      </c>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>VETERANS</t>
-        </is>
-      </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>“…I proudly signed into law the groundbreaking VA Accountability Act…Now somebody mistreats you or mistreats people in the VA and we know what happens, right? It’s called, ‘You’re fired…You’re fired. Get out of here. Get out of here.’ You couldn’t fire anyone for virtually any reason. They could do anything. So we have the Accountability Act.”</t>
-        </is>
-      </c>
-      <c r="I378" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facts First: While Trump might have been exaggerating here for effect, it's not true that "you couldn't fire anybody for virtually any reason" prior to the Veterans Affairs Accountability and Whistleblower Protection Act he signed into law in 2017. The VA fired an average of approximately 2,300 employees annually from 2005 to 2016, based on data collected by the Office of Personnel Management._x000D_
-However, the Clarion-Ledger newspaper in Mississippi did find several instances where VA employees who were registered sex offenders or had been indicted for killing patients, for example, retained their jobs. The legislation Trump signed simplified and expedited the process of terminating VA employees._x000D_
-</t>
-        </is>
-      </c>
-      <c r="L378">
-        <v>2019</v>
-      </c>
-      <c r="M378">
-        <v>8</v>
-      </c>
-      <c r="N378">
-        <v>21</v>
-      </c>
-      <c r="O378" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P378">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>August 21 exchange with reporters</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>EU TRADE DEFICIT</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>TRADE</t>
-        </is>
-      </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>“We're the one that all these countries -- including the European Union -- wants to rob and takes advantage of. European Union -- $200 billion.”</t>
-        </is>
-      </c>
-      <c r="I379" t="inlineStr">
-        <is>
-          <t>Facts First: The trade deficit with the European Union was $114 billion in 2018, $101 billion in 2017, $93 billion in 2016.</t>
-        </is>
-      </c>
-      <c r="L379">
-        <v>2019</v>
-      </c>
-      <c r="M379">
-        <v>8</v>
-      </c>
-      <c r="N379">
-        <v>21</v>
-      </c>
-      <c r="O379" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="P379">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Exchange with reporters during meeting with Romanian president Klaus Iohannis</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>EXCHANGE WITH REPORTERS</t>
-        </is>
-      </c>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>AFGHANISTAN AND THE SOVIET UNION</t>
-        </is>
-      </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>AFGHANISTAN; RUSSIA</t>
-        </is>
-      </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>“And, remember, it’s a tough place. The Soviet Union became Russia because of Afghanistan. That’s what happened. Very simple. They became Russia because of Afghanistan.”</t>
-        </is>
-      </c>
-      <c r="I380" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facts First: It’s not so simple. The Soviet Union’s invasion of Afghanistan was perhaps one contributing factor in its collapse, but it was certainly far from the only reason, experts say. (And, of course, the Soviet Union dissolved into 15 separate countries; it did not simply turn into “Russia” with the same borders.)_x000D_
-The Washington Post delved at length into a previous version of this Trump claim; it quoted two Russia historians who said Trump’s history was overly simplistic. "I think most scholars would agree that Afghanistan was a contributing factor in the Soviet collapse, but I don’t think anyone would go so far as to pin sole blame for the collapse on Afghanistan or to say that the Soviets went ‘bankrupt fighting in Afghanistan,” Sarah Cameron, a University of Maryland professor, told the Post. “The moral, social and political costs of the war were substantial and contributed to the crisis of the Soviet Union, but it wasn’t a decisive financial burden,” Eric Lohr, chair of the history department at American University, told the Post._x000D_
-</t>
-        </is>
-      </c>
       <c r="L380">
         <v>2019</v>
       </c>
@@ -23102,11 +23102,11 @@
         <v>8</v>
       </c>
       <c r="N380">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="P380">

--- a/saved_versions/fcheck_temp.xlsx
+++ b/saved_versions/fcheck_temp.xlsx
@@ -6048,9 +6048,9 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Facts First: Congress has not approved $92 billion for Puerto Rico hurricane relief. As of the week of Trump's tweet, the federal government's relief tracking website said $42.5 billion had been allocated to Puerto Rico between 2017 and 2019 and $13.6 billion spent -- neither of which are double the combined amounts for Texas and Florida._x000D__x000D_
-At the time, $36.7 billion had been allocated to Texas and Florida combined; $12.6 billion had been spent on Texas and Florida combined._x000D__x000D_
-As the Washington Post first explained, the $92 billion is an approximate long-term estimate of hurricane-related obligations to Puerto Rico, including money not yet being considered by Congress._x000D__x000D_
+          <t xml:space="preserve">Facts First: Congress has not approved $92 billion for Puerto Rico hurricane relief. As of the week of Trump's tweet, the federal government's relief tracking website said $42.5 billion had been allocated to Puerto Rico between 2017 and 2019 and $13.6 billion spent -- neither of which are double the combined amounts for Texas and Florida.
+At the time, $36.7 billion had been allocated to Texas and Florida combined; $12.6 billion had been spent on Texas and Florida combined.
+As the Washington Post first explained, the $92 billion is an approximate long-term estimate of hurricane-related obligations to Puerto Rico, including money not yet being considered by Congress.
 </t>
         </is>
       </c>

--- a/saved_versions/fcheck_temp.xlsx
+++ b/saved_versions/fcheck_temp.xlsx
@@ -355,13 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P380"/>
+  <dimension ref="A1:Q380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -445,6 +446,11 @@
           <t>isoweek</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>isoweek_floor_date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -503,6 +509,9 @@
       <c r="P2">
         <v>28</v>
       </c>
+      <c r="Q2" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -561,6 +570,9 @@
       <c r="P3">
         <v>28</v>
       </c>
+      <c r="Q3" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -620,6 +632,9 @@
       <c r="P4">
         <v>28</v>
       </c>
+      <c r="Q4" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -684,6 +699,9 @@
       <c r="P5">
         <v>28</v>
       </c>
+      <c r="Q5" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -747,6 +765,9 @@
       <c r="P6">
         <v>28</v>
       </c>
+      <c r="Q6" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -805,6 +826,9 @@
       <c r="P7">
         <v>28</v>
       </c>
+      <c r="Q7" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -863,6 +887,9 @@
       <c r="P8">
         <v>28</v>
       </c>
+      <c r="Q8" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -921,6 +948,9 @@
       <c r="P9">
         <v>28</v>
       </c>
+      <c r="Q9" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -980,6 +1010,9 @@
       <c r="P10">
         <v>28</v>
       </c>
+      <c r="Q10" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -1038,6 +1071,9 @@
       <c r="P11">
         <v>28</v>
       </c>
+      <c r="Q11" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -1096,6 +1132,9 @@
       <c r="P12">
         <v>28</v>
       </c>
+      <c r="Q12" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -1154,6 +1193,9 @@
       <c r="P13">
         <v>28</v>
       </c>
+      <c r="Q13" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -1212,6 +1254,9 @@
       </c>
       <c r="P14">
         <v>28</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>43654</v>
       </c>
     </row>
     <row r="15">
@@ -1275,6 +1320,9 @@
       <c r="P15">
         <v>28</v>
       </c>
+      <c r="Q15" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1332,6 +1380,9 @@
       </c>
       <c r="P16">
         <v>28</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>43654</v>
       </c>
     </row>
     <row r="17">
@@ -1393,6 +1444,9 @@
       <c r="P17">
         <v>28</v>
       </c>
+      <c r="Q17" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1453,6 +1507,9 @@
       <c r="P18">
         <v>28</v>
       </c>
+      <c r="Q18" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -1511,6 +1568,9 @@
       <c r="P19">
         <v>28</v>
       </c>
+      <c r="Q19" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -1570,6 +1630,9 @@
       <c r="P20">
         <v>28</v>
       </c>
+      <c r="Q20" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -1639,6 +1702,9 @@
       <c r="P21">
         <v>28</v>
       </c>
+      <c r="Q21" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -1703,6 +1769,9 @@
       <c r="P22">
         <v>28</v>
       </c>
+      <c r="Q22" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -1766,6 +1835,9 @@
       <c r="P23">
         <v>28</v>
       </c>
+      <c r="Q23" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -1830,6 +1902,9 @@
       <c r="P24">
         <v>28</v>
       </c>
+      <c r="Q24" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -1894,6 +1969,9 @@
       <c r="P25">
         <v>28</v>
       </c>
+      <c r="Q25" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
@@ -1957,6 +2035,9 @@
       <c r="P26">
         <v>28</v>
       </c>
+      <c r="Q26" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -2019,6 +2100,9 @@
       </c>
       <c r="P27">
         <v>28</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>43654</v>
       </c>
     </row>
     <row r="28">
@@ -2087,6 +2171,9 @@
       <c r="P28">
         <v>28</v>
       </c>
+      <c r="Q28" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -2150,6 +2237,9 @@
       <c r="P29">
         <v>28</v>
       </c>
+      <c r="Q29" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -2213,6 +2303,9 @@
       <c r="P30">
         <v>28</v>
       </c>
+      <c r="Q30" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -2266,6 +2359,9 @@
       <c r="P31">
         <v>28</v>
       </c>
+      <c r="Q31" s="2">
+        <v>43654</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -2323,6 +2419,9 @@
       </c>
       <c r="P32">
         <v>29</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="33">
@@ -2388,6 +2487,9 @@
       <c r="P33">
         <v>29</v>
       </c>
+      <c r="Q33" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -2442,6 +2544,9 @@
       <c r="P34">
         <v>29</v>
       </c>
+      <c r="Q34" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -2496,6 +2601,9 @@
       <c r="P35">
         <v>29</v>
       </c>
+      <c r="Q35" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
@@ -2550,6 +2658,9 @@
       <c r="P36">
         <v>29</v>
       </c>
+      <c r="Q36" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
@@ -2602,6 +2713,9 @@
       <c r="P37">
         <v>29</v>
       </c>
+      <c r="Q37" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -2666,6 +2780,9 @@
       <c r="P38">
         <v>29</v>
       </c>
+      <c r="Q38" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
@@ -2728,6 +2845,9 @@
       </c>
       <c r="P39">
         <v>29</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="40">
@@ -2794,6 +2914,9 @@
       <c r="P40">
         <v>29</v>
       </c>
+      <c r="Q40" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
@@ -2857,6 +2980,9 @@
       <c r="P41">
         <v>29</v>
       </c>
+      <c r="Q41" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
@@ -2921,6 +3047,9 @@
       <c r="P42">
         <v>29</v>
       </c>
+      <c r="Q42" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
@@ -2985,6 +3114,9 @@
       <c r="P43">
         <v>29</v>
       </c>
+      <c r="Q43" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
@@ -3048,6 +3180,9 @@
       <c r="P44">
         <v>29</v>
       </c>
+      <c r="Q44" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
@@ -3112,6 +3247,9 @@
       <c r="P45">
         <v>29</v>
       </c>
+      <c r="Q45" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
@@ -3175,6 +3313,9 @@
       <c r="P46">
         <v>29</v>
       </c>
+      <c r="Q46" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
@@ -3238,6 +3379,9 @@
       <c r="P47">
         <v>29</v>
       </c>
+      <c r="Q47" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
@@ -3301,6 +3445,9 @@
       <c r="P48">
         <v>29</v>
       </c>
+      <c r="Q48" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -3363,6 +3510,9 @@
       </c>
       <c r="P49">
         <v>29</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="50">
@@ -3430,6 +3580,9 @@
       <c r="P50">
         <v>29</v>
       </c>
+      <c r="Q50" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
@@ -3490,6 +3643,9 @@
       <c r="P51">
         <v>29</v>
       </c>
+      <c r="Q51" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
@@ -3555,6 +3711,9 @@
       <c r="P52">
         <v>29</v>
       </c>
+      <c r="Q52" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
@@ -3619,6 +3778,9 @@
       <c r="P53">
         <v>29</v>
       </c>
+      <c r="Q53" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
@@ -3681,6 +3843,9 @@
       <c r="P54">
         <v>29</v>
       </c>
+      <c r="Q54" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -3749,6 +3914,9 @@
       <c r="P55">
         <v>29</v>
       </c>
+      <c r="Q55" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
@@ -3817,6 +3985,9 @@
       <c r="P56">
         <v>29</v>
       </c>
+      <c r="Q56" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -3884,6 +4055,9 @@
       <c r="P57">
         <v>29</v>
       </c>
+      <c r="Q57" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -3953,6 +4127,9 @@
       <c r="P58">
         <v>29</v>
       </c>
+      <c r="Q58" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -4021,6 +4198,9 @@
       </c>
       <c r="P59">
         <v>29</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="60">
@@ -4092,6 +4272,9 @@
       <c r="P60">
         <v>29</v>
       </c>
+      <c r="Q60" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -4162,6 +4345,9 @@
       <c r="P61">
         <v>29</v>
       </c>
+      <c r="Q61" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
@@ -4232,6 +4418,9 @@
       <c r="P62">
         <v>29</v>
       </c>
+      <c r="Q62" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
@@ -4301,6 +4490,9 @@
       <c r="P63">
         <v>29</v>
       </c>
+      <c r="Q63" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -4370,6 +4562,9 @@
       <c r="P64">
         <v>29</v>
       </c>
+      <c r="Q64" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -4439,6 +4634,9 @@
       <c r="P65">
         <v>29</v>
       </c>
+      <c r="Q65" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -4506,6 +4704,9 @@
       </c>
       <c r="P66">
         <v>29</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="67">
@@ -4577,6 +4778,9 @@
       <c r="P67">
         <v>29</v>
       </c>
+      <c r="Q67" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -4646,6 +4850,9 @@
       <c r="P68">
         <v>29</v>
       </c>
+      <c r="Q68" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
@@ -4714,6 +4921,9 @@
       <c r="P69">
         <v>29</v>
       </c>
+      <c r="Q69" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -4782,6 +4992,9 @@
       <c r="P70">
         <v>29</v>
       </c>
+      <c r="Q70" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
@@ -4849,6 +5062,9 @@
       </c>
       <c r="P71">
         <v>29</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="72">
@@ -4920,6 +5136,9 @@
       <c r="P72">
         <v>29</v>
       </c>
+      <c r="Q72" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
@@ -4988,6 +5207,9 @@
       <c r="P73">
         <v>29</v>
       </c>
+      <c r="Q73" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -5051,6 +5273,9 @@
       <c r="P74">
         <v>29</v>
       </c>
+      <c r="Q74" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -5109,6 +5334,9 @@
       </c>
       <c r="P75">
         <v>29</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="76">
@@ -5175,6 +5403,9 @@
       </c>
       <c r="P76">
         <v>29</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="77">
@@ -5241,6 +5472,9 @@
       <c r="P77">
         <v>29</v>
       </c>
+      <c r="Q77" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -5303,6 +5537,9 @@
       <c r="P78">
         <v>29</v>
       </c>
+      <c r="Q78" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
@@ -5363,6 +5600,9 @@
       <c r="P79">
         <v>29</v>
       </c>
+      <c r="Q79" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -5421,6 +5661,9 @@
       </c>
       <c r="P80">
         <v>29</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="81">
@@ -5482,6 +5725,9 @@
       <c r="P81">
         <v>29</v>
       </c>
+      <c r="Q81" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
@@ -5540,6 +5786,9 @@
       </c>
       <c r="P82">
         <v>29</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="83">
@@ -5605,6 +5854,9 @@
       <c r="P83">
         <v>29</v>
       </c>
+      <c r="Q83" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -5664,6 +5916,9 @@
       <c r="P84">
         <v>29</v>
       </c>
+      <c r="Q84" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -5722,6 +5977,9 @@
       </c>
       <c r="P85">
         <v>29</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="86">
@@ -5782,6 +6040,9 @@
       </c>
       <c r="P86">
         <v>29</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="87">
@@ -5849,6 +6110,9 @@
       <c r="P87">
         <v>29</v>
       </c>
+      <c r="Q87" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -5902,6 +6166,9 @@
       </c>
       <c r="P88">
         <v>29</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="89">
@@ -5958,6 +6225,9 @@
       </c>
       <c r="P89">
         <v>29</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>43661</v>
       </c>
     </row>
     <row r="90">
@@ -6016,6 +6286,9 @@
       <c r="P90">
         <v>29</v>
       </c>
+      <c r="Q90" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -6071,6 +6344,9 @@
       <c r="P91">
         <v>29</v>
       </c>
+      <c r="Q91" s="2">
+        <v>43661</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -6129,6 +6405,9 @@
       </c>
       <c r="P92">
         <v>30</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="93">
@@ -6192,6 +6471,9 @@
       <c r="P93">
         <v>30</v>
       </c>
+      <c r="Q93" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -6251,6 +6533,9 @@
       </c>
       <c r="P94">
         <v>30</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="95">
@@ -6313,6 +6598,9 @@
       <c r="P95">
         <v>30</v>
       </c>
+      <c r="Q95" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -6373,6 +6661,9 @@
       <c r="P96">
         <v>30</v>
       </c>
+      <c r="Q96" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -6429,6 +6720,9 @@
       </c>
       <c r="P97">
         <v>30</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="98">
@@ -6491,6 +6785,9 @@
       <c r="P98">
         <v>30</v>
       </c>
+      <c r="Q98" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -6554,6 +6851,9 @@
       <c r="P99">
         <v>30</v>
       </c>
+      <c r="Q99" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -6614,6 +6914,9 @@
       <c r="P100">
         <v>30</v>
       </c>
+      <c r="Q100" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -6674,6 +6977,9 @@
       <c r="P101">
         <v>30</v>
       </c>
+      <c r="Q101" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
@@ -6732,6 +7038,9 @@
       </c>
       <c r="P102">
         <v>30</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="103">
@@ -6794,6 +7103,9 @@
       <c r="P103">
         <v>30</v>
       </c>
+      <c r="Q103" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
@@ -6852,6 +7164,9 @@
       </c>
       <c r="P104">
         <v>30</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="105">
@@ -6915,6 +7230,9 @@
       <c r="P105">
         <v>30</v>
       </c>
+      <c r="Q105" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
@@ -6976,6 +7294,9 @@
       <c r="P106">
         <v>30</v>
       </c>
+      <c r="Q106" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
@@ -7037,6 +7358,9 @@
       <c r="P107">
         <v>30</v>
       </c>
+      <c r="Q107" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -7093,6 +7417,9 @@
       <c r="P108">
         <v>30</v>
       </c>
+      <c r="Q108" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
@@ -7148,6 +7475,9 @@
       <c r="P109">
         <v>30</v>
       </c>
+      <c r="Q109" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
@@ -7208,6 +7538,9 @@
       <c r="P110">
         <v>30</v>
       </c>
+      <c r="Q110" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
@@ -7268,6 +7601,9 @@
       <c r="P111">
         <v>30</v>
       </c>
+      <c r="Q111" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
@@ -7328,6 +7664,9 @@
       <c r="P112">
         <v>30</v>
       </c>
+      <c r="Q112" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
@@ -7384,6 +7723,9 @@
       </c>
       <c r="P113">
         <v>30</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="114">
@@ -7446,6 +7788,9 @@
       <c r="P114">
         <v>30</v>
       </c>
+      <c r="Q114" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
@@ -7507,6 +7852,9 @@
       <c r="P115">
         <v>30</v>
       </c>
+      <c r="Q115" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
@@ -7568,6 +7916,9 @@
       <c r="P116">
         <v>30</v>
       </c>
+      <c r="Q116" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
@@ -7627,6 +7978,9 @@
       <c r="P117">
         <v>30</v>
       </c>
+      <c r="Q117" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
@@ -7686,6 +8040,9 @@
       <c r="P118">
         <v>30</v>
       </c>
+      <c r="Q118" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
@@ -7745,6 +8102,9 @@
       <c r="P119">
         <v>30</v>
       </c>
+      <c r="Q119" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
@@ -7801,6 +8161,9 @@
       </c>
       <c r="P120">
         <v>30</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="121">
@@ -7866,6 +8229,9 @@
       <c r="P121">
         <v>30</v>
       </c>
+      <c r="Q121" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
@@ -7925,6 +8291,9 @@
       <c r="P122">
         <v>30</v>
       </c>
+      <c r="Q122" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
@@ -7981,6 +8350,9 @@
       </c>
       <c r="P123">
         <v>30</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="124">
@@ -8043,6 +8415,9 @@
       <c r="P124">
         <v>30</v>
       </c>
+      <c r="Q124" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
@@ -8100,6 +8475,9 @@
       <c r="P125">
         <v>30</v>
       </c>
+      <c r="Q125" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
@@ -8159,6 +8537,9 @@
       <c r="P126">
         <v>30</v>
       </c>
+      <c r="Q126" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
@@ -8217,6 +8598,9 @@
       </c>
       <c r="P127">
         <v>30</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="128">
@@ -8279,6 +8663,9 @@
       <c r="P128">
         <v>30</v>
       </c>
+      <c r="Q128" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
@@ -8339,6 +8726,9 @@
       <c r="P129">
         <v>30</v>
       </c>
+      <c r="Q129" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
@@ -8398,6 +8788,9 @@
       </c>
       <c r="P130">
         <v>30</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="131">
@@ -8460,6 +8853,9 @@
       <c r="P131">
         <v>30</v>
       </c>
+      <c r="Q131" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
@@ -8519,6 +8915,9 @@
       </c>
       <c r="P132">
         <v>30</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="133">
@@ -8579,6 +8978,9 @@
       <c r="P133">
         <v>30</v>
       </c>
+      <c r="Q133" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
@@ -8632,6 +9034,9 @@
       </c>
       <c r="P134">
         <v>30</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="135">
@@ -8688,6 +9093,9 @@
       <c r="P135">
         <v>30</v>
       </c>
+      <c r="Q135" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
@@ -8740,6 +9148,9 @@
       <c r="P136">
         <v>30</v>
       </c>
+      <c r="Q136" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
@@ -8794,6 +9205,9 @@
       <c r="P137">
         <v>30</v>
       </c>
+      <c r="Q137" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
@@ -8847,6 +9261,9 @@
       </c>
       <c r="P138">
         <v>30</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="139">
@@ -8904,6 +9321,9 @@
       <c r="P139">
         <v>30</v>
       </c>
+      <c r="Q139" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
@@ -8958,6 +9378,9 @@
       </c>
       <c r="P140">
         <v>30</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="141">
@@ -9014,6 +9437,9 @@
       </c>
       <c r="P141">
         <v>30</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="142">
@@ -9071,6 +9497,9 @@
       </c>
       <c r="P142">
         <v>30</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="143">
@@ -9133,6 +9562,9 @@
       <c r="P143">
         <v>30</v>
       </c>
+      <c r="Q143" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
@@ -9190,6 +9622,9 @@
       <c r="P144">
         <v>30</v>
       </c>
+      <c r="Q144" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
@@ -9247,6 +9682,9 @@
       <c r="P145">
         <v>30</v>
       </c>
+      <c r="Q145" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
@@ -9308,6 +9746,9 @@
       <c r="P146">
         <v>30</v>
       </c>
+      <c r="Q146" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
@@ -9368,6 +9809,9 @@
       <c r="P147">
         <v>30</v>
       </c>
+      <c r="Q147" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
@@ -9427,6 +9871,9 @@
       <c r="P148">
         <v>30</v>
       </c>
+      <c r="Q148" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
@@ -9484,6 +9931,9 @@
       <c r="P149">
         <v>30</v>
       </c>
+      <c r="Q149" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
@@ -9542,6 +9992,9 @@
       </c>
       <c r="P150">
         <v>30</v>
+      </c>
+      <c r="Q150" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="151">
@@ -9603,6 +10056,9 @@
       <c r="P151">
         <v>30</v>
       </c>
+      <c r="Q151" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
@@ -9662,6 +10118,9 @@
       </c>
       <c r="P152">
         <v>30</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="153">
@@ -9724,6 +10183,9 @@
       <c r="P153">
         <v>30</v>
       </c>
+      <c r="Q153" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -9783,6 +10245,9 @@
       <c r="P154">
         <v>30</v>
       </c>
+      <c r="Q154" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -9842,6 +10307,9 @@
       <c r="P155">
         <v>30</v>
       </c>
+      <c r="Q155" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -9898,6 +10366,9 @@
       </c>
       <c r="P156">
         <v>30</v>
+      </c>
+      <c r="Q156" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="157">
@@ -9960,6 +10431,9 @@
       <c r="P157">
         <v>30</v>
       </c>
+      <c r="Q157" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
@@ -10020,6 +10494,9 @@
       <c r="P158">
         <v>30</v>
       </c>
+      <c r="Q158" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -10079,6 +10556,9 @@
       <c r="P159">
         <v>30</v>
       </c>
+      <c r="Q159" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -10137,6 +10617,9 @@
       </c>
       <c r="P160">
         <v>30</v>
+      </c>
+      <c r="Q160" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="161">
@@ -10198,6 +10681,9 @@
       <c r="P161">
         <v>30</v>
       </c>
+      <c r="Q161" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -10258,6 +10744,9 @@
       <c r="P162">
         <v>30</v>
       </c>
+      <c r="Q162" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
@@ -10316,6 +10805,9 @@
       </c>
       <c r="P163">
         <v>30</v>
+      </c>
+      <c r="Q163" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="164">
@@ -10378,6 +10870,9 @@
       <c r="P164">
         <v>30</v>
       </c>
+      <c r="Q164" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
@@ -10438,6 +10933,9 @@
       <c r="P165">
         <v>30</v>
       </c>
+      <c r="Q165" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
@@ -10498,6 +10996,9 @@
       <c r="P166">
         <v>30</v>
       </c>
+      <c r="Q166" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
@@ -10557,6 +11058,9 @@
       <c r="P167">
         <v>30</v>
       </c>
+      <c r="Q167" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
@@ -10611,6 +11115,9 @@
       <c r="P168">
         <v>30</v>
       </c>
+      <c r="Q168" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
@@ -10664,6 +11171,9 @@
       </c>
       <c r="P169">
         <v>30</v>
+      </c>
+      <c r="Q169" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="170">
@@ -10720,6 +11230,9 @@
       <c r="P170">
         <v>30</v>
       </c>
+      <c r="Q170" s="2">
+        <v>43668</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
@@ -10773,6 +11286,9 @@
       </c>
       <c r="P171">
         <v>30</v>
+      </c>
+      <c r="Q171" s="2">
+        <v>43668</v>
       </c>
     </row>
     <row r="172">
@@ -10830,6 +11346,9 @@
       <c r="P172">
         <v>31</v>
       </c>
+      <c r="Q172" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
@@ -10886,6 +11405,9 @@
       <c r="P173">
         <v>31</v>
       </c>
+      <c r="Q173" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
@@ -10941,6 +11463,9 @@
       <c r="P174">
         <v>31</v>
       </c>
+      <c r="Q174" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
@@ -10995,6 +11520,9 @@
       </c>
       <c r="P175">
         <v>31</v>
+      </c>
+      <c r="Q175" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="176">
@@ -11052,6 +11580,9 @@
       <c r="P176">
         <v>31</v>
       </c>
+      <c r="Q176" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
@@ -11105,6 +11636,9 @@
       </c>
       <c r="P177">
         <v>31</v>
+      </c>
+      <c r="Q177" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="178">
@@ -11161,6 +11695,9 @@
       </c>
       <c r="P178">
         <v>31</v>
+      </c>
+      <c r="Q178" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="179">
@@ -11219,6 +11756,9 @@
       <c r="P179">
         <v>31</v>
       </c>
+      <c r="Q179" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
@@ -11279,6 +11819,9 @@
       <c r="P180">
         <v>31</v>
       </c>
+      <c r="Q180" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
@@ -11333,6 +11876,9 @@
       </c>
       <c r="P181">
         <v>31</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="182">
@@ -11392,6 +11938,9 @@
       <c r="P182">
         <v>31</v>
       </c>
+      <c r="Q182" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
@@ -11449,6 +11998,9 @@
       <c r="P183">
         <v>31</v>
       </c>
+      <c r="Q183" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
@@ -11504,6 +12056,9 @@
       <c r="P184">
         <v>31</v>
       </c>
+      <c r="Q184" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
@@ -11557,6 +12112,9 @@
       <c r="P185">
         <v>31</v>
       </c>
+      <c r="Q185" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
@@ -11609,6 +12167,9 @@
       </c>
       <c r="P186">
         <v>31</v>
+      </c>
+      <c r="Q186" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="187">
@@ -11664,6 +12225,9 @@
       </c>
       <c r="P187">
         <v>31</v>
+      </c>
+      <c r="Q187" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="188">
@@ -11722,6 +12286,9 @@
       <c r="P188">
         <v>31</v>
       </c>
+      <c r="Q188" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
@@ -11775,6 +12342,9 @@
       </c>
       <c r="P189">
         <v>31</v>
+      </c>
+      <c r="Q189" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="190">
@@ -11830,6 +12400,9 @@
       </c>
       <c r="P190">
         <v>31</v>
+      </c>
+      <c r="Q190" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="191">
@@ -11887,6 +12460,9 @@
       </c>
       <c r="P191">
         <v>31</v>
+      </c>
+      <c r="Q191" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="192">
@@ -11946,6 +12522,9 @@
       <c r="P192">
         <v>31</v>
       </c>
+      <c r="Q192" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
@@ -12010,6 +12589,9 @@
       </c>
       <c r="P193">
         <v>31</v>
+      </c>
+      <c r="Q193" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="194">
@@ -12078,6 +12660,9 @@
       <c r="P194">
         <v>31</v>
       </c>
+      <c r="Q194" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
@@ -12142,6 +12727,9 @@
       <c r="P195">
         <v>31</v>
       </c>
+      <c r="Q195" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
@@ -12206,6 +12794,9 @@
       <c r="P196">
         <v>31</v>
       </c>
+      <c r="Q196" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
@@ -12270,6 +12861,9 @@
       <c r="P197">
         <v>31</v>
       </c>
+      <c r="Q197" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
@@ -12333,6 +12927,9 @@
       </c>
       <c r="P198">
         <v>31</v>
+      </c>
+      <c r="Q198" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="199">
@@ -12401,6 +12998,9 @@
       <c r="P199">
         <v>31</v>
       </c>
+      <c r="Q199" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
@@ -12464,6 +13064,9 @@
       </c>
       <c r="P200">
         <v>31</v>
+      </c>
+      <c r="Q200" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="201">
@@ -12530,6 +13133,9 @@
       <c r="P201">
         <v>31</v>
       </c>
+      <c r="Q201" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
@@ -12594,6 +13200,9 @@
       <c r="P202">
         <v>31</v>
       </c>
+      <c r="Q202" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
@@ -12658,6 +13267,9 @@
       <c r="P203">
         <v>31</v>
       </c>
+      <c r="Q203" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
@@ -12722,6 +13334,9 @@
       <c r="P204">
         <v>31</v>
       </c>
+      <c r="Q204" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
@@ -12786,6 +13401,9 @@
       <c r="P205">
         <v>31</v>
       </c>
+      <c r="Q205" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
@@ -12849,6 +13467,9 @@
       </c>
       <c r="P206">
         <v>31</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="207">
@@ -12915,6 +13536,9 @@
       </c>
       <c r="P207">
         <v>31</v>
+      </c>
+      <c r="Q207" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="208">
@@ -12984,6 +13608,9 @@
       <c r="P208">
         <v>31</v>
       </c>
+      <c r="Q208" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
@@ -13050,6 +13677,9 @@
       <c r="P209">
         <v>31</v>
       </c>
+      <c r="Q209" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
@@ -13114,6 +13744,9 @@
       <c r="P210">
         <v>31</v>
       </c>
+      <c r="Q210" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
@@ -13178,6 +13811,9 @@
       <c r="P211">
         <v>31</v>
       </c>
+      <c r="Q211" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
@@ -13242,6 +13878,9 @@
       <c r="P212">
         <v>31</v>
       </c>
+      <c r="Q212" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
@@ -13304,6 +13943,9 @@
       <c r="P213">
         <v>31</v>
       </c>
+      <c r="Q213" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
@@ -13367,6 +14009,9 @@
       </c>
       <c r="P214">
         <v>31</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="215">
@@ -13432,6 +14077,9 @@
       </c>
       <c r="P215">
         <v>31</v>
+      </c>
+      <c r="Q215" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="216">
@@ -13501,6 +14149,9 @@
       <c r="P216">
         <v>31</v>
       </c>
+      <c r="Q216" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
@@ -13564,6 +14215,9 @@
       </c>
       <c r="P217">
         <v>31</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="218">
@@ -13627,6 +14281,9 @@
       <c r="P218">
         <v>31</v>
       </c>
+      <c r="Q218" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
@@ -13692,6 +14349,9 @@
       </c>
       <c r="P219">
         <v>31</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="220">
@@ -13751,6 +14411,9 @@
       <c r="P220">
         <v>31</v>
       </c>
+      <c r="Q220" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
@@ -13804,6 +14467,9 @@
       <c r="P221">
         <v>31</v>
       </c>
+      <c r="Q221" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
@@ -13858,6 +14524,9 @@
       <c r="P222">
         <v>31</v>
       </c>
+      <c r="Q222" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2">
@@ -13916,6 +14585,9 @@
       <c r="P223">
         <v>31</v>
       </c>
+      <c r="Q223" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
@@ -13967,6 +14639,9 @@
       </c>
       <c r="P224">
         <v>31</v>
+      </c>
+      <c r="Q224" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="225">
@@ -14023,6 +14698,9 @@
       </c>
       <c r="P225">
         <v>31</v>
+      </c>
+      <c r="Q225" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="226">
@@ -14082,6 +14760,9 @@
       <c r="P226">
         <v>31</v>
       </c>
+      <c r="Q226" s="2">
+        <v>43675</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
@@ -14135,6 +14816,9 @@
       </c>
       <c r="P227">
         <v>31</v>
+      </c>
+      <c r="Q227" s="2">
+        <v>43675</v>
       </c>
     </row>
     <row r="228">
@@ -14192,6 +14876,9 @@
       <c r="P228">
         <v>32</v>
       </c>
+      <c r="Q228" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2">
@@ -14247,6 +14934,9 @@
       <c r="P229">
         <v>32</v>
       </c>
+      <c r="Q229" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
@@ -14300,6 +14990,9 @@
       <c r="P230">
         <v>32</v>
       </c>
+      <c r="Q230" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
@@ -14351,6 +15044,9 @@
       </c>
       <c r="P231">
         <v>32</v>
+      </c>
+      <c r="Q231" s="2">
+        <v>43682</v>
       </c>
     </row>
     <row r="232">
@@ -14408,6 +15104,9 @@
       <c r="P232">
         <v>32</v>
       </c>
+      <c r="Q232" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
@@ -14483,6 +15182,9 @@
       <c r="P233">
         <v>32</v>
       </c>
+      <c r="Q233" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
@@ -14545,6 +15247,9 @@
       </c>
       <c r="P234">
         <v>32</v>
+      </c>
+      <c r="Q234" s="2">
+        <v>43682</v>
       </c>
     </row>
     <row r="235">
@@ -14612,6 +15317,9 @@
       <c r="P235">
         <v>32</v>
       </c>
+      <c r="Q235" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
@@ -14666,6 +15374,9 @@
       <c r="P236">
         <v>32</v>
       </c>
+      <c r="Q236" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2">
@@ -14718,6 +15429,9 @@
       </c>
       <c r="P237">
         <v>32</v>
+      </c>
+      <c r="Q237" s="2">
+        <v>43682</v>
       </c>
     </row>
     <row r="238">
@@ -14784,6 +15498,9 @@
       <c r="P238">
         <v>32</v>
       </c>
+      <c r="Q238" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
@@ -14837,6 +15554,9 @@
       <c r="P239">
         <v>32</v>
       </c>
+      <c r="Q239" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
@@ -14891,6 +15611,9 @@
       <c r="P240">
         <v>32</v>
       </c>
+      <c r="Q240" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
@@ -14944,6 +15667,9 @@
       <c r="P241">
         <v>32</v>
       </c>
+      <c r="Q241" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
@@ -14996,6 +15722,9 @@
       <c r="P242">
         <v>32</v>
       </c>
+      <c r="Q242" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
@@ -15050,6 +15779,9 @@
       <c r="P243">
         <v>32</v>
       </c>
+      <c r="Q243" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
@@ -15104,6 +15836,9 @@
       <c r="P244">
         <v>32</v>
       </c>
+      <c r="Q244" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2">
@@ -15158,6 +15893,9 @@
       <c r="P245">
         <v>32</v>
       </c>
+      <c r="Q245" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2">
@@ -15210,6 +15948,9 @@
       </c>
       <c r="P246">
         <v>32</v>
+      </c>
+      <c r="Q246" s="2">
+        <v>43682</v>
       </c>
     </row>
     <row r="247">
@@ -15267,6 +16008,9 @@
       <c r="P247">
         <v>32</v>
       </c>
+      <c r="Q247" s="2">
+        <v>43682</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2">
@@ -15319,6 +16063,9 @@
       </c>
       <c r="P248">
         <v>32</v>
+      </c>
+      <c r="Q248" s="2">
+        <v>43682</v>
       </c>
     </row>
     <row r="249">
@@ -15377,6 +16124,9 @@
       <c r="P249">
         <v>33</v>
       </c>
+      <c r="Q249" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2">
@@ -15431,6 +16181,9 @@
       <c r="P250">
         <v>33</v>
       </c>
+      <c r="Q250" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2">
@@ -15484,6 +16237,9 @@
       </c>
       <c r="P251">
         <v>33</v>
+      </c>
+      <c r="Q251" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="252">
@@ -15550,6 +16306,9 @@
       <c r="P252">
         <v>33</v>
       </c>
+      <c r="Q252" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2">
@@ -15614,6 +16373,9 @@
       <c r="P253">
         <v>33</v>
       </c>
+      <c r="Q253" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2">
@@ -15678,6 +16440,9 @@
       <c r="P254">
         <v>33</v>
       </c>
+      <c r="Q254" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
@@ -15742,6 +16507,9 @@
       <c r="P255">
         <v>33</v>
       </c>
+      <c r="Q255" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2">
@@ -15806,6 +16574,9 @@
       <c r="P256">
         <v>33</v>
       </c>
+      <c r="Q256" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
@@ -15869,6 +16640,9 @@
       </c>
       <c r="P257">
         <v>33</v>
+      </c>
+      <c r="Q257" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="258">
@@ -15935,6 +16709,9 @@
       <c r="P258">
         <v>33</v>
       </c>
+      <c r="Q258" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2">
@@ -16010,6 +16787,9 @@
       <c r="P259">
         <v>33</v>
       </c>
+      <c r="Q259" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
@@ -16074,6 +16854,9 @@
       <c r="P260">
         <v>33</v>
       </c>
+      <c r="Q260" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2">
@@ -16136,6 +16919,9 @@
       </c>
       <c r="P261">
         <v>33</v>
+      </c>
+      <c r="Q261" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="262">
@@ -16202,6 +16988,9 @@
       <c r="P262">
         <v>33</v>
       </c>
+      <c r="Q262" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
@@ -16266,6 +17055,9 @@
       <c r="P263">
         <v>33</v>
       </c>
+      <c r="Q263" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
@@ -16328,6 +17120,9 @@
       <c r="P264">
         <v>33</v>
       </c>
+      <c r="Q264" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2">
@@ -16391,6 +17186,9 @@
       <c r="P265">
         <v>33</v>
       </c>
+      <c r="Q265" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2">
@@ -16454,6 +17252,9 @@
       <c r="P266">
         <v>33</v>
       </c>
+      <c r="Q266" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2">
@@ -16516,6 +17317,9 @@
       <c r="P267">
         <v>33</v>
       </c>
+      <c r="Q267" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2">
@@ -16577,6 +17381,9 @@
       </c>
       <c r="P268">
         <v>33</v>
+      </c>
+      <c r="Q268" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="269">
@@ -16643,6 +17450,9 @@
       <c r="P269">
         <v>33</v>
       </c>
+      <c r="Q269" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2">
@@ -16704,6 +17514,9 @@
       </c>
       <c r="P270">
         <v>33</v>
+      </c>
+      <c r="Q270" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="271">
@@ -16770,6 +17583,9 @@
       <c r="P271">
         <v>33</v>
       </c>
+      <c r="Q271" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2">
@@ -16834,6 +17650,9 @@
       <c r="P272">
         <v>33</v>
       </c>
+      <c r="Q272" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2">
@@ -16898,6 +17717,9 @@
       <c r="P273">
         <v>33</v>
       </c>
+      <c r="Q273" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2">
@@ -16962,6 +17784,9 @@
       <c r="P274">
         <v>33</v>
       </c>
+      <c r="Q274" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2">
@@ -17025,6 +17850,9 @@
       </c>
       <c r="P275">
         <v>33</v>
+      </c>
+      <c r="Q275" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="276">
@@ -17090,6 +17918,9 @@
       </c>
       <c r="P276">
         <v>33</v>
+      </c>
+      <c r="Q276" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="277">
@@ -17156,6 +17987,9 @@
       </c>
       <c r="P277">
         <v>33</v>
+      </c>
+      <c r="Q277" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="278">
@@ -17214,6 +18048,9 @@
       <c r="P278">
         <v>33</v>
       </c>
+      <c r="Q278" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2">
@@ -17271,6 +18108,9 @@
       <c r="P279">
         <v>33</v>
       </c>
+      <c r="Q279" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2">
@@ -17328,6 +18168,9 @@
       <c r="P280">
         <v>33</v>
       </c>
+      <c r="Q280" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2">
@@ -17380,6 +18223,9 @@
       </c>
       <c r="P281">
         <v>33</v>
+      </c>
+      <c r="Q281" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="282">
@@ -17438,6 +18284,9 @@
       <c r="P282">
         <v>33</v>
       </c>
+      <c r="Q282" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2">
@@ -17490,6 +18339,9 @@
       <c r="P283">
         <v>33</v>
       </c>
+      <c r="Q283" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2">
@@ -17543,6 +18395,9 @@
       <c r="P284">
         <v>33</v>
       </c>
+      <c r="Q284" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2">
@@ -17596,6 +18451,9 @@
       <c r="P285">
         <v>33</v>
       </c>
+      <c r="Q285" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2">
@@ -17650,6 +18508,9 @@
       <c r="P286">
         <v>33</v>
       </c>
+      <c r="Q286" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2">
@@ -17703,6 +18564,9 @@
       <c r="P287">
         <v>33</v>
       </c>
+      <c r="Q287" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2">
@@ -17756,6 +18620,9 @@
       </c>
       <c r="P288">
         <v>33</v>
+      </c>
+      <c r="Q288" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="289">
@@ -17813,6 +18680,9 @@
       <c r="P289">
         <v>33</v>
       </c>
+      <c r="Q289" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2">
@@ -17876,6 +18746,9 @@
       </c>
       <c r="P290">
         <v>33</v>
+      </c>
+      <c r="Q290" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="291">
@@ -17952,6 +18825,9 @@
       <c r="P291">
         <v>33</v>
       </c>
+      <c r="Q291" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2">
@@ -18016,6 +18892,9 @@
       <c r="P292">
         <v>33</v>
       </c>
+      <c r="Q292" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2">
@@ -18080,6 +18959,9 @@
       <c r="P293">
         <v>33</v>
       </c>
+      <c r="Q293" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2">
@@ -18144,6 +19026,9 @@
       <c r="P294">
         <v>33</v>
       </c>
+      <c r="Q294" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2">
@@ -18208,6 +19093,9 @@
       <c r="P295">
         <v>33</v>
       </c>
+      <c r="Q295" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2">
@@ -18281,6 +19169,9 @@
       <c r="P296">
         <v>33</v>
       </c>
+      <c r="Q296" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2">
@@ -18343,6 +19234,9 @@
       <c r="P297">
         <v>33</v>
       </c>
+      <c r="Q297" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2">
@@ -18406,6 +19300,9 @@
       <c r="P298">
         <v>33</v>
       </c>
+      <c r="Q298" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2">
@@ -18469,6 +19366,9 @@
       </c>
       <c r="P299">
         <v>33</v>
+      </c>
+      <c r="Q299" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="300">
@@ -18535,6 +19435,9 @@
       <c r="P300">
         <v>33</v>
       </c>
+      <c r="Q300" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2">
@@ -18599,6 +19502,9 @@
       <c r="P301">
         <v>33</v>
       </c>
+      <c r="Q301" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2">
@@ -18661,6 +19567,9 @@
       <c r="P302">
         <v>33</v>
       </c>
+      <c r="Q302" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2">
@@ -18723,6 +19632,9 @@
       </c>
       <c r="P303">
         <v>33</v>
+      </c>
+      <c r="Q303" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="304">
@@ -18789,6 +19701,9 @@
       <c r="P304">
         <v>33</v>
       </c>
+      <c r="Q304" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2">
@@ -18851,6 +19766,9 @@
       </c>
       <c r="P305">
         <v>33</v>
+      </c>
+      <c r="Q305" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="306">
@@ -18920,6 +19838,9 @@
       <c r="P306">
         <v>33</v>
       </c>
+      <c r="Q306" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2">
@@ -18984,6 +19905,9 @@
       <c r="P307">
         <v>33</v>
       </c>
+      <c r="Q307" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2">
@@ -19048,6 +19972,9 @@
       <c r="P308">
         <v>33</v>
       </c>
+      <c r="Q308" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2">
@@ -19110,6 +20037,9 @@
       <c r="P309">
         <v>33</v>
       </c>
+      <c r="Q309" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2">
@@ -19172,6 +20102,9 @@
       </c>
       <c r="P310">
         <v>33</v>
+      </c>
+      <c r="Q310" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="311">
@@ -19240,6 +20173,9 @@
       <c r="P311">
         <v>33</v>
       </c>
+      <c r="Q311" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2">
@@ -19304,6 +20240,9 @@
       <c r="P312">
         <v>33</v>
       </c>
+      <c r="Q312" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2">
@@ -19368,6 +20307,9 @@
       <c r="P313">
         <v>33</v>
       </c>
+      <c r="Q313" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2">
@@ -19430,6 +20372,9 @@
       </c>
       <c r="P314">
         <v>33</v>
+      </c>
+      <c r="Q314" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="315">
@@ -19497,6 +20442,9 @@
       <c r="P315">
         <v>33</v>
       </c>
+      <c r="Q315" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2">
@@ -19559,6 +20507,9 @@
       </c>
       <c r="P316">
         <v>33</v>
+      </c>
+      <c r="Q316" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="317">
@@ -19616,6 +20567,9 @@
       <c r="P317">
         <v>33</v>
       </c>
+      <c r="Q317" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2">
@@ -19668,6 +20622,9 @@
       <c r="P318">
         <v>33</v>
       </c>
+      <c r="Q318" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2">
@@ -19727,6 +20684,9 @@
       <c r="P319">
         <v>33</v>
       </c>
+      <c r="Q319" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2">
@@ -19780,6 +20740,9 @@
       <c r="P320">
         <v>33</v>
       </c>
+      <c r="Q320" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2">
@@ -19834,6 +20797,9 @@
       <c r="P321">
         <v>33</v>
       </c>
+      <c r="Q321" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2">
@@ -19887,6 +20853,9 @@
       <c r="P322">
         <v>33</v>
       </c>
+      <c r="Q322" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2">
@@ -19940,6 +20909,9 @@
       </c>
       <c r="P323">
         <v>33</v>
+      </c>
+      <c r="Q323" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="324">
@@ -19996,6 +20968,9 @@
       <c r="P324">
         <v>33</v>
       </c>
+      <c r="Q324" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2">
@@ -20049,6 +21024,9 @@
       <c r="P325">
         <v>33</v>
       </c>
+      <c r="Q325" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2">
@@ -20100,6 +21078,9 @@
       </c>
       <c r="P326">
         <v>33</v>
+      </c>
+      <c r="Q326" s="2">
+        <v>43689</v>
       </c>
     </row>
     <row r="327">
@@ -20158,6 +21139,9 @@
       <c r="P327">
         <v>33</v>
       </c>
+      <c r="Q327" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2">
@@ -20215,6 +21199,9 @@
       <c r="P328">
         <v>33</v>
       </c>
+      <c r="Q328" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2">
@@ -20268,6 +21255,9 @@
       <c r="P329">
         <v>33</v>
       </c>
+      <c r="Q329" s="2">
+        <v>43689</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2">
@@ -20332,6 +21322,9 @@
       <c r="P330">
         <v>34</v>
       </c>
+      <c r="Q330" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2">
@@ -20385,6 +21378,9 @@
       <c r="P331">
         <v>34</v>
       </c>
+      <c r="Q331" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2">
@@ -20437,6 +21433,9 @@
       </c>
       <c r="P332">
         <v>34</v>
+      </c>
+      <c r="Q332" s="2">
+        <v>43696</v>
       </c>
     </row>
     <row r="333">
@@ -20494,6 +21493,9 @@
       <c r="P333">
         <v>34</v>
       </c>
+      <c r="Q333" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2">
@@ -20548,6 +21550,9 @@
       <c r="P334">
         <v>34</v>
       </c>
+      <c r="Q334" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2">
@@ -20601,6 +21606,9 @@
       <c r="P335">
         <v>34</v>
       </c>
+      <c r="Q335" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2">
@@ -20654,6 +21662,9 @@
       <c r="P336">
         <v>34</v>
       </c>
+      <c r="Q336" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2">
@@ -20707,6 +21718,9 @@
       <c r="P337">
         <v>34</v>
       </c>
+      <c r="Q337" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2">
@@ -20760,6 +21774,9 @@
       <c r="P338">
         <v>34</v>
       </c>
+      <c r="Q338" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2">
@@ -20812,6 +21829,9 @@
       <c r="P339">
         <v>34</v>
       </c>
+      <c r="Q339" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2">
@@ -20866,6 +21886,9 @@
       <c r="P340">
         <v>34</v>
       </c>
+      <c r="Q340" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2">
@@ -20918,6 +21941,9 @@
       <c r="P341">
         <v>34</v>
       </c>
+      <c r="Q341" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2">
@@ -20972,6 +21998,9 @@
       <c r="P342">
         <v>34</v>
       </c>
+      <c r="Q342" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2">
@@ -21025,6 +22054,9 @@
       <c r="P343">
         <v>34</v>
       </c>
+      <c r="Q343" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2">
@@ -21078,6 +22110,9 @@
       <c r="P344">
         <v>34</v>
       </c>
+      <c r="Q344" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2">
@@ -21130,6 +22165,9 @@
       <c r="P345">
         <v>34</v>
       </c>
+      <c r="Q345" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2">
@@ -21184,6 +22222,9 @@
       <c r="P346">
         <v>34</v>
       </c>
+      <c r="Q346" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2">
@@ -21248,6 +22289,9 @@
       <c r="P347">
         <v>34</v>
       </c>
+      <c r="Q347" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2">
@@ -21301,6 +22345,9 @@
       <c r="P348">
         <v>34</v>
       </c>
+      <c r="Q348" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2">
@@ -21355,6 +22402,9 @@
       <c r="P349">
         <v>34</v>
       </c>
+      <c r="Q349" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2">
@@ -21407,6 +22457,9 @@
       <c r="P350">
         <v>34</v>
       </c>
+      <c r="Q350" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2">
@@ -21459,6 +22512,9 @@
       <c r="P351">
         <v>34</v>
       </c>
+      <c r="Q351" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2">
@@ -21511,6 +22567,9 @@
       <c r="P352">
         <v>34</v>
       </c>
+      <c r="Q352" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2">
@@ -21563,6 +22622,9 @@
       <c r="P353">
         <v>34</v>
       </c>
+      <c r="Q353" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2">
@@ -21615,6 +22677,9 @@
       <c r="P354">
         <v>34</v>
       </c>
+      <c r="Q354" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2">
@@ -21678,6 +22743,9 @@
       <c r="P355">
         <v>34</v>
       </c>
+      <c r="Q355" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2">
@@ -21741,6 +22809,9 @@
       <c r="P356">
         <v>34</v>
       </c>
+      <c r="Q356" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2">
@@ -21804,6 +22875,9 @@
       <c r="P357">
         <v>34</v>
       </c>
+      <c r="Q357" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2">
@@ -21867,6 +22941,9 @@
       <c r="P358">
         <v>34</v>
       </c>
+      <c r="Q358" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2">
@@ -21930,6 +23007,9 @@
       <c r="P359">
         <v>34</v>
       </c>
+      <c r="Q359" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2">
@@ -21983,6 +23063,9 @@
       <c r="P360">
         <v>34</v>
       </c>
+      <c r="Q360" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2">
@@ -22035,6 +23118,9 @@
       </c>
       <c r="P361">
         <v>34</v>
+      </c>
+      <c r="Q361" s="2">
+        <v>43696</v>
       </c>
     </row>
     <row r="362">
@@ -22097,6 +23183,9 @@
       <c r="P362">
         <v>34</v>
       </c>
+      <c r="Q362" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2">
@@ -22161,6 +23250,9 @@
       <c r="P363">
         <v>34</v>
       </c>
+      <c r="Q363" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2">
@@ -22213,6 +23305,9 @@
       <c r="P364">
         <v>34</v>
       </c>
+      <c r="Q364" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2">
@@ -22265,6 +23360,9 @@
       </c>
       <c r="P365">
         <v>34</v>
+      </c>
+      <c r="Q365" s="2">
+        <v>43696</v>
       </c>
     </row>
     <row r="366">
@@ -22321,6 +23419,9 @@
       </c>
       <c r="P366">
         <v>34</v>
+      </c>
+      <c r="Q366" s="2">
+        <v>43696</v>
       </c>
     </row>
     <row r="367">
@@ -22380,6 +23481,9 @@
       <c r="P367">
         <v>34</v>
       </c>
+      <c r="Q367" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2">
@@ -22432,6 +23536,9 @@
       <c r="P368">
         <v>34</v>
       </c>
+      <c r="Q368" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2">
@@ -22491,6 +23598,9 @@
       <c r="P369">
         <v>34</v>
       </c>
+      <c r="Q369" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2">
@@ -22543,6 +23653,9 @@
       <c r="P370">
         <v>34</v>
       </c>
+      <c r="Q370" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2">
@@ -22596,6 +23709,9 @@
       <c r="P371">
         <v>34</v>
       </c>
+      <c r="Q371" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2">
@@ -22648,6 +23764,9 @@
       <c r="P372">
         <v>34</v>
       </c>
+      <c r="Q372" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2">
@@ -22702,6 +23821,9 @@
       <c r="P373">
         <v>34</v>
       </c>
+      <c r="Q373" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2">
@@ -22754,6 +23876,9 @@
       <c r="P374">
         <v>34</v>
       </c>
+      <c r="Q374" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2">
@@ -22806,6 +23931,9 @@
       </c>
       <c r="P375">
         <v>34</v>
+      </c>
+      <c r="Q375" s="2">
+        <v>43696</v>
       </c>
     </row>
     <row r="376">
@@ -22871,6 +23999,9 @@
       </c>
       <c r="P376">
         <v>34</v>
+      </c>
+      <c r="Q376" s="2">
+        <v>43696</v>
       </c>
     </row>
     <row r="377">
@@ -22935,6 +24066,9 @@
       <c r="P377">
         <v>34</v>
       </c>
+      <c r="Q377" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2">
@@ -22994,6 +24128,9 @@
       <c r="P378">
         <v>34</v>
       </c>
+      <c r="Q378" s="2">
+        <v>43696</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2">
@@ -23050,6 +24187,9 @@
       </c>
       <c r="P379">
         <v>34</v>
+      </c>
+      <c r="Q379" s="2">
+        <v>43696</v>
       </c>
     </row>
     <row r="380">
@@ -23112,6 +24252,9 @@
       <c r="P380">
         <v>34</v>
       </c>
+      <c r="Q380" s="2">
+        <v>43696</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/saved_versions/fcheck_temp.xlsx
+++ b/saved_versions/fcheck_temp.xlsx
@@ -26181,6 +26181,20 @@
 </t>
         </is>
       </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facts First: Trump was vague here, but energy experts were confident he was referring to his administration’s controversial decision, announced in August, to exempt 31 small oil refineries from the requirement to blend biofuels like ethanol into their fuel. https://www.reuters.com/article/us-usa-ethanol-epa/trumps-epa-grants-31-small-refinery-waivers-from-biofuel-laws-angering-corn-lobby-idUSKCN1UZ2AV. Four experts told us they did not believe the decision saved any refineries from shutting down._x000D_
+ _x000D_
+“As far as I know, there were no refineries on the brink of closing last year,” said Tom Kloza, global head of energy analysis for the Oil Price Information Service._x000D_
+Refiners are able to buy credits from other companies instead of meeting their obligations under the Renewable Fuel Standard. _x000D_
+“I haven’t heard of any closures President Trump has prevented through issuing RFS waivers. Especially given how cheap RINs (Renewable Identification Numbers, or credits) have been over the past year or so,” said Josh Price, a senior energy analyst at Height Capital Markets._x000D_
+“The refineries in question were likely not in serious danger of closing as a result of (Renewable Fuel Standard) compliance cost,” said Eric Lundin, director for biofuels at Stratas Advisors, “due to the fact that the RFS obligations for a majority of them have now been waived for two consecutive years. In addition, the costs associated with RFS compliance for the 2018 compliance year would be no more than one-third to one-half of what they were in the 2016 and 2017 compliance years due to far lower RFS credit prices.”_x000D_
+The White House did not respond to a request to identify any refineries Trump had supposedly prevented from closing. Since the government does not release the list of refineries to which it has granted waivers, only the number, it is not possible to go down the list ourselves._x000D_
+Frank Maisano, spokesman for Fueling American Jobs Coalition, whose members include small refineries, said the issue is more complicated than simply counting the number of refineries saved._x000D_
+“Small refiner exemptions are proprietary, so you won't be able to identify any specific facilities at risk, but refineries that qualify are constantly under strain from the costs of the RFS,” Maisano said._x000D_
+</t>
+        </is>
+      </c>
       <c r="L412">
         <v>2019</v>
       </c>
